--- a/Income_accounting_Njombe.xlsx
+++ b/Income_accounting_Njombe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\GitHub\Tanzania Dairy Mitigation Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C235223-0E9B-46E6-A4B8-C903495DB433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934100E2-AE19-4623-AB1D-8B4E29898B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64B7B528-6AFC-453E-A699-FBF307BA8192}"/>
   </bookViews>
@@ -833,22 +833,31 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -860,21 +869,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1991,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3677A265-4F8D-4424-81DC-A71D3ED6A3A2}">
   <dimension ref="A1:L558"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2007,26 +2007,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="83" t="s">
         <v>105</v>
       </c>
@@ -2035,16 +2035,16 @@
       <c r="A3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="89">
+      <c r="C3" s="92">
         <f>G3</f>
         <v>0.68136304356303046</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92">
         <f>Dairy_Income_Baseline!B3</f>
         <v>0.47075992100718467</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="45">
         <f>[1]All!$L$10*L17</f>
         <v>0.68136304356303046</v>
@@ -2054,16 +2054,16 @@
       <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="93">
         <f>[2]prod_herd_data!J39</f>
         <v>3007.9506358527424</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85">
+      <c r="D4" s="93"/>
+      <c r="E4" s="93">
         <f>[2]prod_herd_data!J38</f>
         <v>757.75586056583484</v>
       </c>
-      <c r="F4" s="85"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="46">
         <f>[2]prod_herd_data!J39</f>
         <v>3007.9506358527424</v>
@@ -2073,16 +2073,16 @@
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="94">
         <f>Dairy_Income_Baseline!D5</f>
         <v>0.51839999999999997</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86">
+      <c r="D5" s="94"/>
+      <c r="E5" s="94">
         <f>Dairy_Income_Baseline!B5</f>
         <v>0.40200000000000002</v>
       </c>
-      <c r="F5" s="86"/>
+      <c r="F5" s="94"/>
       <c r="G5" s="76">
         <f>C5</f>
         <v>0.51839999999999997</v>
@@ -2092,52 +2092,52 @@
       <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="93">
         <f>C4*C3*(12*L12-9)/(12*L12)</f>
         <v>1921.4122501237289</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85">
+      <c r="D6" s="93"/>
+      <c r="E6" s="93">
         <f>E4*E3</f>
         <v>356.72108906270364</v>
       </c>
-      <c r="F6" s="85"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="46">
         <f>G4*G3</f>
         <v>2049.5064001319774</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="93">
         <f>(([2]concentrate_feeding!$D$23*L30)+([2]concentrate_feeding!$D$24*L31))</f>
         <v>337.84894587744157</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93">
         <f>(([2]concentrate_feeding!$D$17*L30)+([2]concentrate_feeding!$D$18*L31))</f>
         <v>86.361328970444461</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="46">
         <f>(([2]concentrate_feeding!$D$20*L30)+([2]concentrate_feeding!$D$21*L31))</f>
         <v>337.84894587744157</v>
@@ -2147,16 +2147,16 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="93">
         <f>[3]NPV_Baseline!E9</f>
         <v>2.4640522792596169</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85">
+      <c r="D10" s="93"/>
+      <c r="E10" s="93">
         <f>[3]NPV_Baseline!C9</f>
         <v>3.8125058757578052</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="46">
         <f>[3]NPV_Baseline!E9</f>
         <v>2.4640522792596169</v>
@@ -2166,16 +2166,16 @@
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="93">
         <f>[3]NPV_Baseline!E10</f>
         <v>10.524515875107813</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85">
+      <c r="D11" s="93"/>
+      <c r="E11" s="93">
         <f>[3]NPV_Baseline!C10</f>
         <v>14.319919412568568</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="46">
         <f>[3]NPV_Baseline!E10</f>
         <v>10.524515875107813</v>
@@ -2188,16 +2188,16 @@
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="93">
         <f>[3]NPV_Baseline!E11</f>
         <v>1.7120179889182412E-4</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85">
+      <c r="D12" s="93"/>
+      <c r="E12" s="93">
         <f>[3]NPV_Baseline!C11</f>
         <v>1.7120179889182412E-4</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="46">
         <f>[3]NPV_Baseline!E11</f>
         <v>1.7120179889182412E-4</v>
@@ -2210,26 +2210,26 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="43"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="93">
         <f>SUM(C9:C12)</f>
         <v>350.83768523360783</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85">
+      <c r="D14" s="93"/>
+      <c r="E14" s="93">
         <f>SUM(E9:E12)</f>
         <v>104.49392546056973</v>
       </c>
-      <c r="F14" s="85"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="46">
         <f>SUM(G9:G12)</f>
         <v>350.83768523360783</v>
@@ -2243,10 +2243,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="43"/>
       <c r="K15" t="s">
         <v>66</v>
@@ -2260,23 +2260,23 @@
       <c r="A16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="93">
         <f>L14/L12</f>
         <v>39.958333333333336</v>
       </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85">
+      <c r="D16" s="93"/>
+      <c r="E16" s="93">
         <f>[4]Dairy_Income_Baseline!B12</f>
         <v>0</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="77"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
       <c r="K17" t="s">
         <v>90</v>
       </c>
@@ -2286,35 +2286,35 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="94">
         <f>L36*L17</f>
         <v>288.26701511267407</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86">
+      <c r="D20" s="94"/>
+      <c r="E20" s="94">
         <f>L36*L17</f>
         <v>288.26701511267407</v>
       </c>
-      <c r="F20" s="86"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="17">
         <f>L38*L17</f>
         <v>186.49040603762646</v>
@@ -2331,16 +2331,16 @@
       <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="94">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data!$D$25/L33))</f>
         <v>7.6409661037666346E-2</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86">
+      <c r="D21" s="94"/>
+      <c r="E21" s="94">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data!$D$19/L33))</f>
         <v>3.1621741520077642E-2</v>
       </c>
-      <c r="F21" s="86"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="17">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data!$D$22/L33))</f>
         <v>5.9751303662473179E-2</v>
@@ -2350,16 +2350,16 @@
       <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="94">
         <f>(((1/1000)*(1/L25)*[2]feeding_change_data_pasture!$D$25/L34))</f>
         <v>0.30000846586262692</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86">
+      <c r="D22" s="94"/>
+      <c r="E22" s="94">
         <f>(((1/1000)*(1/L25)*[2]feeding_change_data_pasture!$D$19/L34))</f>
         <v>-4.6027546575673692E-2</v>
       </c>
-      <c r="F22" s="86"/>
+      <c r="F22" s="94"/>
       <c r="G22" s="17">
         <f>(((1/1000)*(1/L25)*[2]feeding_change_data_pasture!$D$22/L34))</f>
         <v>0.17717543414539857</v>
@@ -2368,23 +2368,23 @@
         <v>100</v>
       </c>
       <c r="L22">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="94">
         <f>SUM(C21:D22)</f>
         <v>0.37641812690029325</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86">
+      <c r="D23" s="94"/>
+      <c r="E23" s="94">
         <f>SUM(E21:F22)</f>
         <v>-1.4405805055596049E-2</v>
       </c>
-      <c r="F23" s="86"/>
+      <c r="F23" s="94"/>
       <c r="G23" s="17">
         <f>SUM(G21:G22)</f>
         <v>0.23692673780787177</v>
@@ -2394,16 +2394,16 @@
       <c r="A24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="94">
         <f>L20*(C21+C22)</f>
         <v>10.539707553208212</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86">
+      <c r="D24" s="94"/>
+      <c r="E24" s="94">
         <f>L20*(E21+E22)</f>
         <v>-0.40336254155668938</v>
       </c>
-      <c r="F24" s="86"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="17">
         <f>L20*(G21+G22)</f>
         <v>6.6339486586204099</v>
@@ -2420,16 +2420,16 @@
       <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="94">
         <f>(C21+C22)*C20+C24</f>
         <v>119.04863742905951</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86">
+      <c r="D25" s="94"/>
+      <c r="E25" s="94">
         <f>(E21+E22)*E20+E24</f>
         <v>-4.5560809652284329</v>
       </c>
-      <c r="F25" s="86"/>
+      <c r="F25" s="94"/>
       <c r="G25" s="17">
         <f>(G21+G22)*G20+G24</f>
         <v>50.818512193580681</v>
@@ -2442,16 +2442,16 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
       <c r="K27" t="s">
         <v>23</v>
       </c>
@@ -2464,21 +2464,21 @@
       <c r="A28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="93">
         <f>(134/144)*C6-C14-C16</f>
         <v>1397.1848252981956</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85">
+      <c r="D28" s="93"/>
+      <c r="E28" s="93">
         <f>E6-E14-E16/L12</f>
         <v>252.22716360213391</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85">
+      <c r="F28" s="93"/>
+      <c r="G28" s="93">
         <f>G6-G14-G16/L12</f>
         <v>1698.6687148983697</v>
       </c>
-      <c r="H28" s="85"/>
+      <c r="H28" s="93"/>
       <c r="K28" t="s">
         <v>23</v>
       </c>
@@ -2491,26 +2491,26 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="85">
+      <c r="C29" s="93">
         <f>C28-Dairy_Income_Baseline!B29</f>
         <v>1329.2916527127579</v>
       </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93">
         <f>E28-Dairy_Income_Baseline!D29</f>
         <v>-434.18421162459117</v>
       </c>
-      <c r="F29" s="85"/>
+      <c r="F29" s="93"/>
       <c r="G29" s="27">
         <f>G28-Dairy_Income_Baseline!D29</f>
         <v>1012.2573396716446</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
       <c r="K30" t="s">
         <v>25</v>
       </c>
@@ -2520,15 +2520,15 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
       <c r="K31" t="s">
         <v>24</v>
       </c>
@@ -2541,25 +2541,25 @@
       <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="89">
+      <c r="C33" s="92">
         <f>Dairy_Income_Baseline!D37</f>
         <v>1.0344968421481813</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89">
+      <c r="D33" s="92"/>
+      <c r="E33" s="92">
         <f>Dairy_Income_Baseline!B37</f>
         <v>0.1404872254769135</v>
       </c>
-      <c r="F33" s="89"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="44">
         <f>Dairy_Income_Baseline!D37</f>
         <v>1.0344968421481813</v>
@@ -2572,10 +2572,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
       <c r="K34" t="s">
         <v>48</v>
       </c>
@@ -2587,16 +2587,16 @@
       <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="85">
+      <c r="C35" s="93">
         <f>Dairy_Income_Baseline!B39</f>
         <v>100.89537102432878</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85">
+      <c r="D35" s="93"/>
+      <c r="E35" s="93">
         <f>Dairy_Income_Baseline!B39</f>
         <v>100.89537102432878</v>
       </c>
-      <c r="F35" s="85"/>
+      <c r="F35" s="93"/>
       <c r="G35" s="27">
         <f>Dairy_Income_Baseline!D39</f>
         <v>84.930913583770433</v>
@@ -2606,16 +2606,16 @@
       <c r="A36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C36" s="93">
         <f>Dairy_Income_Baseline!D40</f>
         <v>61.942094869366407</v>
       </c>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85">
+      <c r="D36" s="93"/>
+      <c r="E36" s="93">
         <f>Dairy_Income_Baseline!B40</f>
         <v>38.825560495437912</v>
       </c>
-      <c r="F36" s="85"/>
+      <c r="F36" s="93"/>
       <c r="G36" s="27">
         <f>Dairy_Income_Baseline!D40</f>
         <v>61.942094869366407</v>
@@ -2632,16 +2632,16 @@
       <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="85">
+      <c r="C37" s="93">
         <f>Dairy_Income_Baseline!D41</f>
         <v>10.983546719104146</v>
       </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85">
+      <c r="D37" s="93"/>
+      <c r="E37" s="93">
         <f>Dairy_Income_Baseline!B41</f>
         <v>17.497045354851952</v>
       </c>
-      <c r="F37" s="85"/>
+      <c r="F37" s="93"/>
       <c r="G37" s="27">
         <f>Dairy_Income_Baseline!D41</f>
         <v>10.983546719104146</v>
@@ -2658,16 +2658,16 @@
       <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="85">
+      <c r="C38" s="93">
         <f>Dairy_Income_Baseline!D42</f>
         <v>3.1928914881116706</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85">
+      <c r="D38" s="93"/>
+      <c r="E38" s="93">
         <f>Dairy_Income_Baseline!B42</f>
         <v>1.404872254769135</v>
       </c>
-      <c r="F38" s="85"/>
+      <c r="F38" s="93"/>
       <c r="G38" s="27">
         <f>Dairy_Income_Baseline!D42</f>
         <v>3.1928914881116706</v>
@@ -2684,16 +2684,16 @@
       <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="85">
+      <c r="C39" s="93">
         <f>[3]NPV_Baseline!E47</f>
         <v>0</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85">
+      <c r="D39" s="93"/>
+      <c r="E39" s="93">
         <f>Dairy_Income_Baseline!B43</f>
         <v>0</v>
       </c>
-      <c r="F39" s="85"/>
+      <c r="F39" s="93"/>
       <c r="G39" s="27">
         <f>Dairy_Income_Baseline!D43</f>
         <v>0</v>
@@ -2707,270 +2707,270 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="86">
+      <c r="C42" s="94">
         <f ca="1">_xlfn.NORM.INV(RAND(),C3,C33)</f>
-        <v>-0.68283297189001191</v>
-      </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86">
+        <v>8.0282649565054487E-2</v>
+      </c>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94">
         <f ca="1">_xlfn.NORM.INV(RAND(),E3,E33)</f>
-        <v>0.54822612443739516</v>
-      </c>
-      <c r="F42" s="86"/>
+        <v>0.57988831473368219</v>
+      </c>
+      <c r="F42" s="94"/>
       <c r="G42" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),G3,G33)</f>
-        <v>1.3415249836390895</v>
+        <v>-0.79096930488758588</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="86">
+      <c r="C43" s="94">
         <f ca="1">_xlfn.NORM.INV(RAND(),C4,C4*L22)</f>
-        <v>2194.6156256120312</v>
-      </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86">
+        <v>2915.5790998283887</v>
+      </c>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94">
         <f ca="1">_xlfn.NORM.INV(RAND(),E4,E4*L22)</f>
-        <v>707.40568178490798</v>
-      </c>
-      <c r="F43" s="86"/>
+        <v>846.48449560402446</v>
+      </c>
+      <c r="F43" s="94"/>
       <c r="G43" s="78">
         <f ca="1">_xlfn.NORM.INV(RAND(),G4,G4*L22)</f>
-        <v>3459.7663362941357</v>
+        <v>2516.1586192880804</v>
       </c>
       <c r="H43" s="78"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="85">
+      <c r="C45" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),C9,C35)</f>
-        <v>292.02990759417492</v>
-      </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85">
+        <v>410.64744836250566</v>
+      </c>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),E9,E35)</f>
-        <v>11.834457261460173</v>
-      </c>
-      <c r="F45" s="85"/>
+        <v>233.40215000275094</v>
+      </c>
+      <c r="F45" s="93"/>
       <c r="G45" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),G9,G35)</f>
-        <v>150.61620056827434</v>
+        <v>521.24693278365862</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="85">
+      <c r="C46" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),C10,C36)</f>
-        <v>61.169419572985937</v>
-      </c>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85">
+        <v>-28.353469955996061</v>
+      </c>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),E10,E36)</f>
-        <v>-4.8117839619500646</v>
-      </c>
-      <c r="F46" s="85"/>
+        <v>-21.236821710977051</v>
+      </c>
+      <c r="F46" s="93"/>
       <c r="G46" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),G10,G36)</f>
-        <v>-35.823510992085112</v>
+        <v>-22.475886522012786</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="85">
+      <c r="C47" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C37)</f>
-        <v>10.977053920210095</v>
-      </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85">
+        <v>-7.9838070318455188</v>
+      </c>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),E11,E37)</f>
-        <v>26.486866285189318</v>
-      </c>
-      <c r="F47" s="85"/>
+        <v>18.182823127505443</v>
+      </c>
+      <c r="F47" s="93"/>
       <c r="G47" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),G11,G37)</f>
-        <v>12.490390639706241</v>
+        <v>-12.955234834277981</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="85">
+      <c r="C48" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),C12,C38)</f>
-        <v>-0.73120229292275607</v>
-      </c>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85">
+        <v>0.3744404417965233</v>
+      </c>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),E12,E38)</f>
-        <v>-0.96081232198221955</v>
-      </c>
-      <c r="F48" s="85"/>
+        <v>-0.26655536408254238</v>
+      </c>
+      <c r="F48" s="93"/>
       <c r="G48" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),G12,G38)</f>
-        <v>-1.1757580330017183</v>
+        <v>0.71756076902578758</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="85">
+      <c r="C49" s="93">
         <v>1E-4</v>
       </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85">
+      <c r="D49" s="93"/>
+      <c r="E49" s="93">
         <v>1E-4</v>
       </c>
-      <c r="F49" s="85"/>
+      <c r="F49" s="93"/>
       <c r="G49" s="27">
         <v>1E-4</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
       <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="85">
+      <c r="C51" s="93">
         <f ca="1">SUM(C45:C49)</f>
-        <v>363.44527879444814</v>
-      </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85">
+        <v>374.68471181646061</v>
+      </c>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93">
         <f ca="1">SUM(E45:E49)</f>
-        <v>32.548827262717211</v>
-      </c>
-      <c r="F51" s="85"/>
+        <v>230.08169605519683</v>
+      </c>
+      <c r="F51" s="93"/>
       <c r="G51" s="27">
         <f ca="1">SUM(G45:G49)</f>
-        <v>126.10742218289376</v>
+        <v>486.53347219639363</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
       <c r="G52" s="27"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="85">
+      <c r="C53" s="93">
         <f ca="1">C42*C43-C51</f>
-        <v>-1862.0011885873691</v>
-      </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85">
+        <v>-140.61429666574105</v>
+      </c>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93">
         <f ca="1">E42*E43-E51</f>
-        <v>355.2694480672161</v>
-      </c>
-      <c r="F53" s="85"/>
+        <v>260.78477154881193</v>
+      </c>
+      <c r="F53" s="93"/>
       <c r="G53" s="27">
         <f ca="1">G42*G43-G51</f>
-        <v>4515.2555555091685</v>
+        <v>-2476.7377062815945</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
       <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="85">
+      <c r="C55" s="93">
         <f ca="1">AVERAGE(C59:C558)</f>
-        <v>911.10600541537951</v>
-      </c>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85">
+        <v>914.54877919922285</v>
+      </c>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93">
         <f ca="1">AVERAGE(E59:E558)</f>
-        <v>5.5146009514307002</v>
-      </c>
-      <c r="F55" s="85"/>
+        <v>5.3256315983938931</v>
+      </c>
+      <c r="F55" s="93"/>
       <c r="G55" s="27">
         <f ca="1">AVERAGE(G59:G558)</f>
-        <v>963.02530380930398</v>
+        <v>949.04131728572247</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="85">
+      <c r="C56" s="93">
         <f ca="1">STDEVA(C59:C558)</f>
-        <v>344.13998800633283</v>
-      </c>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85">
+        <v>324.38565051534323</v>
+      </c>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93">
         <f t="shared" ref="E56:G56" ca="1" si="0">STDEVA(E59:E558)</f>
-        <v>30.856967430697996</v>
-      </c>
-      <c r="F56" s="85"/>
+        <v>28.940565842065155</v>
+      </c>
+      <c r="F56" s="93"/>
       <c r="G56" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>335.90696904107671</v>
+        <v>333.2591422727711</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="43">
@@ -2978,21 +2978,21 @@
       </c>
       <c r="C59" s="46">
         <f ca="1">C53</f>
-        <v>-1862.0011885873691</v>
+        <v>-140.61429666574105</v>
       </c>
       <c r="D59" s="43">
         <v>1</v>
       </c>
       <c r="E59" s="46">
         <f ca="1">E53</f>
-        <v>355.2694480672161</v>
+        <v>260.78477154881193</v>
       </c>
       <c r="F59" s="43">
         <v>1</v>
       </c>
       <c r="G59" s="46">
         <f ca="1">G53</f>
-        <v>4515.2555555091685</v>
+        <v>-2476.7377062815945</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -12977,82 +12977,19 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
@@ -13077,19 +13014,82 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13114,146 +13114,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="91"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="86">
+      <c r="B3" s="94">
         <f>[1]All!$L$9*L18</f>
         <v>0.47075992100718467</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86">
+      <c r="C3" s="94"/>
+      <c r="D3" s="94">
         <f>[1]All!$L$10*L18</f>
         <v>0.68136304356303046</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="94"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="85">
+      <c r="B4" s="93">
         <f>[2]prod_herd_data!J17</f>
         <v>367.30829304581511</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93">
         <f>[2]prod_herd_data!J18</f>
         <v>1424.0802472278533</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="93"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Dairy_Income_Roadmap!A5</f>
         <v>Fraction cows to total herd</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="94">
         <f>[1]All!$I$9</f>
         <v>0.40200000000000002</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94">
         <f>[1]All!$I$10</f>
         <v>0.51839999999999997</v>
       </c>
-      <c r="E5" s="86"/>
+      <c r="E5" s="94"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="93">
         <f>B4*B3</f>
         <v>172.91402301953175</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93">
         <f>D4*D3</f>
         <v>970.31565152916301</v>
       </c>
-      <c r="E6" s="85"/>
+      <c r="E6" s="93"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="93">
         <f xml:space="preserve"> (([2]FEEDING_base!$D$17*L31)+([2]FEEDING_base!$D$18*L32))</f>
         <v>83.69233529350808</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85">
+      <c r="C9" s="93"/>
+      <c r="D9" s="93">
         <f>(([2]FEEDING_base!$D$23*L31)+([2]FEEDING_base!$D$24*L32))</f>
         <v>248.28886005706909</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="93"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="93">
         <f>[1]All!$P$9*L18</f>
         <v>4.470048083356339</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85">
+      <c r="C10" s="93"/>
+      <c r="D10" s="93">
         <f>[1]All!$P$10*L18</f>
         <v>9.1955274857616107</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="93">
         <f>[1]All!$Q$9*L18</f>
         <v>16.603035738180687</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85">
+      <c r="C11" s="93"/>
+      <c r="D11" s="93">
         <f>[1]All!$Q$10*L18</f>
         <v>16.219888759607286</v>
       </c>
-      <c r="E11" s="85"/>
+      <c r="E11" s="93"/>
       <c r="K11" s="2" t="s">
         <v>87</v>
       </c>
@@ -13262,16 +13262,16 @@
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="93">
         <f>[1]All!$R$9*L18</f>
         <v>0.25543131904893362</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85">
+      <c r="C12" s="93"/>
+      <c r="D12" s="93">
         <f>[1]All!$R$10*17</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="93"/>
       <c r="K12" t="s">
         <v>85</v>
       </c>
@@ -13283,37 +13283,37 @@
       <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="93">
         <f>0*L18</f>
         <v>0</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85">
+      <c r="C13" s="93"/>
+      <c r="D13" s="93">
         <f>0*L18</f>
         <v>0</v>
       </c>
-      <c r="E13" s="85"/>
+      <c r="E13" s="93"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="93">
         <f>SUM(B9:B13)</f>
         <v>105.02085043409406</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85">
+      <c r="C15" s="93"/>
+      <c r="D15" s="93">
         <f>SUM(D9:D13)</f>
         <v>283.90427630243795</v>
       </c>
-      <c r="E15" s="85"/>
+      <c r="E15" s="93"/>
       <c r="K15" t="str">
         <f>[3]NPV_Roadmap!K14</f>
         <v>Price acquring new animal (USD/head)</v>
@@ -13324,22 +13324,22 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
       <c r="K18" t="str">
         <f>[3]NPV_Roadmap!K17</f>
         <v>GDP deflator</v>
@@ -13350,44 +13350,44 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="85">
+      <c r="B20" s="93">
         <f>L37*L18</f>
         <v>288.26701511267407</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93">
         <f>L39*L18</f>
         <v>186.49040603762646</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
+      <c r="E20" s="93"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="85">
+      <c r="B21" s="93">
         <f>( [7]Sheet1!$QH$47*[2]feeding_change_data!$D$4  +      [7]Sheet1!$QH$38*[2]feeding_change_data!$E$4)/([2]feeding_change_data!$D$4+[2]feeding_change_data!$E$4)</f>
         <v>113.87379929520394</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85">
+      <c r="C21" s="93"/>
+      <c r="D21" s="93">
         <f>( [7]Sheet1!$QG$47*[2]feeding_change_data!$D$4+      [7]Sheet1!$QG$38*[2]feeding_change_data!$E$4)/([2]feeding_change_data!$S$4+[2]feeding_change_data!$E$4)</f>
         <v>2567.5736640595242</v>
       </c>
-      <c r="E21" s="85"/>
+      <c r="E21" s="93"/>
       <c r="K21" t="str">
         <f>[3]NPV_Roadmap!K25</f>
         <v>Forage seeding cost (USD/ha/yr)</v>
@@ -13401,46 +13401,46 @@
       <c r="A22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="85">
+      <c r="B22" s="93">
         <f>(((1/1000)*(1/L24)/L34))*B21</f>
         <v>1.1679364030277327E-2</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85">
+      <c r="C22" s="93"/>
+      <c r="D22" s="93">
         <f>(((1/1000)*(1/L24)/L34))*D21</f>
         <v>0.26334088862148963</v>
       </c>
-      <c r="E22" s="85"/>
+      <c r="E22" s="93"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="85">
+      <c r="B23" s="93">
         <f>( [7]Sheet1!$QP$47*[2]feeding_change_data_pasture!$S$4+      [7]Sheet1!$QP$38*[2]feeding_change_data_pasture!$E$4)/([2]feeding_change_data_pasture!$S$4+[2]feeding_change_data_pasture!$E$4)</f>
         <v>45.002914171323539</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85">
+      <c r="C23" s="93"/>
+      <c r="D23" s="93">
         <f>( [7]Sheet1!$QO$47*[2]feeding_change_data_pasture!$S$4+      [7]Sheet1!$QO$38*[2]feeding_change_data_pasture!$E$4)/([2]feeding_change_data_pasture!$S$4+[2]feeding_change_data_pasture!$E$4)</f>
         <v>430.24211526249343</v>
       </c>
-      <c r="E23" s="85"/>
+      <c r="E23" s="93"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="85">
+      <c r="B24" s="93">
         <f>(((1/1000)*(1/L26)/L35))*B23</f>
         <v>1.8001165668529415E-2</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85">
+      <c r="C24" s="93"/>
+      <c r="D24" s="93">
         <f>(((1/1000)*(1/L26)/L35))*D23</f>
         <v>0.17209684610499737</v>
       </c>
-      <c r="E24" s="85"/>
+      <c r="E24" s="93"/>
       <c r="K24" t="str">
         <f>[3]NPV_Roadmap!K28</f>
         <v>Use efficiency napier</v>
@@ -13454,31 +13454,31 @@
       <c r="A25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="85">
+      <c r="B25" s="93">
         <f>B24+B22</f>
         <v>2.9680529698806742E-2</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85">
+      <c r="C25" s="93"/>
+      <c r="D25" s="93">
         <f>D24+D22</f>
         <v>0.435437734726487</v>
       </c>
-      <c r="E25" s="85"/>
+      <c r="E25" s="93"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="85">
+      <c r="B26" s="93">
         <f>(B22+B24)*L18*L21</f>
         <v>1.0613871591452158</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85">
+      <c r="C26" s="93"/>
+      <c r="D26" s="93">
         <f>(D22+D24)*L18*L21</f>
         <v>15.571420892281271</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="93"/>
       <c r="K26" t="str">
         <f>[3]NPV_Roadmap!K29</f>
         <v>Use efficiency pasture</v>
@@ -13492,22 +13492,22 @@
       <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="85">
+      <c r="B27" s="93">
         <f>(B22+B24)*B20+B26</f>
         <v>9.6173048623833104</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85">
+      <c r="C27" s="93"/>
+      <c r="D27" s="93">
         <f>(D22+D24)*D20+D26</f>
         <v>96.776380845528109</v>
       </c>
-      <c r="E27" s="85"/>
+      <c r="E27" s="93"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
       <c r="K28" t="str">
         <f>[3]NPV_Roadmap!K31</f>
         <v>Standard error (%) improved forage yield</v>
@@ -13521,16 +13521,16 @@
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="85">
+      <c r="B29" s="93">
         <f>B6-B15</f>
         <v>67.893172585437696</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85">
+      <c r="C29" s="93"/>
+      <c r="D29" s="93">
         <f>D6-D15</f>
         <v>686.41137522672511</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="93"/>
       <c r="K29" t="str">
         <f>[3]NPV_Roadmap!K32</f>
         <v>Standard error (%) improved forage yield</v>
@@ -13541,16 +13541,16 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
       <c r="K31" t="str">
         <f>[3]NPV_Roadmap!K34</f>
         <v>Market price Sunflower cake (USD/kg)</v>
@@ -13561,10 +13561,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
       <c r="K32" t="str">
         <f>[3]NPV_Roadmap!K35</f>
         <v>Market price Maize bran (USD/kg)</v>
@@ -13575,16 +13575,16 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
       <c r="K34" t="str">
         <f>[3]NPV_Roadmap!K37</f>
         <v>Napier yield (Mg/ha)</v>
@@ -13595,13 +13595,13 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
       <c r="K35" t="str">
         <f>[3]NPV_Roadmap!K38</f>
         <v>Pasture yield (Mg/ha)</v>
@@ -13612,28 +13612,28 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="86">
+      <c r="B37" s="94">
         <f>[1]All!$S$9*L18</f>
         <v>0.1404872254769135</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86">
+      <c r="C37" s="94"/>
+      <c r="D37" s="94">
         <f>[1]All!$S$10*L18</f>
         <v>1.0344968421481813</v>
       </c>
-      <c r="E37" s="86"/>
+      <c r="E37" s="94"/>
       <c r="K37" t="str">
         <f>[3]NPV_Roadmap!K40</f>
         <v xml:space="preserve">Opportunity cost land strata 1 </v>
@@ -13644,10 +13644,10 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
       <c r="K38" t="str">
         <f>[3]NPV_Roadmap!K41</f>
         <v>SE (fraction)</v>
@@ -13661,16 +13661,16 @@
       <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="86">
+      <c r="B39" s="94">
         <f>[1]All!$V$9*L18</f>
         <v>100.89537102432878</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86">
+      <c r="C39" s="94"/>
+      <c r="D39" s="94">
         <f>[1]All!$V$10*L18</f>
         <v>84.930913583770433</v>
       </c>
-      <c r="E39" s="86"/>
+      <c r="E39" s="94"/>
       <c r="K39" t="str">
         <f>[3]NPV_Roadmap!K42</f>
         <v>Opportunity cost land strata 2</v>
@@ -13684,16 +13684,16 @@
       <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="86">
+      <c r="B40" s="94">
         <f>[1]All!$W$9*L18</f>
         <v>38.825560495437912</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86">
+      <c r="C40" s="94"/>
+      <c r="D40" s="94">
         <f>[1]All!$W$10*L18</f>
         <v>61.942094869366407</v>
       </c>
-      <c r="E40" s="86"/>
+      <c r="E40" s="94"/>
       <c r="K40" t="str">
         <f>[3]NPV_Roadmap!K43</f>
         <v>SE (fraction)</v>
@@ -13707,58 +13707,58 @@
       <c r="A41" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="86">
+      <c r="B41" s="94">
         <f>[1]All!$X$9*L18</f>
         <v>17.497045354851952</v>
       </c>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86">
+      <c r="C41" s="94"/>
+      <c r="D41" s="94">
         <f>[1]All!$X$10*L18</f>
         <v>10.983546719104146</v>
       </c>
-      <c r="E41" s="86"/>
+      <c r="E41" s="94"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="86">
+      <c r="B42" s="94">
         <f>[1]All!$Y$9*L18</f>
         <v>1.404872254769135</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86">
+      <c r="C42" s="94"/>
+      <c r="D42" s="94">
         <f>[1]All!$Y$10*L18</f>
         <v>3.1928914881116706</v>
       </c>
-      <c r="E42" s="86"/>
+      <c r="E42" s="94"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="86">
+      <c r="B43" s="94">
         <f>B13*L18</f>
         <v>0</v>
       </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86">
+      <c r="C43" s="94"/>
+      <c r="D43" s="94">
         <f>D13*L18</f>
         <v>0</v>
       </c>
-      <c r="E43" s="86"/>
+      <c r="E43" s="94"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
@@ -13769,189 +13769,189 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="86">
+      <c r="B47" s="94">
         <f ca="1">_xlfn.NORM.INV(RAND(),B3,B37)</f>
-        <v>0.51935913992958671</v>
-      </c>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86">
+        <v>0.45921900614174771</v>
+      </c>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94">
         <f ca="1">_xlfn.NORM.INV(RAND(),D3,D37)</f>
-        <v>0.80519045927316468</v>
-      </c>
-      <c r="E47" s="86"/>
+        <v>0.32944921304698432</v>
+      </c>
+      <c r="E47" s="94"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="86">
+      <c r="B48" s="94">
         <f ca="1">_xlfn.NORM.INV(RAND(),B4,B4*Dairy_Income_Roadmap!L22)</f>
-        <v>318.21482847304111</v>
-      </c>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86">
+        <v>373.5773698870367</v>
+      </c>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94">
         <f ca="1">_xlfn.NORM.INV(RAND(),D4,D4*Dairy_Income_Roadmap!L22)</f>
-        <v>1359.3009690125439</v>
-      </c>
-      <c r="E48" s="86"/>
+        <v>1483.067878185507</v>
+      </c>
+      <c r="E48" s="94"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="85">
+      <c r="B50" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),B9,B39)</f>
-        <v>56.42665134173582</v>
-      </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85">
+        <v>134.37990701973931</v>
+      </c>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),D9,D39)</f>
-        <v>254.89321635241271</v>
-      </c>
-      <c r="E50" s="85"/>
+        <v>193.53273164576729</v>
+      </c>
+      <c r="E50" s="93"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="85">
+      <c r="B51" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),B10,B40)</f>
-        <v>41.171210518367467</v>
-      </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85">
+        <v>7.0033950205634001</v>
+      </c>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),D10,D40)</f>
-        <v>-101.74786420247803</v>
-      </c>
-      <c r="E51" s="85"/>
+        <v>-63.711318638436047</v>
+      </c>
+      <c r="E51" s="93"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="85">
+      <c r="B52" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B41)</f>
-        <v>14.423213419308645</v>
-      </c>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85">
+        <v>29.761500705424709</v>
+      </c>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D41)</f>
-        <v>22.356641197558972</v>
-      </c>
-      <c r="E52" s="85"/>
+        <v>20.040832629253053</v>
+      </c>
+      <c r="E52" s="93"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="85">
+      <c r="B53" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),B12,B42)</f>
-        <v>-0.37611927134448869</v>
-      </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85">
+        <v>5.8507684265762805E-4</v>
+      </c>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93">
         <f ca="1">_xlfn.NORM.INV(RAND(),D12,D42)</f>
-        <v>11.376236585373903</v>
-      </c>
-      <c r="E53" s="85"/>
+        <v>13.043790311756975</v>
+      </c>
+      <c r="E53" s="93"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="85">
+      <c r="B54" s="93">
         <v>1E-4</v>
       </c>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85">
+      <c r="C54" s="93"/>
+      <c r="D54" s="93">
         <v>1E-4</v>
       </c>
-      <c r="E54" s="85"/>
+      <c r="E54" s="93"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="85">
+      <c r="B56" s="93">
         <f>SUM(C50:C54)</f>
         <v>0</v>
       </c>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85">
+      <c r="C56" s="93"/>
+      <c r="D56" s="93">
         <f>SUM(E50:E54)</f>
         <v>0</v>
       </c>
-      <c r="E56" s="85"/>
+      <c r="E56" s="93"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="85">
+      <c r="B58" s="93">
         <f ca="1">B47*B48-B56</f>
-        <v>165.26777962859958</v>
-      </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85">
+        <v>171.55382851657305</v>
+      </c>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93">
         <f ca="1">D47*D48-D56</f>
-        <v>1094.4961715296679</v>
-      </c>
-      <c r="E58" s="85"/>
+        <v>488.59554536347611</v>
+      </c>
+      <c r="E58" s="93"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="85">
+      <c r="B60" s="93">
         <f ca="1">AVERAGE(C64:C563)</f>
-        <v>102.12086350413017</v>
-      </c>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85">
+        <v>102.13343560190614</v>
+      </c>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93">
         <f ca="1">AVERAGE(E64:E563)</f>
-        <v>136.74893382943637</v>
-      </c>
-      <c r="E60" s="85"/>
+        <v>135.53713257710396</v>
+      </c>
+      <c r="E60" s="93"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="85">
+      <c r="B61" s="93">
         <f ca="1">STDEVA(C64:C563)</f>
-        <v>61.345516760266378</v>
-      </c>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85">
+        <v>61.35912658874431</v>
+      </c>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93">
         <f ca="1">STDEVA(E64:E563)</f>
-        <v>173.51829245015537</v>
-      </c>
-      <c r="E61" s="85"/>
+        <v>168.86970908857307</v>
+      </c>
+      <c r="E61" s="93"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
@@ -13964,7 +13964,7 @@
       </c>
       <c r="C64" s="46">
         <f ca="1">B58</f>
-        <v>165.26777962859958</v>
+        <v>171.55382851657305</v>
       </c>
       <c r="D64" s="43">
         <f>B64</f>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="E64" s="46">
         <f ca="1">D58</f>
-        <v>1094.4961715296679</v>
+        <v>488.59554536347611</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -21462,45 +21462,59 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D29:E29"/>
@@ -21525,59 +21539,45 @@
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21619,38 +21619,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="92" t="s">
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92" t="s">
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92" t="s">
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
     </row>
     <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -21967,7 +21967,7 @@
       <c r="AC4" s="18"/>
       <c r="AD4" s="27">
         <f ca="1">MC_Baseline!H20</f>
-        <v>5.1264819020412684</v>
+        <v>4.6400976545507593</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22052,7 +22052,7 @@
       </c>
       <c r="O6" s="50">
         <f ca="1">Dairy_Income_Roadmap!C56</f>
-        <v>344.13998800633283</v>
+        <v>324.38565051534323</v>
       </c>
       <c r="P6" s="50">
         <f>(F6*(Dairy_Income_Roadmap!C23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -22072,7 +22072,7 @@
       </c>
       <c r="T6" s="5">
         <f ca="1">F6*O6*I6</f>
-        <v>439.60940407056813</v>
+        <v>414.37492730275062</v>
       </c>
       <c r="U6" s="47">
         <f>U3</f>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="O7" s="50">
         <f ca="1">Dairy_Income_Roadmap!E56</f>
-        <v>30.856967430697996</v>
+        <v>28.940565842065155</v>
       </c>
       <c r="P7" s="50">
         <f>(F7*(Dairy_Income_Roadmap!E23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -22177,7 +22177,7 @@
       </c>
       <c r="T7" s="5">
         <f ca="1">F7*O7*I7</f>
-        <v>184.54846510536788</v>
+        <v>173.08690549157924</v>
       </c>
       <c r="U7" s="47">
         <f t="shared" ref="U7:W8" si="1">U3</f>
@@ -22263,7 +22263,7 @@
       </c>
       <c r="O8" s="50">
         <f ca="1">Dairy_Income_Roadmap!G56</f>
-        <v>335.90696904107671</v>
+        <v>333.2591422727711</v>
       </c>
       <c r="P8" s="50">
         <f>(F8*(Dairy_Income_Roadmap!G23 + Dairy_Income_Baseline!D25)  -   F5*Dairy_Income_Baseline!D25)</f>
@@ -22283,7 +22283,7 @@
       </c>
       <c r="T8" s="5">
         <f ca="1">F8*O8*I8</f>
-        <v>493.97929237999909</v>
+        <v>490.08544165970494</v>
       </c>
       <c r="U8" s="47">
         <f t="shared" si="1"/>
@@ -22323,7 +22323,7 @@
       </c>
       <c r="AD8" s="27">
         <f ca="1">MC_High_ambition!I20</f>
-        <v>32.168737004771799</v>
+        <v>34.368622297381471</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22409,7 +22409,7 @@
       </c>
       <c r="O10" s="50">
         <f ca="1">Dairy_Income_Roadmap!C56</f>
-        <v>344.13998800633283</v>
+        <v>324.38565051534323</v>
       </c>
       <c r="P10" s="50">
         <f>(F10*(Dairy_Income_Roadmap!C23+Dairy_Income_Baseline!B25)-F3*Dairy_Income_Baseline!B25)</f>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="T10" s="5">
         <f ca="1">F10*O10*I10</f>
-        <v>437.49302255592693</v>
+        <v>412.38003040529117</v>
       </c>
       <c r="U10" s="47">
         <f t="shared" ref="U10:W12" si="2">U6</f>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="O11" s="50">
         <f ca="1">Dairy_Income_Roadmap!E56</f>
-        <v>30.856967430697996</v>
+        <v>28.940565842065155</v>
       </c>
       <c r="P11" s="50">
         <f>(F11*(Dairy_Income_Roadmap!E23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -22535,7 +22535,7 @@
       </c>
       <c r="T11" s="5">
         <f ca="1">F11*O11*I11</f>
-        <v>222.15068698212366</v>
+        <v>208.35380527608527</v>
       </c>
       <c r="U11" s="47">
         <f t="shared" si="2"/>
@@ -22622,7 +22622,7 @@
       </c>
       <c r="O12" s="50">
         <f ca="1">Dairy_Income_Roadmap!G56</f>
-        <v>335.90696904107671</v>
+        <v>333.2591422727711</v>
       </c>
       <c r="P12" s="50">
         <f>(F12*(Dairy_Income_Roadmap!G23 + Dairy_Income_Baseline!D25)  -   F4*Dairy_Income_Baseline!D25)</f>
@@ -22642,7 +22642,7 @@
       </c>
       <c r="T12" s="5">
         <f ca="1">F12*O12*I12</f>
-        <v>514.81566092633682</v>
+        <v>510.75756504450652</v>
       </c>
       <c r="U12" s="47">
         <f t="shared" si="2"/>
@@ -22682,7 +22682,7 @@
       </c>
       <c r="AD12" s="27">
         <f ca="1">MC_Middle_road!I20</f>
-        <v>35.712967549933829</v>
+        <v>31.264728098364806</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22771,7 +22771,7 @@
       </c>
       <c r="O14" s="50">
         <f ca="1">Dairy_Income_Roadmap!C56</f>
-        <v>344.13998800633283</v>
+        <v>324.38565051534323</v>
       </c>
       <c r="P14" s="50">
         <f>(F14*(Dairy_Income_Roadmap!C23+ Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="T14" s="5">
         <f ca="1">F14*O14*I14</f>
-        <v>435.33316740194959</v>
+        <v>410.34415534409669</v>
       </c>
       <c r="U14" s="47">
         <f t="shared" ref="U14:U16" si="6">U10</f>
@@ -22877,7 +22877,7 @@
       </c>
       <c r="O15" s="50">
         <f ca="1">Dairy_Income_Roadmap!E56</f>
-        <v>30.856967430697996</v>
+        <v>28.940565842065155</v>
       </c>
       <c r="P15" s="50">
         <f>(F15*(Dairy_Income_Roadmap!E23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="T15" s="5">
         <f ca="1">F15*O15*I15</f>
-        <v>162.24486719885573</v>
+        <v>152.16849394715092</v>
       </c>
       <c r="U15" s="47">
         <f t="shared" si="6"/>
@@ -22984,7 +22984,7 @@
       </c>
       <c r="O16" s="50">
         <f ca="1">Dairy_Income_Roadmap!G56</f>
-        <v>335.90696904107671</v>
+        <v>333.2591422727711</v>
       </c>
       <c r="P16" s="50">
         <f>(F16*(Dairy_Income_Roadmap!G23 + Dairy_Income_Baseline!D25)  -   F4*Dairy_Income_Baseline!D25)</f>
@@ -23004,7 +23004,7 @@
       </c>
       <c r="T16" s="5">
         <f ca="1">F16*O16*I16</f>
-        <v>535.3739642299347</v>
+        <v>531.15381506902656</v>
       </c>
       <c r="U16" s="47">
         <f t="shared" si="6"/>
@@ -23044,7 +23044,7 @@
       </c>
       <c r="AD16" s="27">
         <f ca="1">MC_Status_quo!I20</f>
-        <v>15.382852701880866</v>
+        <v>16.525120179603821</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -23133,7 +23133,7 @@
       </c>
       <c r="O18" s="50">
         <f ca="1">Dairy_Income_Roadmap!C56</f>
-        <v>344.13998800633283</v>
+        <v>324.38565051534323</v>
       </c>
       <c r="P18" s="50">
         <f>(F18*(Dairy_Income_Roadmap!C23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -23153,7 +23153,7 @@
       </c>
       <c r="T18" s="5">
         <f ca="1">F18*O18*I18</f>
-        <v>556.594165881614</v>
+        <v>524.64452509142791</v>
       </c>
       <c r="U18" s="47">
         <f t="shared" ref="U18:U20" si="9">U14</f>
@@ -23239,7 +23239,7 @@
       </c>
       <c r="O19" s="50">
         <f ca="1">Dairy_Income_Roadmap!E56</f>
-        <v>30.856967430697996</v>
+        <v>28.940565842065155</v>
       </c>
       <c r="P19" s="50">
         <f>(F19*(Dairy_Income_Roadmap!E23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -23259,7 +23259,7 @@
       </c>
       <c r="T19" s="5">
         <f ca="1">F19*O19*I19</f>
-        <v>233.65878447760755</v>
+        <v>219.14718132747333</v>
       </c>
       <c r="U19" s="47">
         <f t="shared" si="9"/>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="O20" s="50">
         <f ca="1">Dairy_Income_Roadmap!G56</f>
-        <v>335.90696904107671</v>
+        <v>333.2591422727711</v>
       </c>
       <c r="P20" s="50">
         <f>(F20*(Dairy_Income_Roadmap!G23+ Dairy_Income_Baseline!D25)  -   F4*Dairy_Income_Baseline!D25)</f>
@@ -23366,7 +23366,7 @@
       </c>
       <c r="T20" s="5">
         <f ca="1">F20*O20*I20</f>
-        <v>625.43246267975621</v>
+        <v>620.50241665785222</v>
       </c>
       <c r="U20" s="47">
         <f t="shared" si="9"/>
@@ -23406,7 +23406,7 @@
       </c>
       <c r="AD20" s="27">
         <f ca="1">MC_High_ambition_plus!I20</f>
-        <v>12.979231005112693</v>
+        <v>15.525724301021652</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -23450,10 +23450,10 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="95"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
       <c r="M23" s="15" t="s">
@@ -23465,11 +23465,11 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="99">
+      <c r="B24" s="89"/>
+      <c r="C24" s="88">
         <f>532194/(250800+532194)</f>
         <v>0.67969103211518866</v>
       </c>
@@ -23480,7 +23480,7 @@
         <v>134</v>
       </c>
       <c r="B25" s="56"/>
-      <c r="C25" s="99">
+      <c r="C25" s="88">
         <f>9226165/(9226165+3518000)</f>
         <v>0.723952098862499</v>
       </c>
@@ -23494,7 +23494,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="56"/>
-      <c r="C26" s="99">
+      <c r="C26" s="88">
         <f>1-0</f>
         <v>1</v>
       </c>
@@ -23521,14 +23521,14 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="85" t="s">
         <v>135</v>
       </c>
       <c r="B28" s="56" t="str">
         <f>A6</f>
         <v>High ambition</v>
       </c>
-      <c r="C28" s="98">
+      <c r="C28" s="87">
         <f>0.5*(C27-C29)+C29</f>
         <v>5.7500000000000002E-2</v>
       </c>
@@ -23544,12 +23544,12 @@
       <c r="T28" s="8"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="96"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="56" t="str">
         <f>A10</f>
         <v>Middle road</v>
       </c>
-      <c r="C29" s="98">
+      <c r="C29" s="87">
         <f>0.015</f>
         <v>1.4999999999999999E-2</v>
       </c>
@@ -23561,12 +23561,12 @@
       <c r="R29" s="19"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="96"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="56" t="str">
         <f>A14</f>
         <v>Status quo</v>
       </c>
-      <c r="C30" s="98">
+      <c r="C30" s="87">
         <f>C27</f>
         <v>0.1</v>
       </c>
@@ -23578,12 +23578,12 @@
       <c r="R30" s="19"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="96"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="56" t="str">
         <f>A18</f>
         <v>High ambition ++</v>
       </c>
-      <c r="C31" s="98">
+      <c r="C31" s="87">
         <f>0.2</f>
         <v>0.2</v>
       </c>
@@ -23597,14 +23597,14 @@
       <c r="R31" s="16"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="86" t="s">
         <v>136</v>
       </c>
       <c r="B32" s="56" t="str">
         <f>A6</f>
         <v>High ambition</v>
       </c>
-      <c r="C32" s="98">
+      <c r="C32" s="87">
         <f>C33+(C31-C33)*0.5</f>
         <v>0.115</v>
       </c>
@@ -23617,12 +23617,12 @@
       <c r="R32" s="20"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="97"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="56" t="str">
-        <f>B29</f>
+        <f t="shared" ref="B33:B39" si="11">B29</f>
         <v>Middle road</v>
       </c>
-      <c r="C33" s="98">
+      <c r="C33" s="87">
         <f>0.03</f>
         <v>0.03</v>
       </c>
@@ -23635,12 +23635,12 @@
       <c r="R33" s="20"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="97"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="56" t="str">
-        <f>B30</f>
+        <f t="shared" si="11"/>
         <v>Status quo</v>
       </c>
-      <c r="C34" s="98">
+      <c r="C34" s="87">
         <f>C31</f>
         <v>0.2</v>
       </c>
@@ -23655,10 +23655,10 @@
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
       <c r="B35" s="56" t="str">
-        <f>B31</f>
+        <f t="shared" si="11"/>
         <v>High ambition ++</v>
       </c>
-      <c r="C35" s="98">
+      <c r="C35" s="87">
         <v>0.68793399274452072</v>
       </c>
       <c r="M35" s="21"/>
@@ -23668,14 +23668,14 @@
       <c r="R35" s="22"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="86" t="s">
         <v>137</v>
       </c>
       <c r="B36" s="56" t="str">
-        <f>B32</f>
+        <f t="shared" si="11"/>
         <v>High ambition</v>
       </c>
-      <c r="C36" s="98">
+      <c r="C36" s="87">
         <f>(C10+C12)/SUM(C10,C11,C12)</f>
         <v>0.65477697947362601</v>
       </c>
@@ -23688,10 +23688,10 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37" s="56" t="str">
-        <f>B33</f>
+        <f t="shared" si="11"/>
         <v>Middle road</v>
       </c>
-      <c r="C37" s="98">
+      <c r="C37" s="87">
         <f>(C14+C16)/SUM(C14,C15,C16)</f>
         <v>0.62161996620273141</v>
       </c>
@@ -23699,10 +23699,10 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" s="56" t="str">
-        <f>B34</f>
+        <f t="shared" si="11"/>
         <v>Status quo</v>
       </c>
-      <c r="C38" s="98">
+      <c r="C38" s="87">
         <f>(C18+C20)/SUM(C18,C19,C20)</f>
         <v>0.68793399274452072</v>
       </c>
@@ -23715,7 +23715,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39" s="56" t="str">
-        <f>B35</f>
+        <f t="shared" si="11"/>
         <v>High ambition ++</v>
       </c>
       <c r="E39" s="31"/>
@@ -23987,11 +23987,11 @@
       </c>
       <c r="B4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N3,Mappings!O3)</f>
-        <v>184.97951164952303</v>
+        <v>-31.375255564227388</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N4,Mappings!O4)</f>
-        <v>536.98361010191707</v>
+        <v>729.05953474477099</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -24065,11 +24065,11 @@
       </c>
       <c r="B10" s="27">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L37))</f>
-        <v>58.097735269669514</v>
+        <v>72.303828229800104</v>
       </c>
       <c r="C10" s="27">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L39),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L39))</f>
-        <v>7.3208814160185121</v>
+        <v>41.588379669242073</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -24108,11 +24108,11 @@
       </c>
       <c r="B14" s="27">
         <f ca="1">B4*B6</f>
-        <v>661.81969677966356</v>
+        <v>-112.25438935769276</v>
       </c>
       <c r="C14" s="27">
         <f ca="1">C4*C6</f>
-        <v>707.25216027448721</v>
+        <v>960.23215833177449</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -24121,11 +24121,11 @@
       </c>
       <c r="B15" s="27">
         <f ca="1">IF(B9&gt;0,B8-B10,    B8 +B10)</f>
-        <v>3137.9658841134728</v>
+        <v>3123.7597911533421</v>
       </c>
       <c r="C15" s="27">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>9998.0591375335371</v>
+        <v>9963.7916392803145</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -24134,11 +24134,11 @@
       </c>
       <c r="B16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>27555.379910094496</v>
+        <v>27472.301479376802</v>
       </c>
       <c r="C16" s="27">
         <f t="shared" ref="C16" ca="1" si="0">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>45455.392007504735</v>
+        <v>42577.305507241748</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -24151,16 +24151,16 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">(B14+B15)*B16</f>
-        <v>104704535.25840947</v>
+        <v>82732984.304901853</v>
       </c>
       <c r="C18" s="37">
         <f ca="1">(C14+C15)*C16</f>
-        <v>486614121.60423303</v>
+        <v>465115498.59930915</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="33">
         <f ca="1">B18+C18</f>
-        <v>591318656.86264253</v>
+        <v>547848482.90421104</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -24179,10 +24179,10 @@
       <c r="D19" s="36"/>
       <c r="E19" s="33">
         <f ca="1">STDEVA(E22:E129)</f>
-        <v>28958027.829096582</v>
+        <v>26172496.964118592</v>
       </c>
       <c r="F19" s="33"/>
-      <c r="G19" s="94" t="s">
+      <c r="G19" s="100" t="s">
         <v>49</v>
       </c>
     </row>
@@ -24199,13 +24199,13 @@
       <c r="D20" s="36"/>
       <c r="E20" s="33">
         <f ca="1">AVERAGE(E22:E129)</f>
-        <v>564871355.88181901</v>
+        <v>564050563.42833662</v>
       </c>
       <c r="F20" s="33"/>
-      <c r="G20" s="94"/>
+      <c r="G20" s="100"/>
       <c r="H20" s="4">
         <f ca="1">100*E19/E20</f>
-        <v>5.1264819020412684</v>
+        <v>4.6400976545507593</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -24217,7 +24217,7 @@
       </c>
       <c r="E22">
         <f ca="1">E18</f>
-        <v>591318656.86264253</v>
+        <v>547848482.90421104</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -24227,7 +24227,7 @@
       </c>
       <c r="E23">
         <f t="dataTable" ref="E23:E129" dt2D="0" dtr="0" r1="E21" ca="1"/>
-        <v>576980223.01734245</v>
+        <v>536491092.55341405</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -24236,7 +24236,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>566643374.05738258</v>
+        <v>551090144.09941781</v>
       </c>
       <c r="H24" s="4"/>
     </row>
@@ -24245,7 +24245,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>556980164.58727002</v>
+        <v>553332438.00500214</v>
       </c>
       <c r="H25" s="4"/>
     </row>
@@ -24254,7 +24254,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>568729172.88706851</v>
+        <v>510973795.43497312</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -24263,7 +24263,7 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>573038053.59253287</v>
+        <v>521437431.46219206</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -24272,7 +24272,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>603293738.58221281</v>
+        <v>539012747.56438947</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -24281,7 +24281,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>553979733.53352463</v>
+        <v>560338384.02290869</v>
       </c>
       <c r="H29" s="4"/>
     </row>
@@ -24290,7 +24290,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>554452700.1417321</v>
+        <v>583156447.42442393</v>
       </c>
       <c r="H30" s="4"/>
     </row>
@@ -24299,7 +24299,7 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>583111423.83045197</v>
+        <v>596823229.02898145</v>
       </c>
       <c r="H31" s="4"/>
     </row>
@@ -24308,7 +24308,7 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>604491251.63208461</v>
+        <v>573505973.08422935</v>
       </c>
       <c r="H32" s="4"/>
     </row>
@@ -24317,7 +24317,7 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <v>550757870.97530496</v>
+        <v>553345316.12704921</v>
       </c>
       <c r="H33" s="4"/>
     </row>
@@ -24326,7 +24326,7 @@
         <v>13</v>
       </c>
       <c r="E34">
-        <v>577556129.1432029</v>
+        <v>554010395.42294896</v>
       </c>
       <c r="H34" s="4"/>
     </row>
@@ -24335,7 +24335,7 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>507449380.65798408</v>
+        <v>572519298.91815996</v>
       </c>
       <c r="H35" s="4"/>
     </row>
@@ -24344,7 +24344,7 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>606406669.3810699</v>
+        <v>536951420.96897435</v>
       </c>
       <c r="H36" s="4"/>
     </row>
@@ -24353,7 +24353,7 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>583627663.29317665</v>
+        <v>577925723.08183563</v>
       </c>
       <c r="H37" s="4"/>
     </row>
@@ -24362,7 +24362,7 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>558129200.28282356</v>
+        <v>561063588.88563108</v>
       </c>
       <c r="H38" s="4"/>
     </row>
@@ -24371,7 +24371,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>590232768.61038828</v>
+        <v>546784076.77958965</v>
       </c>
       <c r="H39" s="4"/>
     </row>
@@ -24380,7 +24380,7 @@
         <v>19</v>
       </c>
       <c r="E40">
-        <v>558277942.14611983</v>
+        <v>541983653.45359445</v>
       </c>
       <c r="H40" s="4"/>
     </row>
@@ -24389,7 +24389,7 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>548828299.53322554</v>
+        <v>581882999.78210402</v>
       </c>
       <c r="H41" s="4"/>
     </row>
@@ -24398,7 +24398,7 @@
         <v>21</v>
       </c>
       <c r="E42">
-        <v>582781646.23172081</v>
+        <v>606143973.64191484</v>
       </c>
       <c r="H42" s="4"/>
     </row>
@@ -24407,7 +24407,7 @@
         <v>22</v>
       </c>
       <c r="E43">
-        <v>610790196.0096693</v>
+        <v>576023150.35573375</v>
       </c>
       <c r="H43" s="4"/>
     </row>
@@ -24416,7 +24416,7 @@
         <v>23</v>
       </c>
       <c r="E44">
-        <v>537314001.99183691</v>
+        <v>576669737.40783441</v>
       </c>
       <c r="H44" s="4"/>
     </row>
@@ -24425,7 +24425,7 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <v>566189478.63449228</v>
+        <v>558946210.45433271</v>
       </c>
       <c r="H45" s="4"/>
     </row>
@@ -24434,7 +24434,7 @@
         <v>25</v>
       </c>
       <c r="E46">
-        <v>544358593.36300313</v>
+        <v>553199922.25139773</v>
       </c>
       <c r="H46" s="4"/>
     </row>
@@ -24443,7 +24443,7 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <v>538569634.30961943</v>
+        <v>541398638.35623097</v>
       </c>
       <c r="H47" s="4"/>
     </row>
@@ -24452,7 +24452,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>527913991.49353719</v>
+        <v>575211480.1484524</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -24461,7 +24461,7 @@
         <v>28</v>
       </c>
       <c r="E49">
-        <v>577614404.75943661</v>
+        <v>538274866.37302029</v>
       </c>
       <c r="H49" s="4"/>
     </row>
@@ -24470,7 +24470,7 @@
         <v>29</v>
       </c>
       <c r="E50">
-        <v>527617096.52795982</v>
+        <v>552701890.16644692</v>
       </c>
       <c r="H50" s="4"/>
     </row>
@@ -24479,7 +24479,7 @@
         <v>30</v>
       </c>
       <c r="E51">
-        <v>557297077.62236607</v>
+        <v>580334658.81005955</v>
       </c>
       <c r="H51" s="4"/>
     </row>
@@ -24488,7 +24488,7 @@
         <v>31</v>
       </c>
       <c r="E52">
-        <v>618098437.72956514</v>
+        <v>568628250.45406127</v>
       </c>
       <c r="H52" s="4"/>
     </row>
@@ -24497,7 +24497,7 @@
         <v>32</v>
       </c>
       <c r="E53">
-        <v>507666754.99974465</v>
+        <v>599755674.22258687</v>
       </c>
       <c r="H53" s="4"/>
     </row>
@@ -24506,7 +24506,7 @@
         <v>33</v>
       </c>
       <c r="E54">
-        <v>563958519.61558294</v>
+        <v>608880324.39821863</v>
       </c>
       <c r="H54" s="4"/>
     </row>
@@ -24515,7 +24515,7 @@
         <v>34</v>
       </c>
       <c r="E55">
-        <v>579620217.78374827</v>
+        <v>553712922.20243573</v>
       </c>
       <c r="H55" s="4"/>
     </row>
@@ -24524,7 +24524,7 @@
         <v>35</v>
       </c>
       <c r="E56">
-        <v>539046536.35639393</v>
+        <v>582357368.23281503</v>
       </c>
       <c r="H56" s="4"/>
     </row>
@@ -24533,7 +24533,7 @@
         <v>36</v>
       </c>
       <c r="E57">
-        <v>597740361.47893882</v>
+        <v>578879689.84561062</v>
       </c>
       <c r="H57" s="4"/>
     </row>
@@ -24542,7 +24542,7 @@
         <v>37</v>
       </c>
       <c r="E58">
-        <v>548732710.53761029</v>
+        <v>540009454.29393077</v>
       </c>
       <c r="H58" s="4"/>
     </row>
@@ -24551,7 +24551,7 @@
         <v>38</v>
       </c>
       <c r="E59">
-        <v>553689542.32684433</v>
+        <v>540841077.87100828</v>
       </c>
       <c r="H59" s="4"/>
     </row>
@@ -24560,7 +24560,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>552009402.24415684</v>
+        <v>594477686.78384066</v>
       </c>
       <c r="H60" s="4"/>
     </row>
@@ -24569,7 +24569,7 @@
         <v>40</v>
       </c>
       <c r="E61">
-        <v>543671048.44563377</v>
+        <v>537553263.84534192</v>
       </c>
       <c r="H61" s="4"/>
     </row>
@@ -24578,7 +24578,7 @@
         <v>41</v>
       </c>
       <c r="E62">
-        <v>594039143.70456183</v>
+        <v>583267701.05726242</v>
       </c>
       <c r="H62" s="4"/>
     </row>
@@ -24587,7 +24587,7 @@
         <v>42</v>
       </c>
       <c r="E63">
-        <v>563631452.59918427</v>
+        <v>601417477.3391763</v>
       </c>
       <c r="H63" s="4"/>
     </row>
@@ -24596,7 +24596,7 @@
         <v>43</v>
       </c>
       <c r="E64">
-        <v>577572324.70323038</v>
+        <v>550613678.4429853</v>
       </c>
       <c r="H64" s="4"/>
     </row>
@@ -24605,7 +24605,7 @@
         <v>44</v>
       </c>
       <c r="E65">
-        <v>598680128.62307191</v>
+        <v>563505941.83040535</v>
       </c>
       <c r="H65" s="4"/>
     </row>
@@ -24614,7 +24614,7 @@
         <v>45</v>
       </c>
       <c r="E66">
-        <v>594866278.67130542</v>
+        <v>581889263.77846241</v>
       </c>
       <c r="H66" s="4"/>
     </row>
@@ -24623,7 +24623,7 @@
         <v>46</v>
       </c>
       <c r="E67">
-        <v>550413282.81807113</v>
+        <v>554636101.62759125</v>
       </c>
       <c r="H67" s="4"/>
     </row>
@@ -24632,7 +24632,7 @@
         <v>47</v>
       </c>
       <c r="E68">
-        <v>562728837.38203299</v>
+        <v>549707355.13268912</v>
       </c>
       <c r="H68" s="4"/>
     </row>
@@ -24641,7 +24641,7 @@
         <v>48</v>
       </c>
       <c r="E69">
-        <v>610946885.77776575</v>
+        <v>601984783.75417542</v>
       </c>
       <c r="H69" s="4"/>
     </row>
@@ -24650,7 +24650,7 @@
         <v>49</v>
       </c>
       <c r="E70">
-        <v>603163182.70022202</v>
+        <v>597308994.80161798</v>
       </c>
       <c r="H70" s="4"/>
     </row>
@@ -24659,7 +24659,7 @@
         <v>50</v>
       </c>
       <c r="E71">
-        <v>562359074.83936346</v>
+        <v>559444861.23996508</v>
       </c>
       <c r="H71" s="4"/>
     </row>
@@ -24668,7 +24668,7 @@
         <v>51</v>
       </c>
       <c r="E72">
-        <v>543046685.96643865</v>
+        <v>569035192.70096636</v>
       </c>
       <c r="H72" s="4"/>
     </row>
@@ -24677,7 +24677,7 @@
         <v>52</v>
       </c>
       <c r="E73">
-        <v>540875118.12692165</v>
+        <v>541289021.19913864</v>
       </c>
       <c r="H73" s="4"/>
     </row>
@@ -24686,7 +24686,7 @@
         <v>53</v>
       </c>
       <c r="E74">
-        <v>547428114.5961144</v>
+        <v>589344601.56573868</v>
       </c>
       <c r="H74" s="4"/>
     </row>
@@ -24695,7 +24695,7 @@
         <v>54</v>
       </c>
       <c r="E75">
-        <v>569683719.15605271</v>
+        <v>559004299.50316238</v>
       </c>
       <c r="H75" s="4"/>
     </row>
@@ -24704,7 +24704,7 @@
         <v>55</v>
       </c>
       <c r="E76">
-        <v>601537628.91046619</v>
+        <v>566372003.08445263</v>
       </c>
       <c r="H76" s="4"/>
     </row>
@@ -24713,7 +24713,7 @@
         <v>56</v>
       </c>
       <c r="E77">
-        <v>607655595.73664773</v>
+        <v>560417613.25969338</v>
       </c>
       <c r="H77" s="4"/>
     </row>
@@ -24722,7 +24722,7 @@
         <v>57</v>
       </c>
       <c r="E78">
-        <v>567927669.92619395</v>
+        <v>544859709.32258272</v>
       </c>
       <c r="H78" s="4"/>
     </row>
@@ -24731,7 +24731,7 @@
         <v>58</v>
       </c>
       <c r="E79">
-        <v>574140224.9086684</v>
+        <v>590985790.99261165</v>
       </c>
       <c r="H79" s="4"/>
     </row>
@@ -24740,7 +24740,7 @@
         <v>59</v>
       </c>
       <c r="E80">
-        <v>548665424.39513779</v>
+        <v>555527916.98846066</v>
       </c>
       <c r="H80" s="4"/>
     </row>
@@ -24749,7 +24749,7 @@
         <v>60</v>
       </c>
       <c r="E81">
-        <v>641886243.61667418</v>
+        <v>538331567.8238821</v>
       </c>
       <c r="H81" s="4"/>
     </row>
@@ -24758,7 +24758,7 @@
         <v>61</v>
       </c>
       <c r="E82">
-        <v>568970072.47633839</v>
+        <v>585037259.49522078</v>
       </c>
       <c r="H82" s="4"/>
     </row>
@@ -24767,7 +24767,7 @@
         <v>62</v>
       </c>
       <c r="E83">
-        <v>572411149.98449969</v>
+        <v>554659508.17341566</v>
       </c>
       <c r="H83" s="4"/>
     </row>
@@ -24776,7 +24776,7 @@
         <v>63</v>
       </c>
       <c r="E84">
-        <v>592253977.85470855</v>
+        <v>580545943.57036293</v>
       </c>
       <c r="H84" s="4"/>
     </row>
@@ -24785,7 +24785,7 @@
         <v>64</v>
       </c>
       <c r="E85">
-        <v>571896128.36757696</v>
+        <v>618993129.77840948</v>
       </c>
       <c r="H85" s="4"/>
     </row>
@@ -24794,7 +24794,7 @@
         <v>65</v>
       </c>
       <c r="E86">
-        <v>486558665.21984226</v>
+        <v>556084977.85873091</v>
       </c>
       <c r="H86" s="4"/>
     </row>
@@ -24803,7 +24803,7 @@
         <v>66</v>
       </c>
       <c r="E87">
-        <v>520266200.35991943</v>
+        <v>556265713.71403456</v>
       </c>
       <c r="H87" s="4"/>
     </row>
@@ -24812,7 +24812,7 @@
         <v>67</v>
       </c>
       <c r="E88">
-        <v>576574656.0488466</v>
+        <v>614170391.81121242</v>
       </c>
       <c r="H88" s="4"/>
     </row>
@@ -24821,7 +24821,7 @@
         <v>68</v>
       </c>
       <c r="E89">
-        <v>580358107.94624209</v>
+        <v>611835089.63141477</v>
       </c>
       <c r="H89" s="4"/>
     </row>
@@ -24830,7 +24830,7 @@
         <v>69</v>
       </c>
       <c r="E90">
-        <v>542929351.74123132</v>
+        <v>540838568.43571174</v>
       </c>
       <c r="H90" s="4"/>
     </row>
@@ -24839,7 +24839,7 @@
         <v>70</v>
       </c>
       <c r="E91">
-        <v>546192079.26949322</v>
+        <v>571175051.11202633</v>
       </c>
       <c r="H91" s="4"/>
     </row>
@@ -24848,7 +24848,7 @@
         <v>71</v>
       </c>
       <c r="E92">
-        <v>541122299.60077739</v>
+        <v>580007300.37422669</v>
       </c>
       <c r="H92" s="4"/>
     </row>
@@ -24857,7 +24857,7 @@
         <v>72</v>
       </c>
       <c r="E93">
-        <v>581076681.6661216</v>
+        <v>562981522.94147563</v>
       </c>
       <c r="H93" s="4"/>
     </row>
@@ -24866,7 +24866,7 @@
         <v>73</v>
       </c>
       <c r="E94">
-        <v>598214407.77518094</v>
+        <v>552852320.91684294</v>
       </c>
       <c r="H94" s="4"/>
     </row>
@@ -24875,7 +24875,7 @@
         <v>74</v>
       </c>
       <c r="E95">
-        <v>545322340.74378693</v>
+        <v>518794841.13568521</v>
       </c>
       <c r="H95" s="4"/>
     </row>
@@ -24884,7 +24884,7 @@
         <v>75</v>
       </c>
       <c r="E96">
-        <v>607943370.74903357</v>
+        <v>562006424.48705244</v>
       </c>
       <c r="H96" s="4"/>
     </row>
@@ -24893,7 +24893,7 @@
         <v>76</v>
       </c>
       <c r="E97">
-        <v>574661677.63297486</v>
+        <v>587784361.81819034</v>
       </c>
       <c r="H97" s="4"/>
     </row>
@@ -24902,7 +24902,7 @@
         <v>77</v>
       </c>
       <c r="E98">
-        <v>555175094.12337291</v>
+        <v>609520899.10015583</v>
       </c>
       <c r="H98" s="4"/>
     </row>
@@ -24911,7 +24911,7 @@
         <v>78</v>
       </c>
       <c r="E99">
-        <v>552418338.70224011</v>
+        <v>578514130.49143982</v>
       </c>
       <c r="H99" s="4"/>
     </row>
@@ -24920,7 +24920,7 @@
         <v>79</v>
       </c>
       <c r="E100">
-        <v>497031488.45786351</v>
+        <v>618711493.7475605</v>
       </c>
       <c r="H100" s="4"/>
     </row>
@@ -24929,7 +24929,7 @@
         <v>80</v>
       </c>
       <c r="E101">
-        <v>583034075.90577149</v>
+        <v>589887756.92448103</v>
       </c>
       <c r="H101" s="4"/>
     </row>
@@ -24938,7 +24938,7 @@
         <v>81</v>
       </c>
       <c r="E102">
-        <v>571283899.83536506</v>
+        <v>560966132.33568513</v>
       </c>
       <c r="H102" s="4"/>
     </row>
@@ -24947,7 +24947,7 @@
         <v>82</v>
       </c>
       <c r="E103">
-        <v>575501291.15921783</v>
+        <v>598899829.50270832</v>
       </c>
       <c r="H103" s="4"/>
     </row>
@@ -24956,7 +24956,7 @@
         <v>83</v>
       </c>
       <c r="E104">
-        <v>609230325.71790648</v>
+        <v>549567593.31389749</v>
       </c>
       <c r="H104" s="4"/>
     </row>
@@ -24965,7 +24965,7 @@
         <v>84</v>
       </c>
       <c r="E105">
-        <v>574547287.43707299</v>
+        <v>529690781.47942173</v>
       </c>
       <c r="H105" s="4"/>
     </row>
@@ -24974,7 +24974,7 @@
         <v>85</v>
       </c>
       <c r="E106">
-        <v>610222772.1219455</v>
+        <v>544905959.36505222</v>
       </c>
       <c r="H106" s="4"/>
     </row>
@@ -24983,7 +24983,7 @@
         <v>86</v>
       </c>
       <c r="E107">
-        <v>559696270.17484212</v>
+        <v>517352317.00798893</v>
       </c>
       <c r="H107" s="4"/>
     </row>
@@ -24992,7 +24992,7 @@
         <v>87</v>
       </c>
       <c r="E108">
-        <v>595251346.14422035</v>
+        <v>538587402.64506459</v>
       </c>
       <c r="H108" s="4"/>
     </row>
@@ -25001,7 +25001,7 @@
         <v>88</v>
       </c>
       <c r="E109">
-        <v>519650200.97055972</v>
+        <v>527648556.41069746</v>
       </c>
       <c r="H109" s="4"/>
     </row>
@@ -25010,7 +25010,7 @@
         <v>89</v>
       </c>
       <c r="E110">
-        <v>508874193.03811288</v>
+        <v>517190091.56463611</v>
       </c>
       <c r="H110" s="4"/>
     </row>
@@ -25019,7 +25019,7 @@
         <v>90</v>
       </c>
       <c r="E111">
-        <v>566362591.66755438</v>
+        <v>502520881.55725062</v>
       </c>
       <c r="H111" s="4"/>
     </row>
@@ -25028,7 +25028,7 @@
         <v>91</v>
       </c>
       <c r="E112">
-        <v>541481303.77975512</v>
+        <v>594108236.92478228</v>
       </c>
       <c r="H112" s="4"/>
     </row>
@@ -25037,7 +25037,7 @@
         <v>92</v>
       </c>
       <c r="E113">
-        <v>545327362.79603755</v>
+        <v>543509883.22708547</v>
       </c>
       <c r="H113" s="4"/>
     </row>
@@ -25046,7 +25046,7 @@
         <v>93</v>
       </c>
       <c r="E114">
-        <v>542723409.2547493</v>
+        <v>546420165.07062292</v>
       </c>
       <c r="H114" s="4"/>
     </row>
@@ -25055,7 +25055,7 @@
         <v>94</v>
       </c>
       <c r="E115">
-        <v>585044953.77198923</v>
+        <v>585530519.65017307</v>
       </c>
       <c r="H115" s="4"/>
     </row>
@@ -25064,7 +25064,7 @@
         <v>95</v>
       </c>
       <c r="E116">
-        <v>505479339.74607754</v>
+        <v>533719305.62319219</v>
       </c>
       <c r="H116" s="4"/>
     </row>
@@ -25073,7 +25073,7 @@
         <v>96</v>
       </c>
       <c r="E117">
-        <v>600088571.69121158</v>
+        <v>568443129.06708765</v>
       </c>
       <c r="H117" s="4"/>
     </row>
@@ -25082,7 +25082,7 @@
         <v>97</v>
       </c>
       <c r="E118">
-        <v>569702031.61960888</v>
+        <v>554788934.07350993</v>
       </c>
       <c r="H118" s="4"/>
     </row>
@@ -25091,7 +25091,7 @@
         <v>98</v>
       </c>
       <c r="E119">
-        <v>563460387.71712065</v>
+        <v>597928836.49293196</v>
       </c>
       <c r="H119" s="4"/>
     </row>
@@ -25100,7 +25100,7 @@
         <v>99</v>
       </c>
       <c r="E120">
-        <v>546617575.2801739</v>
+        <v>525452988.55034739</v>
       </c>
       <c r="H120" s="4"/>
     </row>
@@ -25109,7 +25109,7 @@
         <v>100</v>
       </c>
       <c r="E121">
-        <v>559412071.70644379</v>
+        <v>603066207.69115174</v>
       </c>
       <c r="H121" s="4"/>
     </row>
@@ -25118,7 +25118,7 @@
         <v>101</v>
       </c>
       <c r="E122">
-        <v>534959226.55040562</v>
+        <v>516203967.92818278</v>
       </c>
       <c r="H122" s="4"/>
     </row>
@@ -25127,7 +25127,7 @@
         <v>102</v>
       </c>
       <c r="E123">
-        <v>526662689.67887777</v>
+        <v>588281789.08633232</v>
       </c>
       <c r="H123" s="4"/>
     </row>
@@ -25136,7 +25136,7 @@
         <v>103</v>
       </c>
       <c r="E124">
-        <v>512109266.49326158</v>
+        <v>526272977.80816048</v>
       </c>
       <c r="H124" s="4"/>
     </row>
@@ -25145,7 +25145,7 @@
         <v>104</v>
       </c>
       <c r="E125">
-        <v>597905618.5249685</v>
+        <v>581869769.87051237</v>
       </c>
       <c r="H125" s="4"/>
     </row>
@@ -25154,7 +25154,7 @@
         <v>105</v>
       </c>
       <c r="E126">
-        <v>562285047.10426664</v>
+        <v>565603452.82263803</v>
       </c>
       <c r="H126" s="4"/>
     </row>
@@ -25163,7 +25163,7 @@
         <v>106</v>
       </c>
       <c r="E127">
-        <v>546118721.81659627</v>
+        <v>590884890.78330052</v>
       </c>
       <c r="H127" s="4"/>
     </row>
@@ -25172,7 +25172,7 @@
         <v>107</v>
       </c>
       <c r="E128">
-        <v>546843337.78921616</v>
+        <v>571358954.41309929</v>
       </c>
       <c r="H128" s="4"/>
     </row>
@@ -25181,7 +25181,7 @@
         <v>108</v>
       </c>
       <c r="E129">
-        <v>584644090.65556514</v>
+        <v>562599855.91282701</v>
       </c>
       <c r="H129" s="4"/>
     </row>
@@ -25259,15 +25259,15 @@
       </c>
       <c r="B4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N14,Mappings!O14)</f>
-        <v>1090.7345708177854</v>
+        <v>1486.9006545105726</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N15,Mappings!O15)</f>
-        <v>219.34693178802959</v>
+        <v>250.46786230099852</v>
       </c>
       <c r="D4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N16,Mappings!O16)</f>
-        <v>2228.1411110877384</v>
+        <v>2023.1343005482122</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -25379,15 +25379,15 @@
       </c>
       <c r="B10" s="27">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L37))</f>
-        <v>120.4971679840227</v>
+        <v>-139.43721281524159</v>
       </c>
       <c r="C10" s="27">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L37))</f>
-        <v>34.38289076147236</v>
+        <v>15.863292570935963</v>
       </c>
       <c r="D10" s="27">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L39),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L39))</f>
-        <v>487.98465759691453</v>
+        <v>479.06524994799736</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
@@ -25446,15 +25446,15 @@
       </c>
       <c r="B14" s="27">
         <f ca="1">B4*B6</f>
-        <v>1379.7668159974912</v>
+        <v>1880.9124022175768</v>
       </c>
       <c r="C14" s="27">
         <f ca="1">C4*C6</f>
-        <v>1153.3185786436277</v>
+        <v>1316.9513545967909</v>
       </c>
       <c r="D14" s="27">
         <f ca="1">D4*D6</f>
-        <v>3551.2473674247003</v>
+        <v>3224.5041945575131</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -25466,15 +25466,15 @@
       </c>
       <c r="B15" s="27">
         <f ca="1">B8-IF(B9&gt;0,B8-B10,B8+B10)</f>
-        <v>120.49716798402278</v>
+        <v>-139.43721281524176</v>
       </c>
       <c r="C15" s="27">
         <f t="shared" ref="C15:D15" ca="1" si="0">C8-IF(C9&gt;0,C8-C10,C8+C10)</f>
-        <v>-34.382890761472481</v>
+        <v>-15.863292570935755</v>
       </c>
       <c r="D15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>487.98465759691499</v>
+        <v>479.06524994799656</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -25486,15 +25486,15 @@
       </c>
       <c r="B16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>805.2701331540087</v>
+        <v>804.84920904876208</v>
       </c>
       <c r="C16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>27336.421117331123</v>
+        <v>25827.194849816096</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" ref="D16" ca="1" si="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>42846.333565290326</v>
+        <v>45002.946156735707</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -25513,20 +25513,20 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">(B14+B15)*B16</f>
-        <v>1208117.7781469573</v>
+        <v>1401624.9287685126</v>
       </c>
       <c r="C18" s="37">
         <f ca="1">(C14+C15)*C16</f>
-        <v>30587697.167157173</v>
+        <v>33603454.894711375</v>
       </c>
       <c r="D18" s="37">
         <f ca="1">(D14+D15)*D16</f>
-        <v>173066282.69167924</v>
+        <v>166671536.29881302</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27">
         <f ca="1">B18+C18+D18</f>
-        <v>204862097.63698336</v>
+        <v>201676616.12229291</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -25546,9 +25546,9 @@
       <c r="E19" s="27"/>
       <c r="F19" s="27">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>25188253.411182538</v>
-      </c>
-      <c r="H19" s="94" t="s">
+        <v>26233978.615288999</v>
+      </c>
+      <c r="H19" s="100" t="s">
         <v>49</v>
       </c>
     </row>
@@ -25569,13 +25569,13 @@
       <c r="E20" s="27"/>
       <c r="F20" s="27">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>163742407.85717699</v>
+        <v>158752119.98559842</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="94"/>
+      <c r="H20" s="100"/>
       <c r="I20" s="4">
         <f ca="1">100*F19/F20</f>
-        <v>15.382852701880866</v>
+        <v>16.525120179603821</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -25596,7 +25596,7 @@
       </c>
       <c r="F22" s="27">
         <f ca="1">F18</f>
-        <v>204862097.63698336</v>
+        <v>201676616.12229291</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -25610,7 +25610,7 @@
       </c>
       <c r="F23" s="27">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>171933952.33767027</v>
+        <v>157415804.72789517</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -25623,7 +25623,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="27">
-        <v>188973726.50546241</v>
+        <v>163618204.97361892</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -25636,7 +25636,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="27">
-        <v>182820466.02348745</v>
+        <v>152376947.64382792</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -25649,7 +25649,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="27">
-        <v>132942584.25739889</v>
+        <v>155208429.19624433</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -25662,7 +25662,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="27">
-        <v>123497881.89155489</v>
+        <v>158376283.41582322</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -25675,7 +25675,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="27">
-        <v>162939788.55799752</v>
+        <v>166940659.44467905</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -25688,7 +25688,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="27">
-        <v>209773024.57660526</v>
+        <v>204524211.25999221</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -25701,7 +25701,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="27">
-        <v>185739101.7059989</v>
+        <v>128535106.47140872</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -25714,7 +25714,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="27">
-        <v>177682593.13254136</v>
+        <v>154238819.87843663</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -25727,7 +25727,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="27">
-        <v>143342015.5379172</v>
+        <v>155755083.33444053</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -25740,7 +25740,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="27">
-        <v>199652345.97413662</v>
+        <v>185064351.86047494</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -25753,7 +25753,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="27">
-        <v>183327762.66095454</v>
+        <v>163638045.3961091</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -25766,7 +25766,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="27">
-        <v>169664151.18331066</v>
+        <v>165616155.70755312</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -25779,7 +25779,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="27">
-        <v>135573594.16070187</v>
+        <v>127281927.67146361</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -25792,7 +25792,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="27">
-        <v>201872790.7188665</v>
+        <v>146404636.78880048</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -25805,7 +25805,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="27">
-        <v>148238288.76439628</v>
+        <v>160998848.87493825</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -25818,7 +25818,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="27">
-        <v>186516682.25935122</v>
+        <v>119685889.61777423</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -25831,7 +25831,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="27">
-        <v>170119747.69754875</v>
+        <v>197077431.07363376</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -25844,7 +25844,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="27">
-        <v>224754107.70015368</v>
+        <v>175019618.09824756</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -25857,7 +25857,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="27">
-        <v>131923545.09163556</v>
+        <v>158073922.36155108</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -25870,7 +25870,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="27">
-        <v>194840058.00701702</v>
+        <v>155274647.79267028</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -25883,7 +25883,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="27">
-        <v>162035894.46280158</v>
+        <v>188806586.13004583</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -25896,7 +25896,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="27">
-        <v>165288367.02570671</v>
+        <v>150117551.44692892</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -25909,7 +25909,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="27">
-        <v>138606858.65395328</v>
+        <v>135972962.51612571</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -25922,7 +25922,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="27">
-        <v>167436049.34713933</v>
+        <v>221125869.67800766</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -25935,7 +25935,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="27">
-        <v>152636709.911102</v>
+        <v>202131133.91871268</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -25948,7 +25948,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="27">
-        <v>153816291.58540601</v>
+        <v>146483950.04549247</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -25961,7 +25961,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="27">
-        <v>145856826.94877571</v>
+        <v>215627297.36202735</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -25974,7 +25974,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="27">
-        <v>146061482.93113139</v>
+        <v>147865258.45646706</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -25987,7 +25987,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="27">
-        <v>186554421.9805294</v>
+        <v>157333359.3719815</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -26000,7 +26000,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="27">
-        <v>176846528.94765532</v>
+        <v>140517252.6905081</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -26013,7 +26013,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="27">
-        <v>168372837.81086174</v>
+        <v>159013464.87993908</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -26026,7 +26026,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="27">
-        <v>184595660.84640121</v>
+        <v>155675356.22815746</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -26039,7 +26039,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="27">
-        <v>130168289.4099942</v>
+        <v>181780696.91804057</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -26052,7 +26052,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="27">
-        <v>136276655.91388741</v>
+        <v>148310206.92512751</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -26065,7 +26065,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="27">
-        <v>132623840.20111561</v>
+        <v>171224310.10220978</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -26078,7 +26078,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="27">
-        <v>153454028.72565469</v>
+        <v>173358753.7293981</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -26091,7 +26091,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="27">
-        <v>156511759.70102271</v>
+        <v>141864153.16740727</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -26104,7 +26104,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="27">
-        <v>148408117.12184793</v>
+        <v>143592463.59328297</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -26117,7 +26117,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="27">
-        <v>176816443.19301239</v>
+        <v>131360340.05981714</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -26130,7 +26130,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="27">
-        <v>178616386.04349154</v>
+        <v>229675428.66960269</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -26143,7 +26143,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="27">
-        <v>167995471.17026457</v>
+        <v>120894552.48360734</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -26156,7 +26156,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="27">
-        <v>199722170.84887913</v>
+        <v>170281747.24361825</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -26169,7 +26169,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="27">
-        <v>156608674.69101521</v>
+        <v>190432150.97204643</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -26182,7 +26182,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="27">
-        <v>133765773.90948057</v>
+        <v>124278241.89784467</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -26195,7 +26195,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="27">
-        <v>199632882.7018007</v>
+        <v>177575661.89481026</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -26208,7 +26208,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="27">
-        <v>126048658.57049549</v>
+        <v>141126913.15314272</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -26221,7 +26221,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="27">
-        <v>151364997.45385092</v>
+        <v>149566338.15905207</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -26234,7 +26234,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="27">
-        <v>141606136.24219945</v>
+        <v>198196158.32521796</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -26247,7 +26247,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="27">
-        <v>166640701.43140239</v>
+        <v>161527297.29968297</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -26260,7 +26260,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="27">
-        <v>142942493.61985302</v>
+        <v>193045047.96802068</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -26273,7 +26273,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="27">
-        <v>167734673.79581726</v>
+        <v>168361340.36535856</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -26286,7 +26286,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="27">
-        <v>163651969.19986892</v>
+        <v>125550605.57654095</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -26299,7 +26299,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="27">
-        <v>167378435.60167193</v>
+        <v>156069869.45832968</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -26312,7 +26312,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="27">
-        <v>188452560.17758268</v>
+        <v>129269904.93614234</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -26325,7 +26325,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="27">
-        <v>169350943.19346347</v>
+        <v>151305976.64146334</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -26338,7 +26338,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="27">
-        <v>166926887.97835934</v>
+        <v>108377725.04064566</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -26351,7 +26351,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="27">
-        <v>134603787.23713478</v>
+        <v>140186495.4399932</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -26364,7 +26364,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="27">
-        <v>202225466.13277009</v>
+        <v>138215572.18707973</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -26377,7 +26377,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="27">
-        <v>184788031.34592476</v>
+        <v>155116013.48348004</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -26390,7 +26390,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="27">
-        <v>158429093.27752444</v>
+        <v>172446450.18577451</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -26403,7 +26403,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="27">
-        <v>93757376.76470077</v>
+        <v>171154757.44297776</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -26416,7 +26416,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="27">
-        <v>154717397.60818052</v>
+        <v>157590643.54108846</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -26429,7 +26429,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="27">
-        <v>162455127.34659025</v>
+        <v>151410031.41091335</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -26442,7 +26442,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="27">
-        <v>152883832.11686191</v>
+        <v>163893780.40482795</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -26455,7 +26455,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="27">
-        <v>163706226.23298919</v>
+        <v>179904517.74638158</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -26468,7 +26468,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="27">
-        <v>175257654.03337231</v>
+        <v>148080181.29243493</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -26481,7 +26481,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="27">
-        <v>213993902.21822923</v>
+        <v>167123336.23202547</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -26494,7 +26494,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="27">
-        <v>179443907.7678096</v>
+        <v>123106046.06172076</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -26507,7 +26507,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="27">
-        <v>184830650.88080832</v>
+        <v>161569910.81723344</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -26520,7 +26520,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="27">
-        <v>176196474.89047587</v>
+        <v>149659398.51956743</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -26533,7 +26533,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="27">
-        <v>154270318.1726492</v>
+        <v>130032292.31941663</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -26546,7 +26546,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="27">
-        <v>141699675.44743919</v>
+        <v>121426704.45993504</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -26559,7 +26559,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="27">
-        <v>186376231.13655403</v>
+        <v>143851898.29428959</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -26572,7 +26572,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="27">
-        <v>197529262.36844903</v>
+        <v>135269427.34165138</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -26585,7 +26585,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="27">
-        <v>143757544.28518087</v>
+        <v>146530439.44945335</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -26598,7 +26598,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="27">
-        <v>129394977.8825677</v>
+        <v>120424894.56058332</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -26611,7 +26611,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="27">
-        <v>156024095.98758078</v>
+        <v>180253063.30597907</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -26624,7 +26624,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="27">
-        <v>115899652.10357986</v>
+        <v>147335889.22052941</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -26637,7 +26637,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="27">
-        <v>147595852.11027727</v>
+        <v>154553144.54383162</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -26650,7 +26650,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="27">
-        <v>166089995.30643207</v>
+        <v>168917141.06315845</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -26663,7 +26663,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="27">
-        <v>144391051.46701035</v>
+        <v>169938396.49492127</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -26676,7 +26676,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="27">
-        <v>144135080.52235478</v>
+        <v>169648783.81159359</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -26689,7 +26689,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="27">
-        <v>180433232.61924097</v>
+        <v>154980162.36837095</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -26702,7 +26702,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="27">
-        <v>140967799.12174907</v>
+        <v>139572114.44477642</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -26715,7 +26715,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="27">
-        <v>181653011.49924564</v>
+        <v>174659781.33690494</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -26728,7 +26728,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="27">
-        <v>144000183.12572995</v>
+        <v>237610306.96115249</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -26741,7 +26741,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="27">
-        <v>183722006.43695158</v>
+        <v>173749099.20602044</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -26754,7 +26754,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="27">
-        <v>195314120.35615152</v>
+        <v>108043110.29423587</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -26767,7 +26767,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="27">
-        <v>164923974.64829755</v>
+        <v>122921778.39561264</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -26780,7 +26780,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="27">
-        <v>144138870.8260687</v>
+        <v>150276797.98416406</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -26793,7 +26793,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="27">
-        <v>207145600.13285497</v>
+        <v>115571611.90711908</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -26806,7 +26806,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="27">
-        <v>144621940.68416899</v>
+        <v>196246971.23669857</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -26819,7 +26819,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="27">
-        <v>93862557.498874336</v>
+        <v>139769069.03123289</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -26832,7 +26832,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="27">
-        <v>211758057.42972663</v>
+        <v>115416610.01198688</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -26845,7 +26845,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="27">
-        <v>152599555.49172702</v>
+        <v>173430830.34899846</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -26858,7 +26858,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="27">
-        <v>198741904.81489855</v>
+        <v>182594345.9121334</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -26871,7 +26871,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="27">
-        <v>139201350.89282599</v>
+        <v>135270792.60395491</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -26884,7 +26884,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="27">
-        <v>180578831.45109588</v>
+        <v>152908570.50819924</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -26897,7 +26897,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="27">
-        <v>151509009.17309549</v>
+        <v>152334286.25647801</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -26910,7 +26910,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="27">
-        <v>142850250.08893234</v>
+        <v>196337242.04306248</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -26923,7 +26923,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="27">
-        <v>181290104.48664436</v>
+        <v>157914561.60344476</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -26936,7 +26936,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="27">
-        <v>154849450.1602703</v>
+        <v>213169324.16553077</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -26949,7 +26949,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="27">
-        <v>127563613.02163482</v>
+        <v>169535111.10434717</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -26962,7 +26962,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="27">
-        <v>161474866.74053925</v>
+        <v>148075574.54973656</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -26975,7 +26975,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="27">
-        <v>167067556.23249173</v>
+        <v>123789631.88488057</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -26988,7 +26988,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="27">
-        <v>167662349.26926565</v>
+        <v>182914495.63807037</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -27066,15 +27066,15 @@
       </c>
       <c r="B4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N10,Mappings!O10)</f>
-        <v>2287.4425865119429</v>
+        <v>1069.0758065574194</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N11,Mappings!O11)</f>
-        <v>247.87286118858225</v>
+        <v>246.17522878263085</v>
       </c>
       <c r="D4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N12,Mappings!O12)</f>
-        <v>1990.0545810928975</v>
+        <v>1846.5828591811749</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -27102,15 +27102,15 @@
       </c>
       <c r="B6" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.6643671840697709</v>
+        <v>1.5078049998547771</v>
       </c>
       <c r="C6" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>10.948577657032832</v>
+        <v>5.7394441797382418</v>
       </c>
       <c r="D6" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.9537015104072919</v>
+        <v>0.39854951136017247</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -27174,15 +27174,15 @@
       </c>
       <c r="B10" s="27">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L37))</f>
-        <v>537.79010054588866</v>
+        <v>97.193579586420057</v>
       </c>
       <c r="C10" s="27">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L37))</f>
-        <v>14.476714885669271</v>
+        <v>10.895324644205516</v>
       </c>
       <c r="D10" s="27">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L39),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L39))</f>
-        <v>363.94220443253954</v>
+        <v>155.87615088527701</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -27233,15 +27233,15 @@
       </c>
       <c r="B14" s="27">
         <f ca="1">B4*B6</f>
-        <v>3807.1443764341557</v>
+        <v>1611.9578463510554</v>
       </c>
       <c r="C14" s="27">
         <f ca="1">C4*C6</f>
-        <v>2713.8552697941122</v>
+        <v>1412.9089840322008</v>
       </c>
       <c r="D14" s="27">
         <f ca="1">D4*D6</f>
-        <v>3887.9726408741444</v>
+        <v>735.95469621272741</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -27251,15 +27251,15 @@
       </c>
       <c r="B15" s="27">
         <f ca="1">B8-IF(B9&gt;0,B8-B10,B8+B10)</f>
-        <v>537.79010054588889</v>
+        <v>97.193579586420128</v>
       </c>
       <c r="C15" s="27">
         <f t="shared" ref="C15:D15" ca="1" si="0">C8-IF(C9&gt;0,C8-C10,C8+C10)</f>
-        <v>-14.47671488566948</v>
+        <v>-10.89532464420563</v>
       </c>
       <c r="D15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>363.94220443254017</v>
+        <v>155.87615088527673</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -27269,15 +27269,15 @@
       </c>
       <c r="B16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>3284.7911934812391</v>
+        <v>3328.5299295541708</v>
       </c>
       <c r="C16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>24476.533471835952</v>
+        <v>24282.19123651597</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" ref="D16" ca="1" si="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>43308.885370837874</v>
+        <v>43571.853013088774</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -27292,19 +27292,19 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">(B14+B15)*B16</f>
-        <v>14272202.506237064</v>
+        <v>5688961.6753730765</v>
       </c>
       <c r="C18" s="37">
         <f ca="1">(C14+C15)*C16</f>
-        <v>66071429.552372664</v>
+        <v>34043963.793466859</v>
       </c>
       <c r="D18" s="37">
         <f ca="1">(D14+D15)*D16</f>
-        <v>184145692.64195105</v>
+        <v>38858722.582292683</v>
       </c>
       <c r="F18" s="27">
         <f ca="1">B18+C18+D18</f>
-        <v>264489324.70056078</v>
+        <v>78591648.051132619</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -27323,9 +27323,9 @@
       </c>
       <c r="F19" s="27">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>62231837.293805853</v>
-      </c>
-      <c r="H19" s="94" t="s">
+        <v>51444864.228667237</v>
+      </c>
+      <c r="H19" s="100" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27346,13 +27346,13 @@
       <c r="E20" s="4"/>
       <c r="F20" s="27">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>174255575.95232984</v>
+        <v>164546015.1350489</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="94"/>
+      <c r="H20" s="100"/>
       <c r="I20" s="4">
         <f ca="1">100*F19/F20</f>
-        <v>35.712967549933829</v>
+        <v>31.264728098364806</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -27367,7 +27367,7 @@
       </c>
       <c r="F22" s="27">
         <f ca="1">F18</f>
-        <v>264489324.70056078</v>
+        <v>78591648.051132619</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -27378,7 +27378,7 @@
       </c>
       <c r="F23" s="27">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>305453838.99879152</v>
+        <v>229322027.42857909</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -27388,7 +27388,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="27">
-        <v>248227310.14475131</v>
+        <v>80970798.213595048</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -27398,7 +27398,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="27">
-        <v>174518801.8262893</v>
+        <v>148791176.67987609</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -27408,7 +27408,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="27">
-        <v>67557314.653220534</v>
+        <v>144750534.97585022</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -27418,7 +27418,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="27">
-        <v>222072447.43733975</v>
+        <v>198638006.06173903</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -27428,7 +27428,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="27">
-        <v>127242704.3098695</v>
+        <v>200381852.2910943</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -27438,7 +27438,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="27">
-        <v>237135186.53274637</v>
+        <v>137905820.452764</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -27448,7 +27448,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="27">
-        <v>210177562.64814487</v>
+        <v>216759777.53771555</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -27458,7 +27458,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="27">
-        <v>102429234.22455536</v>
+        <v>164802102.89927936</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -27468,7 +27468,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="27">
-        <v>317855904.40959769</v>
+        <v>106292490.92847404</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -27478,7 +27478,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="27">
-        <v>276850336.97786903</v>
+        <v>188317222.25903776</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -27488,7 +27488,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="27">
-        <v>156671412.96503395</v>
+        <v>152754640.40571088</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -27498,7 +27498,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="27">
-        <v>130179214.4561788</v>
+        <v>145390543.40754521</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -27508,7 +27508,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="27">
-        <v>247693740.28614268</v>
+        <v>205608463.11303753</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -27518,7 +27518,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="27">
-        <v>93375632.760065243</v>
+        <v>96695679.844903156</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -27528,7 +27528,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="27">
-        <v>87631168.113179952</v>
+        <v>277665551.870983</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -27538,7 +27538,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="27">
-        <v>162126990.07050863</v>
+        <v>158393364.18242329</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -27548,7 +27548,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="27">
-        <v>164399556.88136908</v>
+        <v>147589149.55244952</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -27558,7 +27558,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="27">
-        <v>180556968.49625608</v>
+        <v>135545996.05109355</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -27568,7 +27568,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="27">
-        <v>99114843.966570199</v>
+        <v>69898035.928422675</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -27578,7 +27578,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="27">
-        <v>200935288.20139903</v>
+        <v>244354097.73197159</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -27588,7 +27588,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="27">
-        <v>167706616.31665325</v>
+        <v>254323523.23649472</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -27598,7 +27598,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="27">
-        <v>130709167.20237982</v>
+        <v>141125270.03999102</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -27608,7 +27608,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="27">
-        <v>125431026.94498958</v>
+        <v>168452782.55097681</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -27618,7 +27618,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="27">
-        <v>172573229.65617037</v>
+        <v>242561735.3989895</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -27628,7 +27628,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="27">
-        <v>100636663.8707433</v>
+        <v>171056993.21567997</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -27638,7 +27638,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="27">
-        <v>222831351.50173795</v>
+        <v>89167096.373352528</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -27648,7 +27648,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="27">
-        <v>169152992.44871736</v>
+        <v>236600369.46691307</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -27658,7 +27658,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="27">
-        <v>184831457.94020343</v>
+        <v>162793589.35569912</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -27668,7 +27668,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="27">
-        <v>176787353.88354412</v>
+        <v>96941736.04285942</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -27678,7 +27678,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="27">
-        <v>95578998.470930368</v>
+        <v>90641930.640152395</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -27688,7 +27688,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="27">
-        <v>267988305.03376478</v>
+        <v>111716441.13525119</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -27698,7 +27698,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="27">
-        <v>145266974.6054585</v>
+        <v>209880989.59291723</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -27708,7 +27708,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="27">
-        <v>199623045.85567141</v>
+        <v>198522267.08793265</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -27718,7 +27718,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="27">
-        <v>223175426.94331986</v>
+        <v>165181007.71261066</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -27728,7 +27728,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="27">
-        <v>87619187.148952633</v>
+        <v>171292390.05694789</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -27738,7 +27738,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="27">
-        <v>202950523.62480941</v>
+        <v>87936610.400638506</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -27748,7 +27748,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="27">
-        <v>194059047.99110237</v>
+        <v>126216776.55164342</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -27758,7 +27758,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="27">
-        <v>193636435.73109078</v>
+        <v>138142043.24040347</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -27768,7 +27768,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="27">
-        <v>200281648.72024012</v>
+        <v>191193795.38802698</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -27778,7 +27778,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="27">
-        <v>125767117.63733587</v>
+        <v>152669989.44380242</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -27788,7 +27788,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="27">
-        <v>207076535.031279</v>
+        <v>118525135.86850202</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -27798,7 +27798,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="27">
-        <v>322002522.14431167</v>
+        <v>242881659.07645947</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -27808,7 +27808,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="27">
-        <v>208637160.95641357</v>
+        <v>237672109.10954285</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -27818,7 +27818,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="27">
-        <v>208170513.76250651</v>
+        <v>143601111.28406668</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -27828,7 +27828,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="27">
-        <v>82698275.856212378</v>
+        <v>210789819.54270661</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -27838,7 +27838,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="27">
-        <v>76070655.245223373</v>
+        <v>202699047.98082939</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -27848,7 +27848,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="27">
-        <v>108732315.33171633</v>
+        <v>179879071.38700157</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -27858,7 +27858,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="27">
-        <v>74264194.053871468</v>
+        <v>247196855.66246435</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -27868,7 +27868,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="27">
-        <v>122934647.2853962</v>
+        <v>71082326.522254154</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -27878,7 +27878,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="27">
-        <v>76607127.446259588</v>
+        <v>160366547.56185663</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -27888,7 +27888,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="27">
-        <v>224145365.25578526</v>
+        <v>208379779.71499151</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -27898,7 +27898,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="27">
-        <v>243800672.71057332</v>
+        <v>207296075.3264991</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -27908,7 +27908,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="27">
-        <v>209775687.88125694</v>
+        <v>202735760.18155032</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -27918,7 +27918,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="27">
-        <v>181225180.51765659</v>
+        <v>215071706.61750802</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -27928,7 +27928,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="27">
-        <v>216252483.37801629</v>
+        <v>193996221.55512619</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -27938,7 +27938,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="27">
-        <v>85933010.588223159</v>
+        <v>155515957.94626287</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -27948,7 +27948,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="27">
-        <v>208877871.26065889</v>
+        <v>120588547.61673826</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -27958,7 +27958,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="27">
-        <v>167571716.43690974</v>
+        <v>148024243.23727381</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -27968,7 +27968,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="27">
-        <v>293504177.59087455</v>
+        <v>144142856.5664902</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -27978,7 +27978,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="27">
-        <v>262718880.75141451</v>
+        <v>160578104.4346965</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -27988,7 +27988,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="27">
-        <v>165957784.69212487</v>
+        <v>226190614.33074766</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -27998,7 +27998,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="27">
-        <v>260353278.75058025</v>
+        <v>159859151.59396666</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -28008,7 +28008,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="27">
-        <v>236473829.82191044</v>
+        <v>88055794.55619061</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -28018,7 +28018,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="27">
-        <v>153493866.02722058</v>
+        <v>221783964.61922589</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -28028,7 +28028,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="27">
-        <v>109933378.95008387</v>
+        <v>132934223.76965034</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -28038,7 +28038,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="27">
-        <v>238866505.10005403</v>
+        <v>140473087.64672706</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -28048,7 +28048,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="27">
-        <v>145649725.92259321</v>
+        <v>92753139.447687939</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -28058,7 +28058,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="27">
-        <v>155278436.16638392</v>
+        <v>119319490.19946931</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -28068,7 +28068,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="27">
-        <v>175526282.70867845</v>
+        <v>174148101.42686284</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -28078,7 +28078,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="27">
-        <v>269860542.73576689</v>
+        <v>248506589.96714976</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -28088,7 +28088,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="27">
-        <v>85844662.874986291</v>
+        <v>168975566.79402262</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -28098,7 +28098,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="27">
-        <v>163895792.54474834</v>
+        <v>196947576.02118358</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -28108,7 +28108,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="27">
-        <v>18283900.296775281</v>
+        <v>120276095.94002764</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -28118,7 +28118,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="27">
-        <v>207540504.19424069</v>
+        <v>136010053.77066225</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -28128,7 +28128,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="27">
-        <v>175944655.54552251</v>
+        <v>221190242.89824456</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -28138,7 +28138,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="27">
-        <v>197987551.08049256</v>
+        <v>153302760.00456217</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -28148,7 +28148,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="27">
-        <v>115883931.9075239</v>
+        <v>198574652.35010654</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -28158,7 +28158,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="27">
-        <v>105544360.5274177</v>
+        <v>158932773.57224074</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -28168,7 +28168,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="27">
-        <v>218093857.40953803</v>
+        <v>166856662.09691021</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -28178,7 +28178,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="27">
-        <v>225819816.94330126</v>
+        <v>193062851.99876896</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -28188,7 +28188,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="27">
-        <v>191519692.75907779</v>
+        <v>138846076.72798106</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -28198,7 +28198,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="27">
-        <v>132074421.29107518</v>
+        <v>159661125.50056666</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -28208,7 +28208,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="27">
-        <v>185770206.57968196</v>
+        <v>239456529.80818322</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -28218,7 +28218,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="27">
-        <v>235418410.08638555</v>
+        <v>175067625.15857536</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -28228,7 +28228,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="27">
-        <v>246522535.69797772</v>
+        <v>124522793.7440958</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -28238,7 +28238,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="27">
-        <v>207687590.77649492</v>
+        <v>171348661.90543467</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -28248,7 +28248,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="27">
-        <v>224949882.71431956</v>
+        <v>152199751.42974496</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -28258,7 +28258,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="27">
-        <v>104305538.6771006</v>
+        <v>166691563.9217068</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -28268,7 +28268,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="27">
-        <v>107947538.11981879</v>
+        <v>219244700.79743376</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -28278,7 +28278,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="27">
-        <v>230163590.48185763</v>
+        <v>239421052.60408723</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -28288,7 +28288,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="27">
-        <v>248485435.17376292</v>
+        <v>101435771.27204353</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -28298,7 +28298,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="27">
-        <v>120330765.13504966</v>
+        <v>218920964.46704772</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -28308,7 +28308,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="27">
-        <v>166016408.06773156</v>
+        <v>162692440.53592601</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -28318,7 +28318,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="27">
-        <v>229731241.77715907</v>
+        <v>130543626.90961261</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -28328,7 +28328,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="27">
-        <v>142975307.81384772</v>
+        <v>127666570.07650614</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -28338,7 +28338,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="27">
-        <v>144291765.82336664</v>
+        <v>193241241.29089969</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -28348,7 +28348,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="27">
-        <v>104690995.99830982</v>
+        <v>104257183.87786366</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -28358,7 +28358,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="27">
-        <v>188838089.9775396</v>
+        <v>52728159.399944201</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -28368,7 +28368,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="27">
-        <v>196503285.27202913</v>
+        <v>166740413.64190257</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -28378,7 +28378,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="27">
-        <v>119183824.49571863</v>
+        <v>93676760.108388618</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -28388,7 +28388,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="27">
-        <v>175728847.24180681</v>
+        <v>265271213.52609858</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -28398,7 +28398,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="27">
-        <v>78784588.720889807</v>
+        <v>199001081.90618208</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -28408,7 +28408,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="27">
-        <v>114208357.25377867</v>
+        <v>125046152.47204316</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -28418,7 +28418,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="27">
-        <v>139038373.61228585</v>
+        <v>220066947.84667969</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -28428,7 +28428,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="27">
-        <v>121939311.46340686</v>
+        <v>22297786.359944679</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -28438,7 +28438,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="27">
-        <v>191963185.56838959</v>
+        <v>175910792.30020139</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -28515,15 +28515,15 @@
       </c>
       <c r="B4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N6,Mappings!O6)</f>
-        <v>622.46538201834016</v>
+        <v>1429.4519720967708</v>
       </c>
       <c r="C4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N7,Mappings!O7)</f>
-        <v>203.11455588777721</v>
+        <v>248.26190594039267</v>
       </c>
       <c r="D4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N8,Mappings!O8)</f>
-        <v>1560.122815669856</v>
+        <v>2100.2491091868874</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -28551,15 +28551,15 @@
       </c>
       <c r="B6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.0788685320852567</v>
+        <v>1.558519192858117</v>
       </c>
       <c r="C6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>6.5101055270414676</v>
+        <v>8.4360128287088507</v>
       </c>
       <c r="D6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>2.1554391282732022</v>
+        <v>1.6421302591993183</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -28623,15 +28623,15 @@
       </c>
       <c r="B10" s="17">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L37))</f>
-        <v>275.57727019025657</v>
+        <v>-36.007806965709591</v>
       </c>
       <c r="C10" s="17">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L37))</f>
-        <v>2.5500941027318778</v>
+        <v>18.710646107449982</v>
       </c>
       <c r="D10" s="17">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L39),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L39))</f>
-        <v>-118.82349944534195</v>
+        <v>1271.8526582395598</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -28680,15 +28680,15 @@
       </c>
       <c r="B14" s="17">
         <f ca="1">B4*B6</f>
-        <v>671.55831297201519</v>
+        <v>2227.8283337817029</v>
       </c>
       <c r="C14" s="17">
         <f ca="1">C4*C6</f>
-        <v>1322.2971929075916</v>
+        <v>2094.3406233928627</v>
       </c>
       <c r="D14" s="17">
         <f ca="1">D4*D6</f>
-        <v>3362.7497618065681</v>
+        <v>3448.882614052201</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -28698,15 +28698,15 @@
       </c>
       <c r="B15" s="17">
         <f ca="1">B8-IF(B9&gt;0,B8-B10,B8+B10)</f>
-        <v>275.57727019025651</v>
+        <v>-36.007806965709733</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" ref="C15:D15" ca="1" si="0">C8-IF(C9&gt;0,C8-C10,C8+C10)</f>
-        <v>-2.5500941027316912</v>
+        <v>-18.710646107449975</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>-118.82349944534144</v>
+        <v>1271.8526582395589</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -28716,15 +28716,15 @@
       </c>
       <c r="B16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>5618.774065296031</v>
+        <v>5460.3938818982042</v>
       </c>
       <c r="C16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>22049.004647942438</v>
+        <v>22048.758060842873</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" ref="D16" ca="1" si="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>43062.68541034314</v>
+        <v>42123.1196815281</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -28734,19 +28734,19 @@
       </c>
       <c r="B18" s="10">
         <f ca="1">(B14+B15)*B16</f>
-        <v>5321740.8509912044</v>
+        <v>11968203.394844947</v>
       </c>
       <c r="C18" s="10">
         <f ca="1">(C14+C15)*C16</f>
-        <v>29099109.915656906</v>
+        <v>45765063.192998849</v>
       </c>
       <c r="D18" s="10">
         <f ca="1">(D14+D15)*D16</f>
-        <v>139692176.13041174</v>
+        <v>198852096.85955697</v>
       </c>
       <c r="F18" s="29">
         <f ca="1">B18+C18+D18</f>
-        <v>174113026.89705986</v>
+        <v>256585363.44740078</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -28765,9 +28765,9 @@
       </c>
       <c r="F19" s="29">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>54126272.751380011</v>
-      </c>
-      <c r="H19" s="94" t="s">
+        <v>59755917.903154962</v>
+      </c>
+      <c r="H19" s="100" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28788,13 +28788,13 @@
       <c r="E20" s="4"/>
       <c r="F20" s="29">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>168257375.92169413</v>
+        <v>173867655.75327626</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="94"/>
+      <c r="H20" s="100"/>
       <c r="I20" s="4">
         <f ca="1">100*F19/F20</f>
-        <v>32.168737004771799</v>
+        <v>34.368622297381471</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -28809,7 +28809,7 @@
       </c>
       <c r="F22" s="29">
         <f ca="1">F18</f>
-        <v>174113026.89705986</v>
+        <v>256585363.44740078</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -28820,7 +28820,7 @@
       </c>
       <c r="F23" s="29">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>217796835.66521648</v>
+        <v>206958841.98813075</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -28830,7 +28830,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="29">
-        <v>133795952.021723</v>
+        <v>110486976.05786681</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -28840,7 +28840,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="29">
-        <v>164614085.05681995</v>
+        <v>178321163.72876647</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -28850,7 +28850,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="29">
-        <v>98452484.659660459</v>
+        <v>187519292.93799555</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -28860,7 +28860,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="29">
-        <v>38005248.597261526</v>
+        <v>161597521.82799673</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -28870,7 +28870,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="29">
-        <v>226787532.62643534</v>
+        <v>154102423.57751328</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -28880,7 +28880,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="29">
-        <v>222424244.30852339</v>
+        <v>107012917.53334057</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -28890,7 +28890,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="29">
-        <v>227755196.00267398</v>
+        <v>194233484.93536052</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -28900,7 +28900,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="29">
-        <v>153874983.36245036</v>
+        <v>157534590.57660636</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -28910,7 +28910,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="29">
-        <v>86206376.14578414</v>
+        <v>168569484.22614333</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -28920,7 +28920,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="29">
-        <v>156030064.43299705</v>
+        <v>214474328.49582112</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -28930,7 +28930,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="29">
-        <v>186119545.49070466</v>
+        <v>141166199.04108846</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -28940,7 +28940,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="29">
-        <v>158657883.54046527</v>
+        <v>147538556.69937083</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -28950,7 +28950,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="29">
-        <v>206454965.21145651</v>
+        <v>94400433.15798308</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -28960,7 +28960,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="29">
-        <v>118783656.11575656</v>
+        <v>212915607.82214418</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -28970,7 +28970,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="29">
-        <v>206791635.34702465</v>
+        <v>320939118.34605217</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -28980,7 +28980,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="29">
-        <v>170605065.33670118</v>
+        <v>211451896.53311381</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -28990,7 +28990,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="29">
-        <v>338114542.97470438</v>
+        <v>166909585.89455825</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -29000,7 +29000,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="29">
-        <v>208943393.54620498</v>
+        <v>92090513.193596333</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -29010,7 +29010,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="29">
-        <v>258451631.78542578</v>
+        <v>178776487.13917172</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -29020,7 +29020,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="29">
-        <v>198634491.05370212</v>
+        <v>216540132.01873201</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -29030,7 +29030,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="29">
-        <v>211960387.09487534</v>
+        <v>219699795.40529346</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -29040,7 +29040,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="29">
-        <v>170603325.07894287</v>
+        <v>132540896.66096905</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -29050,7 +29050,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="29">
-        <v>203486953.87442258</v>
+        <v>159099394.07765323</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -29060,7 +29060,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="29">
-        <v>209185571.90584323</v>
+        <v>164308604.7637088</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -29070,7 +29070,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="29">
-        <v>221863520.19153738</v>
+        <v>177380801.22568804</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -29080,7 +29080,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="29">
-        <v>98618096.432853639</v>
+        <v>164226250.68712223</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -29090,7 +29090,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="29">
-        <v>89962759.182248414</v>
+        <v>239807902.19698241</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -29100,7 +29100,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="29">
-        <v>150483667.94530708</v>
+        <v>264467892.48425663</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -29110,7 +29110,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="29">
-        <v>286480108.60583961</v>
+        <v>343199415.56530082</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -29120,7 +29120,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="29">
-        <v>121292467.8546218</v>
+        <v>184141987.43846202</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -29130,7 +29130,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="29">
-        <v>174003557.5834229</v>
+        <v>137478416.59173629</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -29140,7 +29140,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="29">
-        <v>175411736.68548661</v>
+        <v>163498090.57827893</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -29150,7 +29150,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="29">
-        <v>42275790.985681482</v>
+        <v>104825155.12361643</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -29160,7 +29160,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="29">
-        <v>216175676.25025296</v>
+        <v>198310664.02299309</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -29170,7 +29170,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="29">
-        <v>197640091.59347588</v>
+        <v>200338910.27175236</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -29180,7 +29180,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="29">
-        <v>172709313.53580242</v>
+        <v>220342343.25797749</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -29190,7 +29190,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="29">
-        <v>253301549.10496104</v>
+        <v>114401824.10208437</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -29200,7 +29200,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="29">
-        <v>243092981.41727784</v>
+        <v>164685342.27951226</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -29210,7 +29210,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="29">
-        <v>210853648.95467228</v>
+        <v>120253288.03105795</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -29220,7 +29220,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="29">
-        <v>64809517.81952858</v>
+        <v>189876768.55649161</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -29230,7 +29230,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="29">
-        <v>162254016.22853073</v>
+        <v>177562175.1765694</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -29240,7 +29240,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="29">
-        <v>159550416.70207563</v>
+        <v>225913733.93716794</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -29250,7 +29250,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="29">
-        <v>232052446.02660003</v>
+        <v>59110461.192272469</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -29260,7 +29260,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="29">
-        <v>175637844.824</v>
+        <v>100709571.78324917</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -29270,7 +29270,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="29">
-        <v>229053496.87158805</v>
+        <v>260038010.68213826</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -29280,7 +29280,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="29">
-        <v>181664758.46244627</v>
+        <v>282914865.29272115</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -29290,7 +29290,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="29">
-        <v>123456527.60030401</v>
+        <v>249391330.81793708</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -29300,7 +29300,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="29">
-        <v>119584686.33757102</v>
+        <v>120784976.78153566</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -29310,7 +29310,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="29">
-        <v>140636176.56990862</v>
+        <v>156768520.46278167</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -29320,7 +29320,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="29">
-        <v>172545858.83822209</v>
+        <v>131197958.5631422</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -29330,7 +29330,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="29">
-        <v>123420320.18356669</v>
+        <v>212909554.36819029</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -29340,7 +29340,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="29">
-        <v>125598614.47643204</v>
+        <v>92884152.414754316</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -29350,7 +29350,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="29">
-        <v>234572577.76459283</v>
+        <v>125788961.0353874</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -29360,7 +29360,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="29">
-        <v>171553039.196109</v>
+        <v>102049480.52139121</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -29370,7 +29370,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="29">
-        <v>138574503.7043826</v>
+        <v>138616575.17969799</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -29380,7 +29380,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="29">
-        <v>215971411.44145963</v>
+        <v>135114218.9594146</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -29390,7 +29390,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="29">
-        <v>195509631.55348209</v>
+        <v>193827349.69169632</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -29400,7 +29400,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="29">
-        <v>168332210.90355542</v>
+        <v>203289031.30217293</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -29410,7 +29410,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="29">
-        <v>86667867.647243738</v>
+        <v>221350144.59269178</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -29420,7 +29420,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="29">
-        <v>113818888.53696421</v>
+        <v>153713452.89867628</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -29430,7 +29430,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="29">
-        <v>197621174.8019529</v>
+        <v>140319699.64361537</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -29440,7 +29440,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="29">
-        <v>167422004.08292663</v>
+        <v>228040803.44599879</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -29450,7 +29450,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="29">
-        <v>104332629.16537946</v>
+        <v>205523111.48050839</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -29460,7 +29460,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="29">
-        <v>222987632.05798849</v>
+        <v>243326034.25340015</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -29470,7 +29470,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="29">
-        <v>157216880.94502196</v>
+        <v>122165758.64734168</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -29480,7 +29480,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="29">
-        <v>113084696.30227777</v>
+        <v>139117972.35761827</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -29490,7 +29490,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="29">
-        <v>162086210.24075669</v>
+        <v>61576469.405645818</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -29500,7 +29500,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="29">
-        <v>150653526.2712518</v>
+        <v>138880602.10049227</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -29510,7 +29510,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="29">
-        <v>153628884.24954134</v>
+        <v>259684592.40052712</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -29520,7 +29520,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="29">
-        <v>132559874.51963793</v>
+        <v>192334737.29568744</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -29530,7 +29530,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="29">
-        <v>130166698.54438153</v>
+        <v>87251183.011094451</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -29540,7 +29540,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="29">
-        <v>260942213.85309324</v>
+        <v>255034469.19353151</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -29550,7 +29550,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="29">
-        <v>183430026.1423412</v>
+        <v>298762716.05912071</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -29560,7 +29560,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="29">
-        <v>137870782.95905948</v>
+        <v>179838793.97565126</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -29570,7 +29570,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="29">
-        <v>105064728.9488073</v>
+        <v>202461045.68580741</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -29580,7 +29580,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="29">
-        <v>193915106.84966877</v>
+        <v>71048516.790527388</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -29590,7 +29590,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="29">
-        <v>182461064.89681143</v>
+        <v>179715147.02316338</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -29600,7 +29600,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="29">
-        <v>99289509.466546416</v>
+        <v>172598889.42612258</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -29610,7 +29610,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="29">
-        <v>117602132.53798543</v>
+        <v>218470662.64613637</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -29620,7 +29620,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="29">
-        <v>71373735.064450637</v>
+        <v>155799279.59300667</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -29630,7 +29630,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="29">
-        <v>178360300.22890091</v>
+        <v>161710791.58847526</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -29640,7 +29640,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="29">
-        <v>132967751.23612714</v>
+        <v>345304168.87087983</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -29650,7 +29650,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="29">
-        <v>91725899.91014263</v>
+        <v>295132615.66812885</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -29660,7 +29660,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="29">
-        <v>109439844.64765391</v>
+        <v>115274513.5916959</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -29670,7 +29670,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="29">
-        <v>211750547.83034933</v>
+        <v>149733521.73234558</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -29680,7 +29680,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="29">
-        <v>186277151.51877418</v>
+        <v>272288446.86452508</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -29690,7 +29690,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="29">
-        <v>101675779.42577165</v>
+        <v>177974742.90704757</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -29700,7 +29700,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="29">
-        <v>105316148.81881681</v>
+        <v>90198256.989342928</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -29710,7 +29710,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="29">
-        <v>224056205.99365878</v>
+        <v>101397243.31500602</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -29720,7 +29720,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="29">
-        <v>224912977.09799826</v>
+        <v>182038710.90004581</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -29730,7 +29730,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="29">
-        <v>119058159.68689394</v>
+        <v>156041858.85440344</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -29740,7 +29740,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="29">
-        <v>227988962.48082227</v>
+        <v>151990735.93352282</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -29750,7 +29750,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="29">
-        <v>94262997.890332013</v>
+        <v>158783183.31893146</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -29760,7 +29760,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="29">
-        <v>138666365.85265884</v>
+        <v>144035413.78353649</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -29770,7 +29770,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="29">
-        <v>186230311.48019853</v>
+        <v>90036442.958910853</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -29780,7 +29780,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="29">
-        <v>178141570.68437374</v>
+        <v>125391095.92096534</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -29790,7 +29790,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="29">
-        <v>174373764.70644504</v>
+        <v>227810122.13346219</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -29800,7 +29800,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="29">
-        <v>208070408.47877413</v>
+        <v>165083293.20428675</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -29810,7 +29810,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="29">
-        <v>191423386.71050584</v>
+        <v>140959932.94160953</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -29820,7 +29820,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="29">
-        <v>270036847.57162666</v>
+        <v>53013725.751105294</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -29830,7 +29830,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="29">
-        <v>141156761.23798186</v>
+        <v>224403984.64430752</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -29840,7 +29840,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="29">
-        <v>182909490.94268823</v>
+        <v>205055592.54279578</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -29850,7 +29850,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="29">
-        <v>136125201.71437842</v>
+        <v>180901920.08999076</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -29860,7 +29860,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="29">
-        <v>171848791.87242982</v>
+        <v>146895117.16953838</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -29870,7 +29870,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="29">
-        <v>265670160.46761805</v>
+        <v>146814559.85035545</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -29880,7 +29880,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="29">
-        <v>139562443.01231992</v>
+        <v>130543157.24033907</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -29959,15 +29959,15 @@
       </c>
       <c r="B4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N18,Mappings!O18)</f>
-        <v>1443.75893905711</v>
+        <v>1052.6656275469284</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N19,Mappings!O19)</f>
-        <v>236.18146658271004</v>
+        <v>250.5833909055828</v>
       </c>
       <c r="D4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N20,Mappings!O20)</f>
-        <v>1480.7482271497902</v>
+        <v>1957.8374503861896</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -30079,15 +30079,15 @@
       </c>
       <c r="B10" s="27">
         <f ca="1">IF(B9&gt;=0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L37))</f>
-        <v>620.99137916049779</v>
+        <v>396.68972161611919</v>
       </c>
       <c r="C10" s="27">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L37))</f>
-        <v>6.29506013382532</v>
+        <v>8.0403441291156277</v>
       </c>
       <c r="D10" s="27">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L39),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L39))</f>
-        <v>554.38488465846353</v>
+        <v>-363.45475667045582</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
@@ -30146,15 +30146,15 @@
       </c>
       <c r="B14" s="27">
         <f ca="1">B4*B6</f>
-        <v>2335.0608195053128</v>
+        <v>1702.5267836818384</v>
       </c>
       <c r="C14" s="27">
         <f ca="1">C4*C6</f>
-        <v>1788.4412822419208</v>
+        <v>1897.4972398300647</v>
       </c>
       <c r="D14" s="27">
         <f ca="1">D4*D6</f>
-        <v>2757.0372027670742</v>
+        <v>3645.339963077548</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -30166,15 +30166,15 @@
       </c>
       <c r="B15" s="27">
         <f ca="1">B8-IF(B9&gt;0,B8-B10,B8+B10)</f>
-        <v>620.99137916049767</v>
+        <v>396.68972161611919</v>
       </c>
       <c r="C15" s="27">
         <f t="shared" ref="C15:D15" ca="1" si="0">C8-IF(C9&gt;0,C8-C10,C8+C10)</f>
-        <v>6.2950601338252454</v>
+        <v>8.0403441291155104</v>
       </c>
       <c r="D15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>554.38488465846422</v>
+        <v>-363.45475667045503</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -30186,15 +30186,15 @@
       </c>
       <c r="B16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>5759.2219176804911</v>
+        <v>5772.6522012939868</v>
       </c>
       <c r="C16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>21487.537637732286</v>
+        <v>22726.885534604902</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" ref="D16" ca="1" si="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>43468.752167704261</v>
+        <v>43553.509108831182</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -30213,20 +30213,20 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">(B14+B15)*B16</f>
-        <v>17024560.612363741</v>
+        <v>12118046.780300925</v>
       </c>
       <c r="C18" s="37">
         <f ca="1">(C14+C15)*C16</f>
-        <v>38564464.706604823</v>
+        <v>43306934.552527867</v>
       </c>
       <c r="D18" s="37">
         <f ca="1">(D14+D15)*D16</f>
-        <v>143943386.04096264</v>
+        <v>142937617.23138961</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27">
         <f ca="1">B18+C18+D18</f>
-        <v>199532411.3599312</v>
+        <v>198362598.5642184</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -30246,9 +30246,9 @@
       <c r="E19" s="27"/>
       <c r="F19" s="27">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>26490637.293108374</v>
-      </c>
-      <c r="H19" s="94" t="s">
+        <v>31900402.56512272</v>
+      </c>
+      <c r="H19" s="100" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30269,13 +30269,13 @@
       <c r="E20" s="27"/>
       <c r="F20" s="27">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>204100206.57366645</v>
+        <v>205468047.3942433</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="94"/>
+      <c r="H20" s="100"/>
       <c r="I20" s="4">
         <f ca="1">100*F19/F20</f>
-        <v>12.979231005112693</v>
+        <v>15.525724301021652</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -30290,7 +30290,7 @@
       </c>
       <c r="F22" s="29">
         <f ca="1">F18</f>
-        <v>199532411.3599312</v>
+        <v>198362598.5642184</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -30301,7 +30301,7 @@
       </c>
       <c r="F23" s="29">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>200037444.94794279</v>
+        <v>216632744.27885497</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -30311,7 +30311,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="29">
-        <v>228188791.70753574</v>
+        <v>157469135.36561918</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -30321,7 +30321,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="29">
-        <v>232648108.85533756</v>
+        <v>247446436.47767514</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -30331,7 +30331,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="29">
-        <v>214965717.74259281</v>
+        <v>163448245.58817598</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -30341,7 +30341,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="29">
-        <v>223060183.432473</v>
+        <v>218149960.54461333</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -30351,7 +30351,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="29">
-        <v>180303614.56260991</v>
+        <v>183309400.71809518</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -30361,7 +30361,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="29">
-        <v>194392884.71327844</v>
+        <v>240325303.98741353</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -30371,7 +30371,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="29">
-        <v>242122749.88317513</v>
+        <v>172704694.62670612</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -30381,7 +30381,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="29">
-        <v>188632354.15106466</v>
+        <v>220935838.17921457</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -30391,7 +30391,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="29">
-        <v>192057597.62281466</v>
+        <v>277317158.94785762</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -30401,7 +30401,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="29">
-        <v>136133766.51949468</v>
+        <v>238522348.18934631</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -30411,7 +30411,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="29">
-        <v>224833703.08515364</v>
+        <v>201484099.38597733</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -30421,7 +30421,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="29">
-        <v>235895289.75086793</v>
+        <v>183511385.62228543</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -30431,7 +30431,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="29">
-        <v>198652074.76233482</v>
+        <v>175788926.12013924</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -30441,7 +30441,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="29">
-        <v>206102317.47982749</v>
+        <v>214433578.31764299</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -30451,7 +30451,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="29">
-        <v>207550601.99506176</v>
+        <v>245689602.40800312</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -30461,7 +30461,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="29">
-        <v>213491376.87261322</v>
+        <v>188104738.62762162</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -30471,7 +30471,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="29">
-        <v>205508427.0317384</v>
+        <v>229277113.99553645</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -30481,7 +30481,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="29">
-        <v>229006696.24209863</v>
+        <v>165899002.8985512</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -30491,7 +30491,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="29">
-        <v>223321199.60796732</v>
+        <v>220923896.61215556</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -30501,7 +30501,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="29">
-        <v>197173868.70143193</v>
+        <v>232589764.71936405</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -30511,7 +30511,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="29">
-        <v>203068657.73868752</v>
+        <v>216568459.70946139</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -30521,7 +30521,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="29">
-        <v>196976207.44561669</v>
+        <v>201027529.475299</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -30531,7 +30531,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="29">
-        <v>187723156.49591321</v>
+        <v>250945022.88470721</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -30541,7 +30541,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="29">
-        <v>228359750.84231153</v>
+        <v>234171828.27436325</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -30551,7 +30551,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="29">
-        <v>206400412.6496911</v>
+        <v>224271289.52382505</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -30561,7 +30561,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="29">
-        <v>223918333.67503095</v>
+        <v>208301546.38506573</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -30571,7 +30571,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="29">
-        <v>242496778.41693053</v>
+        <v>204197554.47211418</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -30581,7 +30581,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="29">
-        <v>185912777.51594129</v>
+        <v>215862618.85987478</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -30591,7 +30591,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="29">
-        <v>190403839.9628883</v>
+        <v>180416172.76562777</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -30601,7 +30601,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="29">
-        <v>204745513.99884945</v>
+        <v>202019517.36153316</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -30611,7 +30611,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="29">
-        <v>175322338.47407895</v>
+        <v>213115781.13874835</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -30621,7 +30621,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="29">
-        <v>172346631.5891656</v>
+        <v>191355731.83365154</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -30631,7 +30631,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="29">
-        <v>210120362.33537984</v>
+        <v>242995898.92191488</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -30641,7 +30641,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="29">
-        <v>240656632.04586229</v>
+        <v>201996592.6638312</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -30651,7 +30651,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="29">
-        <v>161699672.89214227</v>
+        <v>205192397.54257309</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -30661,7 +30661,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="29">
-        <v>256559560.30402446</v>
+        <v>220317543.61461806</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -30671,7 +30671,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="29">
-        <v>169894047.27675727</v>
+        <v>194902269.94985816</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -30681,7 +30681,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="29">
-        <v>208956599.77948615</v>
+        <v>244245451.15565392</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -30691,7 +30691,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="29">
-        <v>254189382.58848163</v>
+        <v>173582627.05568764</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -30701,7 +30701,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="29">
-        <v>173899735.21663618</v>
+        <v>218316362.11592823</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -30711,7 +30711,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="29">
-        <v>163641931.48775327</v>
+        <v>207897923.65996918</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -30721,7 +30721,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="29">
-        <v>217862346.46841815</v>
+        <v>222197027.03174192</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -30731,7 +30731,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="29">
-        <v>202488636.34937921</v>
+        <v>189699624.92983407</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -30741,7 +30741,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="29">
-        <v>245140523.50423384</v>
+        <v>195262249.48825076</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -30751,7 +30751,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="29">
-        <v>207557643.06170523</v>
+        <v>133787395.5904047</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -30761,7 +30761,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="29">
-        <v>234378079.85605091</v>
+        <v>249221664.93395293</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -30771,7 +30771,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="29">
-        <v>178366665.9932313</v>
+        <v>210401944.48411676</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -30781,7 +30781,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="29">
-        <v>239137452.55571178</v>
+        <v>163327604.30364561</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -30791,7 +30791,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="29">
-        <v>168075929.63381153</v>
+        <v>223000865.07626158</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -30801,7 +30801,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="29">
-        <v>198728143.30147302</v>
+        <v>187358707.09277189</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -30811,7 +30811,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="29">
-        <v>199628023.91236752</v>
+        <v>239162427.21596128</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -30821,7 +30821,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="29">
-        <v>230542245.37562707</v>
+        <v>216725392.35659543</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -30831,7 +30831,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="29">
-        <v>222136206.84332767</v>
+        <v>231703196.2816143</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -30841,7 +30841,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="29">
-        <v>212553882.63622722</v>
+        <v>208848168.14939544</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -30851,7 +30851,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="29">
-        <v>195354152.99461216</v>
+        <v>193433515.78329158</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -30861,7 +30861,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="29">
-        <v>200162658.81244728</v>
+        <v>177103913.36216152</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -30871,7 +30871,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="29">
-        <v>198334301.72344491</v>
+        <v>198857494.1025908</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -30881,7 +30881,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="29">
-        <v>217378122.98346165</v>
+        <v>188966303.31444091</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -30891,7 +30891,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="29">
-        <v>240662993.53461754</v>
+        <v>209288297.1080814</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -30901,7 +30901,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="29">
-        <v>195091715.52674252</v>
+        <v>114992488.3389681</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -30911,7 +30911,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="29">
-        <v>154526959.95021665</v>
+        <v>175606196.99568838</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -30921,7 +30921,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="29">
-        <v>196914959.11416292</v>
+        <v>236846801.92303455</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -30931,7 +30931,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="29">
-        <v>196984571.34742093</v>
+        <v>240307274.47101504</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -30941,7 +30941,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="29">
-        <v>194510341.26308358</v>
+        <v>194067002.42235541</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -30951,7 +30951,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="29">
-        <v>214655220.33237249</v>
+        <v>180070231.52602986</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -30961,7 +30961,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="29">
-        <v>209563340.01505572</v>
+        <v>183317379.20644736</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -30971,7 +30971,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="29">
-        <v>144080920.11158824</v>
+        <v>178486374.51772249</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -30981,7 +30981,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="29">
-        <v>220830036.41259548</v>
+        <v>215283556.20559093</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -30991,7 +30991,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="29">
-        <v>170073793.61546677</v>
+        <v>213436151.06979811</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -31001,7 +31001,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="29">
-        <v>246938669.13309598</v>
+        <v>146894447.02225205</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -31011,7 +31011,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="29">
-        <v>197329593.9922297</v>
+        <v>203953072.30790371</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -31021,7 +31021,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="29">
-        <v>178777654.39380896</v>
+        <v>241287263.79697147</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -31031,7 +31031,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="29">
-        <v>186750550.6002259</v>
+        <v>239746559.47886086</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -31041,7 +31041,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="29">
-        <v>164751084.30284053</v>
+        <v>235360712.20351461</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -31051,7 +31051,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="29">
-        <v>196373158.2994892</v>
+        <v>246434100.40691909</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -31061,7 +31061,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="29">
-        <v>235325497.065126</v>
+        <v>209867146.97250301</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -31071,7 +31071,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="29">
-        <v>160218719.49180496</v>
+        <v>180231705.2215755</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -31081,7 +31081,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="29">
-        <v>259649297.37375066</v>
+        <v>283293160.9378497</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -31091,7 +31091,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="29">
-        <v>234355247.7287502</v>
+        <v>241740758.27589387</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -31101,7 +31101,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="29">
-        <v>170733152.9709678</v>
+        <v>211868523.26972032</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -31111,7 +31111,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="29">
-        <v>236188114.78778759</v>
+        <v>226076763.48248336</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -31121,7 +31121,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="29">
-        <v>194722948.98028657</v>
+        <v>221634599.81846526</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -31131,7 +31131,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="29">
-        <v>233810093.7618193</v>
+        <v>251087003.0275166</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -31141,7 +31141,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="29">
-        <v>159254166.78944689</v>
+        <v>160328567.11588466</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -31151,7 +31151,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="29">
-        <v>172245861.17789206</v>
+        <v>167938304.61423576</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -31161,7 +31161,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="29">
-        <v>242832795.03308034</v>
+        <v>217261774.50675544</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -31171,7 +31171,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="29">
-        <v>238023510.24953282</v>
+        <v>179512820.8741703</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -31181,7 +31181,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="29">
-        <v>186506590.34235987</v>
+        <v>167436707.9186174</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -31191,7 +31191,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="29">
-        <v>218971392.37264928</v>
+        <v>191693533.38017118</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -31201,7 +31201,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="29">
-        <v>177072246.27782029</v>
+        <v>191304336.11210713</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -31211,7 +31211,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="29">
-        <v>176502846.42295638</v>
+        <v>151318218.11561856</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -31221,7 +31221,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="29">
-        <v>192069635.72089896</v>
+        <v>177565600.66719404</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -31231,7 +31231,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="29">
-        <v>178929865.22593963</v>
+        <v>197186455.9486303</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -31241,7 +31241,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="29">
-        <v>200626468.88980192</v>
+        <v>191011428.93676245</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -31251,7 +31251,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="29">
-        <v>204265731.34045309</v>
+        <v>203721974.79808223</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -31261,7 +31261,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="29">
-        <v>192002399.91317576</v>
+        <v>249222420.58215481</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -31271,7 +31271,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="29">
-        <v>210840736.40466276</v>
+        <v>197021936.38990587</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -31281,7 +31281,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="29">
-        <v>175131686.23915762</v>
+        <v>197845549.27863666</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -31291,7 +31291,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="29">
-        <v>215298150.16053432</v>
+        <v>239269748.12087566</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -31301,7 +31301,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="29">
-        <v>243136202.80804911</v>
+        <v>199803060.29237196</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -31311,7 +31311,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="29">
-        <v>211027161.94149101</v>
+        <v>181649018.96955341</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -31321,7 +31321,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="29">
-        <v>246286111.08041728</v>
+        <v>135641697.88480121</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -31331,7 +31331,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="29">
-        <v>169783335.45755681</v>
+        <v>143263929.22247228</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -31341,7 +31341,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="29">
-        <v>184438615.93171659</v>
+        <v>291257033.95547688</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -31351,7 +31351,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="29">
-        <v>193000681.10368243</v>
+        <v>234345763.57652259</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -31361,7 +31361,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="29">
-        <v>222028965.2028836</v>
+        <v>170688080.2737098</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>

--- a/Income_accounting_Njombe.xlsx
+++ b/Income_accounting_Njombe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\GitHub\Tanzania Dairy Mitigation Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934100E2-AE19-4623-AB1D-8B4E29898B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29A097F-CAD0-42F6-B938-142AD14849D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64B7B528-6AFC-453E-A699-FBF307BA8192}"/>
   </bookViews>
@@ -842,22 +842,22 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1991,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3677A265-4F8D-4424-81DC-A71D3ED6A3A2}">
   <dimension ref="A1:L558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22:F22"/>
     </sheetView>
   </sheetViews>
@@ -2007,26 +2007,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="83" t="s">
         <v>105</v>
       </c>
@@ -2035,16 +2035,16 @@
       <c r="A3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="92">
+      <c r="C3" s="94">
         <f>G3</f>
         <v>0.68136304356303046</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94">
         <f>Dairy_Income_Baseline!B3</f>
         <v>0.47075992100718467</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="94"/>
       <c r="G3" s="45">
         <f>[1]All!$L$10*L17</f>
         <v>0.68136304356303046</v>
@@ -2054,16 +2054,16 @@
       <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="90">
         <f>[2]prod_herd_data!J39</f>
         <v>3007.9506358527424</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93">
+      <c r="D4" s="90"/>
+      <c r="E4" s="90">
         <f>[2]prod_herd_data!J38</f>
         <v>757.75586056583484</v>
       </c>
-      <c r="F4" s="93"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="46">
         <f>[2]prod_herd_data!J39</f>
         <v>3007.9506358527424</v>
@@ -2073,16 +2073,16 @@
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="91">
         <f>Dairy_Income_Baseline!D5</f>
         <v>0.51839999999999997</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94">
+      <c r="D5" s="91"/>
+      <c r="E5" s="91">
         <f>Dairy_Income_Baseline!B5</f>
         <v>0.40200000000000002</v>
       </c>
-      <c r="F5" s="94"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="76">
         <f>C5</f>
         <v>0.51839999999999997</v>
@@ -2092,52 +2092,52 @@
       <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="90">
         <f>C4*C3*(12*L12-9)/(12*L12)</f>
         <v>1921.4122501237289</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93">
+      <c r="D6" s="90"/>
+      <c r="E6" s="90">
         <f>E4*E3</f>
         <v>356.72108906270364</v>
       </c>
-      <c r="F6" s="93"/>
+      <c r="F6" s="90"/>
       <c r="G6" s="46">
         <f>G4*G3</f>
         <v>2049.5064001319774</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="90">
         <f>(([2]concentrate_feeding!$D$23*L30)+([2]concentrate_feeding!$D$24*L31))</f>
         <v>337.84894587744157</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93">
+      <c r="D9" s="90"/>
+      <c r="E9" s="90">
         <f>(([2]concentrate_feeding!$D$17*L30)+([2]concentrate_feeding!$D$18*L31))</f>
         <v>86.361328970444461</v>
       </c>
-      <c r="F9" s="93"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="46">
         <f>(([2]concentrate_feeding!$D$20*L30)+([2]concentrate_feeding!$D$21*L31))</f>
         <v>337.84894587744157</v>
@@ -2147,16 +2147,16 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="90">
         <f>[3]NPV_Baseline!E9</f>
         <v>2.4640522792596169</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93">
+      <c r="D10" s="90"/>
+      <c r="E10" s="90">
         <f>[3]NPV_Baseline!C9</f>
         <v>3.8125058757578052</v>
       </c>
-      <c r="F10" s="93"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="46">
         <f>[3]NPV_Baseline!E9</f>
         <v>2.4640522792596169</v>
@@ -2166,16 +2166,16 @@
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="90">
         <f>[3]NPV_Baseline!E10</f>
         <v>10.524515875107813</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93">
+      <c r="D11" s="90"/>
+      <c r="E11" s="90">
         <f>[3]NPV_Baseline!C10</f>
         <v>14.319919412568568</v>
       </c>
-      <c r="F11" s="93"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="46">
         <f>[3]NPV_Baseline!E10</f>
         <v>10.524515875107813</v>
@@ -2188,16 +2188,16 @@
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="90">
         <f>[3]NPV_Baseline!E11</f>
         <v>1.7120179889182412E-4</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93">
+      <c r="D12" s="90"/>
+      <c r="E12" s="90">
         <f>[3]NPV_Baseline!C11</f>
         <v>1.7120179889182412E-4</v>
       </c>
-      <c r="F12" s="93"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="46">
         <f>[3]NPV_Baseline!E11</f>
         <v>1.7120179889182412E-4</v>
@@ -2210,26 +2210,26 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="43"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="93">
+      <c r="C14" s="90">
         <f>SUM(C9:C12)</f>
         <v>350.83768523360783</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93">
+      <c r="D14" s="90"/>
+      <c r="E14" s="90">
         <f>SUM(E9:E12)</f>
         <v>104.49392546056973</v>
       </c>
-      <c r="F14" s="93"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="46">
         <f>SUM(G9:G12)</f>
         <v>350.83768523360783</v>
@@ -2243,10 +2243,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="43"/>
       <c r="K15" t="s">
         <v>66</v>
@@ -2260,23 +2260,23 @@
       <c r="A16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="93">
+      <c r="C16" s="90">
         <f>L14/L12</f>
         <v>39.958333333333336</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93">
+      <c r="D16" s="90"/>
+      <c r="E16" s="90">
         <f>[4]Dairy_Income_Baseline!B12</f>
         <v>0</v>
       </c>
-      <c r="F16" s="93"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="77"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
       <c r="K17" t="s">
         <v>90</v>
       </c>
@@ -2286,35 +2286,35 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C20" s="91">
         <f>L36*L17</f>
         <v>288.26701511267407</v>
       </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94">
+      <c r="D20" s="91"/>
+      <c r="E20" s="91">
         <f>L36*L17</f>
         <v>288.26701511267407</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="17">
         <f>L38*L17</f>
         <v>186.49040603762646</v>
@@ -2331,16 +2331,16 @@
       <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="94">
+      <c r="C21" s="91">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data!$D$25/L33))</f>
         <v>7.6409661037666346E-2</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94">
+      <c r="D21" s="91"/>
+      <c r="E21" s="91">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data!$D$19/L33))</f>
         <v>3.1621741520077642E-2</v>
       </c>
-      <c r="F21" s="94"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="17">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data!$D$22/L33))</f>
         <v>5.9751303662473179E-2</v>
@@ -2350,16 +2350,16 @@
       <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="94">
+      <c r="C22" s="91">
         <f>(((1/1000)*(1/L25)*[2]feeding_change_data_pasture!$D$25/L34))</f>
         <v>0.30000846586262692</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94">
+      <c r="D22" s="91"/>
+      <c r="E22" s="91">
         <f>(((1/1000)*(1/L25)*[2]feeding_change_data_pasture!$D$19/L34))</f>
         <v>-4.6027546575673692E-2</v>
       </c>
-      <c r="F22" s="94"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="17">
         <f>(((1/1000)*(1/L25)*[2]feeding_change_data_pasture!$D$22/L34))</f>
         <v>0.17717543414539857</v>
@@ -2375,16 +2375,16 @@
       <c r="A23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="94">
+      <c r="C23" s="91">
         <f>SUM(C21:D22)</f>
         <v>0.37641812690029325</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94">
+      <c r="D23" s="91"/>
+      <c r="E23" s="91">
         <f>SUM(E21:F22)</f>
         <v>-1.4405805055596049E-2</v>
       </c>
-      <c r="F23" s="94"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="17">
         <f>SUM(G21:G22)</f>
         <v>0.23692673780787177</v>
@@ -2394,16 +2394,16 @@
       <c r="A24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="91">
         <f>L20*(C21+C22)</f>
         <v>10.539707553208212</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94">
+      <c r="D24" s="91"/>
+      <c r="E24" s="91">
         <f>L20*(E21+E22)</f>
         <v>-0.40336254155668938</v>
       </c>
-      <c r="F24" s="94"/>
+      <c r="F24" s="91"/>
       <c r="G24" s="17">
         <f>L20*(G21+G22)</f>
         <v>6.6339486586204099</v>
@@ -2420,16 +2420,16 @@
       <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="94">
+      <c r="C25" s="91">
         <f>(C21+C22)*C20+C24</f>
         <v>119.04863742905951</v>
       </c>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94">
+      <c r="D25" s="91"/>
+      <c r="E25" s="91">
         <f>(E21+E22)*E20+E24</f>
         <v>-4.5560809652284329</v>
       </c>
-      <c r="F25" s="94"/>
+      <c r="F25" s="91"/>
       <c r="G25" s="17">
         <f>(G21+G22)*G20+G24</f>
         <v>50.818512193580681</v>
@@ -2442,16 +2442,16 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
       <c r="K27" t="s">
         <v>23</v>
       </c>
@@ -2464,21 +2464,21 @@
       <c r="A28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="93">
+      <c r="C28" s="90">
         <f>(134/144)*C6-C14-C16</f>
         <v>1397.1848252981956</v>
       </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93">
+      <c r="D28" s="90"/>
+      <c r="E28" s="90">
         <f>E6-E14-E16/L12</f>
         <v>252.22716360213391</v>
       </c>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93">
+      <c r="F28" s="90"/>
+      <c r="G28" s="90">
         <f>G6-G14-G16/L12</f>
         <v>1698.6687148983697</v>
       </c>
-      <c r="H28" s="93"/>
+      <c r="H28" s="90"/>
       <c r="K28" t="s">
         <v>23</v>
       </c>
@@ -2491,26 +2491,26 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="93">
+      <c r="C29" s="90">
         <f>C28-Dairy_Income_Baseline!B29</f>
         <v>1329.2916527127579</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93">
+      <c r="D29" s="90"/>
+      <c r="E29" s="90">
         <f>E28-Dairy_Income_Baseline!D29</f>
         <v>-434.18421162459117</v>
       </c>
-      <c r="F29" s="93"/>
+      <c r="F29" s="90"/>
       <c r="G29" s="27">
         <f>G28-Dairy_Income_Baseline!D29</f>
         <v>1012.2573396716446</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
       <c r="K30" t="s">
         <v>25</v>
       </c>
@@ -2520,15 +2520,15 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
       <c r="K31" t="s">
         <v>24</v>
       </c>
@@ -2541,25 +2541,25 @@
       <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="94">
         <f>Dairy_Income_Baseline!D37</f>
         <v>1.0344968421481813</v>
       </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92">
+      <c r="D33" s="94"/>
+      <c r="E33" s="94">
         <f>Dairy_Income_Baseline!B37</f>
         <v>0.1404872254769135</v>
       </c>
-      <c r="F33" s="92"/>
+      <c r="F33" s="94"/>
       <c r="G33" s="44">
         <f>Dairy_Income_Baseline!D37</f>
         <v>1.0344968421481813</v>
@@ -2572,10 +2572,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
       <c r="K34" t="s">
         <v>48</v>
       </c>
@@ -2587,16 +2587,16 @@
       <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="93">
+      <c r="C35" s="90">
         <f>Dairy_Income_Baseline!B39</f>
         <v>100.89537102432878</v>
       </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93">
+      <c r="D35" s="90"/>
+      <c r="E35" s="90">
         <f>Dairy_Income_Baseline!B39</f>
         <v>100.89537102432878</v>
       </c>
-      <c r="F35" s="93"/>
+      <c r="F35" s="90"/>
       <c r="G35" s="27">
         <f>Dairy_Income_Baseline!D39</f>
         <v>84.930913583770433</v>
@@ -2606,16 +2606,16 @@
       <c r="A36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="93">
+      <c r="C36" s="90">
         <f>Dairy_Income_Baseline!D40</f>
         <v>61.942094869366407</v>
       </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93">
+      <c r="D36" s="90"/>
+      <c r="E36" s="90">
         <f>Dairy_Income_Baseline!B40</f>
         <v>38.825560495437912</v>
       </c>
-      <c r="F36" s="93"/>
+      <c r="F36" s="90"/>
       <c r="G36" s="27">
         <f>Dairy_Income_Baseline!D40</f>
         <v>61.942094869366407</v>
@@ -2632,16 +2632,16 @@
       <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="93">
+      <c r="C37" s="90">
         <f>Dairy_Income_Baseline!D41</f>
         <v>10.983546719104146</v>
       </c>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93">
+      <c r="D37" s="90"/>
+      <c r="E37" s="90">
         <f>Dairy_Income_Baseline!B41</f>
         <v>17.497045354851952</v>
       </c>
-      <c r="F37" s="93"/>
+      <c r="F37" s="90"/>
       <c r="G37" s="27">
         <f>Dairy_Income_Baseline!D41</f>
         <v>10.983546719104146</v>
@@ -2658,16 +2658,16 @@
       <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="93">
+      <c r="C38" s="90">
         <f>Dairy_Income_Baseline!D42</f>
         <v>3.1928914881116706</v>
       </c>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93">
+      <c r="D38" s="90"/>
+      <c r="E38" s="90">
         <f>Dairy_Income_Baseline!B42</f>
         <v>1.404872254769135</v>
       </c>
-      <c r="F38" s="93"/>
+      <c r="F38" s="90"/>
       <c r="G38" s="27">
         <f>Dairy_Income_Baseline!D42</f>
         <v>3.1928914881116706</v>
@@ -2684,16 +2684,16 @@
       <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="93">
+      <c r="C39" s="90">
         <f>[3]NPV_Baseline!E47</f>
         <v>0</v>
       </c>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93">
+      <c r="D39" s="90"/>
+      <c r="E39" s="90">
         <f>Dairy_Income_Baseline!B43</f>
         <v>0</v>
       </c>
-      <c r="F39" s="93"/>
+      <c r="F39" s="90"/>
       <c r="G39" s="27">
         <f>Dairy_Income_Baseline!D43</f>
         <v>0</v>
@@ -2707,270 +2707,270 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="94">
+      <c r="C42" s="91">
         <f ca="1">_xlfn.NORM.INV(RAND(),C3,C33)</f>
-        <v>8.0282649565054487E-2</v>
-      </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94">
+        <v>1.711090195506934</v>
+      </c>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91">
         <f ca="1">_xlfn.NORM.INV(RAND(),E3,E33)</f>
-        <v>0.57988831473368219</v>
-      </c>
-      <c r="F42" s="94"/>
+        <v>0.53719662808674506</v>
+      </c>
+      <c r="F42" s="91"/>
       <c r="G42" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),G3,G33)</f>
-        <v>-0.79096930488758588</v>
+        <v>0.16812969246396681</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="94">
+      <c r="C43" s="91">
         <f ca="1">_xlfn.NORM.INV(RAND(),C4,C4*L22)</f>
-        <v>2915.5790998283887</v>
-      </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94">
+        <v>3149.5272429977308</v>
+      </c>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91">
         <f ca="1">_xlfn.NORM.INV(RAND(),E4,E4*L22)</f>
-        <v>846.48449560402446</v>
-      </c>
-      <c r="F43" s="94"/>
+        <v>864.30717975693665</v>
+      </c>
+      <c r="F43" s="91"/>
       <c r="G43" s="78">
         <f ca="1">_xlfn.NORM.INV(RAND(),G4,G4*L22)</f>
-        <v>2516.1586192880804</v>
+        <v>3245.4224552689889</v>
       </c>
       <c r="H43" s="78"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="93">
+      <c r="C45" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),C9,C35)</f>
-        <v>410.64744836250566</v>
-      </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93">
+        <v>342.37904806495601</v>
+      </c>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),E9,E35)</f>
-        <v>233.40215000275094</v>
-      </c>
-      <c r="F45" s="93"/>
+        <v>193.15650128802849</v>
+      </c>
+      <c r="F45" s="90"/>
       <c r="G45" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),G9,G35)</f>
-        <v>521.24693278365862</v>
+        <v>258.90412904622906</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="93">
+      <c r="C46" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),C10,C36)</f>
-        <v>-28.353469955996061</v>
-      </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93">
+        <v>-48.834927211794636</v>
+      </c>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),E10,E36)</f>
-        <v>-21.236821710977051</v>
-      </c>
-      <c r="F46" s="93"/>
+        <v>31.513011250377012</v>
+      </c>
+      <c r="F46" s="90"/>
       <c r="G46" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),G10,G36)</f>
-        <v>-22.475886522012786</v>
+        <v>8.5030469229594114</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="93">
+      <c r="C47" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C37)</f>
-        <v>-7.9838070318455188</v>
-      </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93">
+        <v>21.725618042092499</v>
+      </c>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),E11,E37)</f>
-        <v>18.182823127505443</v>
-      </c>
-      <c r="F47" s="93"/>
+        <v>16.541227966133544</v>
+      </c>
+      <c r="F47" s="90"/>
       <c r="G47" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),G11,G37)</f>
-        <v>-12.955234834277981</v>
+        <v>29.605391704067245</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="93">
+      <c r="C48" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),C12,C38)</f>
-        <v>0.3744404417965233</v>
-      </c>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93">
+        <v>-6.6777895198043016</v>
+      </c>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),E12,E38)</f>
-        <v>-0.26655536408254238</v>
-      </c>
-      <c r="F48" s="93"/>
+        <v>-0.78501146679507583</v>
+      </c>
+      <c r="F48" s="90"/>
       <c r="G48" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),G12,G38)</f>
-        <v>0.71756076902578758</v>
+        <v>2.8376433338825873</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="93">
+      <c r="C49" s="90">
         <v>1E-4</v>
       </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93">
+      <c r="D49" s="90"/>
+      <c r="E49" s="90">
         <v>1E-4</v>
       </c>
-      <c r="F49" s="93"/>
+      <c r="F49" s="90"/>
       <c r="G49" s="27">
         <v>1E-4</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
       <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="93">
+      <c r="C51" s="90">
         <f ca="1">SUM(C45:C49)</f>
-        <v>374.68471181646061</v>
-      </c>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93">
+        <v>308.59204937544951</v>
+      </c>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90">
         <f ca="1">SUM(E45:E49)</f>
-        <v>230.08169605519683</v>
-      </c>
-      <c r="F51" s="93"/>
+        <v>240.42582903774397</v>
+      </c>
+      <c r="F51" s="90"/>
       <c r="G51" s="27">
         <f ca="1">SUM(G45:G49)</f>
-        <v>486.53347219639363</v>
+        <v>299.85031100713826</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
       <c r="G52" s="27"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="93">
+      <c r="C53" s="90">
         <f ca="1">C42*C43-C51</f>
-        <v>-140.61429666574105</v>
-      </c>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93">
+        <v>5080.5331365999527</v>
+      </c>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90">
         <f ca="1">E42*E43-E51</f>
-        <v>260.78477154881193</v>
-      </c>
-      <c r="F53" s="93"/>
+        <v>223.87707355884666</v>
+      </c>
+      <c r="F53" s="90"/>
       <c r="G53" s="27">
         <f ca="1">G42*G43-G51</f>
-        <v>-2476.7377062815945</v>
+        <v>245.80156831288895</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
       <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="93">
+      <c r="C55" s="90">
         <f ca="1">AVERAGE(C59:C558)</f>
-        <v>914.54877919922285</v>
-      </c>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93">
+        <v>924.99107406575422</v>
+      </c>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90">
         <f ca="1">AVERAGE(E59:E558)</f>
-        <v>5.3256315983938931</v>
-      </c>
-      <c r="F55" s="93"/>
+        <v>5.2518162024139619</v>
+      </c>
+      <c r="F55" s="90"/>
       <c r="G55" s="27">
         <f ca="1">AVERAGE(G59:G558)</f>
-        <v>949.04131728572247</v>
+        <v>954.48639583491138</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="93">
+      <c r="C56" s="90">
         <f ca="1">STDEVA(C59:C558)</f>
-        <v>324.38565051534323</v>
-      </c>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93">
+        <v>371.03369353741954</v>
+      </c>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90">
         <f t="shared" ref="E56:G56" ca="1" si="0">STDEVA(E59:E558)</f>
-        <v>28.940565842065155</v>
-      </c>
-      <c r="F56" s="93"/>
+        <v>28.328280816691606</v>
+      </c>
+      <c r="F56" s="90"/>
       <c r="G56" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>333.2591422727711</v>
+        <v>297.4963197909866</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="95"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="95"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="43">
@@ -2978,21 +2978,21 @@
       </c>
       <c r="C59" s="46">
         <f ca="1">C53</f>
-        <v>-140.61429666574105</v>
+        <v>5080.5331365999527</v>
       </c>
       <c r="D59" s="43">
         <v>1</v>
       </c>
       <c r="E59" s="46">
         <f ca="1">E53</f>
-        <v>260.78477154881193</v>
+        <v>223.87707355884666</v>
       </c>
       <c r="F59" s="43">
         <v>1</v>
       </c>
       <c r="G59" s="46">
         <f ca="1">G53</f>
-        <v>-2476.7377062815945</v>
+        <v>245.80156831288895</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -12977,19 +12977,82 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
@@ -13014,82 +13077,19 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13114,12 +13114,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -13138,122 +13138,122 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="94">
+      <c r="B3" s="91">
         <f>[1]All!$L$9*L18</f>
         <v>0.47075992100718467</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91">
         <f>[1]All!$L$10*L18</f>
         <v>0.68136304356303046</v>
       </c>
-      <c r="E3" s="94"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="90">
         <f>[2]prod_herd_data!J17</f>
         <v>367.30829304581511</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90">
         <f>[2]prod_herd_data!J18</f>
         <v>1424.0802472278533</v>
       </c>
-      <c r="E4" s="93"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Dairy_Income_Roadmap!A5</f>
         <v>Fraction cows to total herd</v>
       </c>
-      <c r="B5" s="94">
+      <c r="B5" s="91">
         <f>[1]All!$I$9</f>
         <v>0.40200000000000002</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94">
+      <c r="C5" s="91"/>
+      <c r="D5" s="91">
         <f>[1]All!$I$10</f>
         <v>0.51839999999999997</v>
       </c>
-      <c r="E5" s="94"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="90">
         <f>B4*B3</f>
         <v>172.91402301953175</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90">
         <f>D4*D3</f>
         <v>970.31565152916301</v>
       </c>
-      <c r="E6" s="93"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="90">
         <f xml:space="preserve"> (([2]FEEDING_base!$D$17*L31)+([2]FEEDING_base!$D$18*L32))</f>
         <v>83.69233529350808</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93">
+      <c r="C9" s="90"/>
+      <c r="D9" s="90">
         <f>(([2]FEEDING_base!$D$23*L31)+([2]FEEDING_base!$D$24*L32))</f>
         <v>248.28886005706909</v>
       </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="90">
         <f>[1]All!$P$9*L18</f>
         <v>4.470048083356339</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93">
+      <c r="C10" s="90"/>
+      <c r="D10" s="90">
         <f>[1]All!$P$10*L18</f>
         <v>9.1955274857616107</v>
       </c>
-      <c r="E10" s="93"/>
+      <c r="E10" s="90"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="93">
+      <c r="B11" s="90">
         <f>[1]All!$Q$9*L18</f>
         <v>16.603035738180687</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93">
+      <c r="C11" s="90"/>
+      <c r="D11" s="90">
         <f>[1]All!$Q$10*L18</f>
         <v>16.219888759607286</v>
       </c>
-      <c r="E11" s="93"/>
+      <c r="E11" s="90"/>
       <c r="K11" s="2" t="s">
         <v>87</v>
       </c>
@@ -13262,16 +13262,16 @@
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="90">
         <f>[1]All!$R$9*L18</f>
         <v>0.25543131904893362</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93">
+      <c r="C12" s="90"/>
+      <c r="D12" s="90">
         <f>[1]All!$R$10*17</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="90"/>
       <c r="K12" t="s">
         <v>85</v>
       </c>
@@ -13283,37 +13283,37 @@
       <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="93">
+      <c r="B13" s="90">
         <f>0*L18</f>
         <v>0</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93">
+      <c r="C13" s="90"/>
+      <c r="D13" s="90">
         <f>0*L18</f>
         <v>0</v>
       </c>
-      <c r="E13" s="93"/>
+      <c r="E13" s="90"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="90">
         <f>SUM(B9:B13)</f>
         <v>105.02085043409406</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93">
+      <c r="C15" s="90"/>
+      <c r="D15" s="90">
         <f>SUM(D9:D13)</f>
         <v>283.90427630243795</v>
       </c>
-      <c r="E15" s="93"/>
+      <c r="E15" s="90"/>
       <c r="K15" t="str">
         <f>[3]NPV_Roadmap!K14</f>
         <v>Price acquring new animal (USD/head)</v>
@@ -13324,22 +13324,22 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
       <c r="K18" t="str">
         <f>[3]NPV_Roadmap!K17</f>
         <v>GDP deflator</v>
@@ -13350,44 +13350,44 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="93">
+      <c r="B20" s="90">
         <f>L37*L18</f>
         <v>288.26701511267407</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93">
+      <c r="C20" s="90"/>
+      <c r="D20" s="90">
         <f>L39*L18</f>
         <v>186.49040603762646</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="93">
+      <c r="B21" s="90">
         <f>( [7]Sheet1!$QH$47*[2]feeding_change_data!$D$4  +      [7]Sheet1!$QH$38*[2]feeding_change_data!$E$4)/([2]feeding_change_data!$D$4+[2]feeding_change_data!$E$4)</f>
         <v>113.87379929520394</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93">
+      <c r="C21" s="90"/>
+      <c r="D21" s="90">
         <f>( [7]Sheet1!$QG$47*[2]feeding_change_data!$D$4+      [7]Sheet1!$QG$38*[2]feeding_change_data!$E$4)/([2]feeding_change_data!$S$4+[2]feeding_change_data!$E$4)</f>
         <v>2567.5736640595242</v>
       </c>
-      <c r="E21" s="93"/>
+      <c r="E21" s="90"/>
       <c r="K21" t="str">
         <f>[3]NPV_Roadmap!K25</f>
         <v>Forage seeding cost (USD/ha/yr)</v>
@@ -13401,46 +13401,46 @@
       <c r="A22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="93">
+      <c r="B22" s="90">
         <f>(((1/1000)*(1/L24)/L34))*B21</f>
         <v>1.1679364030277327E-2</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93">
+      <c r="C22" s="90"/>
+      <c r="D22" s="90">
         <f>(((1/1000)*(1/L24)/L34))*D21</f>
         <v>0.26334088862148963</v>
       </c>
-      <c r="E22" s="93"/>
+      <c r="E22" s="90"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="93">
+      <c r="B23" s="90">
         <f>( [7]Sheet1!$QP$47*[2]feeding_change_data_pasture!$S$4+      [7]Sheet1!$QP$38*[2]feeding_change_data_pasture!$E$4)/([2]feeding_change_data_pasture!$S$4+[2]feeding_change_data_pasture!$E$4)</f>
         <v>45.002914171323539</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93">
+      <c r="C23" s="90"/>
+      <c r="D23" s="90">
         <f>( [7]Sheet1!$QO$47*[2]feeding_change_data_pasture!$S$4+      [7]Sheet1!$QO$38*[2]feeding_change_data_pasture!$E$4)/([2]feeding_change_data_pasture!$S$4+[2]feeding_change_data_pasture!$E$4)</f>
         <v>430.24211526249343</v>
       </c>
-      <c r="E23" s="93"/>
+      <c r="E23" s="90"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="93">
+      <c r="B24" s="90">
         <f>(((1/1000)*(1/L26)/L35))*B23</f>
         <v>1.8001165668529415E-2</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93">
+      <c r="C24" s="90"/>
+      <c r="D24" s="90">
         <f>(((1/1000)*(1/L26)/L35))*D23</f>
         <v>0.17209684610499737</v>
       </c>
-      <c r="E24" s="93"/>
+      <c r="E24" s="90"/>
       <c r="K24" t="str">
         <f>[3]NPV_Roadmap!K28</f>
         <v>Use efficiency napier</v>
@@ -13454,31 +13454,31 @@
       <c r="A25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="93">
+      <c r="B25" s="90">
         <f>B24+B22</f>
         <v>2.9680529698806742E-2</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93">
+      <c r="C25" s="90"/>
+      <c r="D25" s="90">
         <f>D24+D22</f>
         <v>0.435437734726487</v>
       </c>
-      <c r="E25" s="93"/>
+      <c r="E25" s="90"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="93">
+      <c r="B26" s="90">
         <f>(B22+B24)*L18*L21</f>
         <v>1.0613871591452158</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93">
+      <c r="C26" s="90"/>
+      <c r="D26" s="90">
         <f>(D22+D24)*L18*L21</f>
         <v>15.571420892281271</v>
       </c>
-      <c r="E26" s="93"/>
+      <c r="E26" s="90"/>
       <c r="K26" t="str">
         <f>[3]NPV_Roadmap!K29</f>
         <v>Use efficiency pasture</v>
@@ -13492,22 +13492,22 @@
       <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="93">
+      <c r="B27" s="90">
         <f>(B22+B24)*B20+B26</f>
         <v>9.6173048623833104</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93">
+      <c r="C27" s="90"/>
+      <c r="D27" s="90">
         <f>(D22+D24)*D20+D26</f>
         <v>96.776380845528109</v>
       </c>
-      <c r="E27" s="93"/>
+      <c r="E27" s="90"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
       <c r="K28" t="str">
         <f>[3]NPV_Roadmap!K31</f>
         <v>Standard error (%) improved forage yield</v>
@@ -13521,16 +13521,16 @@
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="93">
+      <c r="B29" s="90">
         <f>B6-B15</f>
         <v>67.893172585437696</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93">
+      <c r="C29" s="90"/>
+      <c r="D29" s="90">
         <f>D6-D15</f>
         <v>686.41137522672511</v>
       </c>
-      <c r="E29" s="93"/>
+      <c r="E29" s="90"/>
       <c r="K29" t="str">
         <f>[3]NPV_Roadmap!K32</f>
         <v>Standard error (%) improved forage yield</v>
@@ -13541,16 +13541,16 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
       <c r="K31" t="str">
         <f>[3]NPV_Roadmap!K34</f>
         <v>Market price Sunflower cake (USD/kg)</v>
@@ -13561,10 +13561,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
       <c r="K32" t="str">
         <f>[3]NPV_Roadmap!K35</f>
         <v>Market price Maize bran (USD/kg)</v>
@@ -13575,16 +13575,16 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
       <c r="K34" t="str">
         <f>[3]NPV_Roadmap!K37</f>
         <v>Napier yield (Mg/ha)</v>
@@ -13595,13 +13595,13 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
       <c r="K35" t="str">
         <f>[3]NPV_Roadmap!K38</f>
         <v>Pasture yield (Mg/ha)</v>
@@ -13612,28 +13612,28 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="94">
+      <c r="B37" s="91">
         <f>[1]All!$S$9*L18</f>
         <v>0.1404872254769135</v>
       </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94">
+      <c r="C37" s="91"/>
+      <c r="D37" s="91">
         <f>[1]All!$S$10*L18</f>
         <v>1.0344968421481813</v>
       </c>
-      <c r="E37" s="94"/>
+      <c r="E37" s="91"/>
       <c r="K37" t="str">
         <f>[3]NPV_Roadmap!K40</f>
         <v xml:space="preserve">Opportunity cost land strata 1 </v>
@@ -13644,10 +13644,10 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
       <c r="K38" t="str">
         <f>[3]NPV_Roadmap!K41</f>
         <v>SE (fraction)</v>
@@ -13661,16 +13661,16 @@
       <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="94">
+      <c r="B39" s="91">
         <f>[1]All!$V$9*L18</f>
         <v>100.89537102432878</v>
       </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94">
+      <c r="C39" s="91"/>
+      <c r="D39" s="91">
         <f>[1]All!$V$10*L18</f>
         <v>84.930913583770433</v>
       </c>
-      <c r="E39" s="94"/>
+      <c r="E39" s="91"/>
       <c r="K39" t="str">
         <f>[3]NPV_Roadmap!K42</f>
         <v>Opportunity cost land strata 2</v>
@@ -13684,16 +13684,16 @@
       <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="94">
+      <c r="B40" s="91">
         <f>[1]All!$W$9*L18</f>
         <v>38.825560495437912</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94">
+      <c r="C40" s="91"/>
+      <c r="D40" s="91">
         <f>[1]All!$W$10*L18</f>
         <v>61.942094869366407</v>
       </c>
-      <c r="E40" s="94"/>
+      <c r="E40" s="91"/>
       <c r="K40" t="str">
         <f>[3]NPV_Roadmap!K43</f>
         <v>SE (fraction)</v>
@@ -13707,58 +13707,58 @@
       <c r="A41" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="94">
+      <c r="B41" s="91">
         <f>[1]All!$X$9*L18</f>
         <v>17.497045354851952</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94">
+      <c r="C41" s="91"/>
+      <c r="D41" s="91">
         <f>[1]All!$X$10*L18</f>
         <v>10.983546719104146</v>
       </c>
-      <c r="E41" s="94"/>
+      <c r="E41" s="91"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="94">
+      <c r="B42" s="91">
         <f>[1]All!$Y$9*L18</f>
         <v>1.404872254769135</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94">
+      <c r="C42" s="91"/>
+      <c r="D42" s="91">
         <f>[1]All!$Y$10*L18</f>
         <v>3.1928914881116706</v>
       </c>
-      <c r="E42" s="94"/>
+      <c r="E42" s="91"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="94">
+      <c r="B43" s="91">
         <f>B13*L18</f>
         <v>0</v>
       </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94">
+      <c r="C43" s="91"/>
+      <c r="D43" s="91">
         <f>D13*L18</f>
         <v>0</v>
       </c>
-      <c r="E43" s="94"/>
+      <c r="E43" s="91"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
@@ -13769,189 +13769,189 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="94">
+      <c r="B47" s="91">
         <f ca="1">_xlfn.NORM.INV(RAND(),B3,B37)</f>
-        <v>0.45921900614174771</v>
-      </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94">
+        <v>0.41663091309258798</v>
+      </c>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91">
         <f ca="1">_xlfn.NORM.INV(RAND(),D3,D37)</f>
-        <v>0.32944921304698432</v>
-      </c>
-      <c r="E47" s="94"/>
+        <v>1.4658534958216975</v>
+      </c>
+      <c r="E47" s="91"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="94">
+      <c r="B48" s="91">
         <f ca="1">_xlfn.NORM.INV(RAND(),B4,B4*Dairy_Income_Roadmap!L22)</f>
-        <v>373.5773698870367</v>
-      </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94">
+        <v>430.052143501133</v>
+      </c>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91">
         <f ca="1">_xlfn.NORM.INV(RAND(),D4,D4*Dairy_Income_Roadmap!L22)</f>
-        <v>1483.067878185507</v>
-      </c>
-      <c r="E48" s="94"/>
+        <v>1019.2476402961538</v>
+      </c>
+      <c r="E48" s="91"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="93">
+      <c r="B50" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),B9,B39)</f>
-        <v>134.37990701973931</v>
-      </c>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93">
+        <v>161.17193017337115</v>
+      </c>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),D9,D39)</f>
-        <v>193.53273164576729</v>
-      </c>
-      <c r="E50" s="93"/>
+        <v>174.42986303426045</v>
+      </c>
+      <c r="E50" s="90"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="93">
+      <c r="B51" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),B10,B40)</f>
-        <v>7.0033950205634001</v>
-      </c>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93">
+        <v>-2.1583576246474205</v>
+      </c>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),D10,D40)</f>
-        <v>-63.711318638436047</v>
-      </c>
-      <c r="E51" s="93"/>
+        <v>10.548563255859893</v>
+      </c>
+      <c r="E51" s="90"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="93">
+      <c r="B52" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B41)</f>
-        <v>29.761500705424709</v>
-      </c>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93">
+        <v>7.4843169962742149</v>
+      </c>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D41)</f>
-        <v>20.040832629253053</v>
-      </c>
-      <c r="E52" s="93"/>
+        <v>11.978298460493427</v>
+      </c>
+      <c r="E52" s="90"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="93">
+      <c r="B53" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),B12,B42)</f>
-        <v>5.8507684265762805E-4</v>
-      </c>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93">
+        <v>-0.85578145177774179</v>
+      </c>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90">
         <f ca="1">_xlfn.NORM.INV(RAND(),D12,D42)</f>
-        <v>13.043790311756975</v>
-      </c>
-      <c r="E53" s="93"/>
+        <v>11.66191110044247</v>
+      </c>
+      <c r="E53" s="90"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="93">
+      <c r="B54" s="90">
         <v>1E-4</v>
       </c>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93">
+      <c r="C54" s="90"/>
+      <c r="D54" s="90">
         <v>1E-4</v>
       </c>
-      <c r="E54" s="93"/>
+      <c r="E54" s="90"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="93">
+      <c r="B56" s="90">
         <f>SUM(C50:C54)</f>
         <v>0</v>
       </c>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93">
+      <c r="C56" s="90"/>
+      <c r="D56" s="90">
         <f>SUM(E50:E54)</f>
         <v>0</v>
       </c>
-      <c r="E56" s="93"/>
+      <c r="E56" s="90"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="95"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="93">
+      <c r="B58" s="90">
         <f ca="1">B47*B48-B56</f>
-        <v>171.55382851657305</v>
-      </c>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93">
+        <v>179.17301722430173</v>
+      </c>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90">
         <f ca="1">D47*D48-D56</f>
-        <v>488.59554536347611</v>
-      </c>
-      <c r="E58" s="93"/>
+        <v>1494.0677166361331</v>
+      </c>
+      <c r="E58" s="90"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="93">
+      <c r="B60" s="90">
         <f ca="1">AVERAGE(C64:C563)</f>
-        <v>102.13343560190614</v>
-      </c>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93">
+        <v>102.1486739793216</v>
+      </c>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90">
         <f ca="1">AVERAGE(E64:E563)</f>
-        <v>135.53713257710396</v>
-      </c>
-      <c r="E60" s="93"/>
+        <v>137.54807691964933</v>
+      </c>
+      <c r="E60" s="90"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="93">
+      <c r="B61" s="90">
         <f ca="1">STDEVA(C64:C563)</f>
-        <v>61.35912658874431</v>
-      </c>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93">
+        <v>61.377344908347006</v>
+      </c>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90">
         <f ca="1">STDEVA(E64:E563)</f>
-        <v>168.86970908857307</v>
-      </c>
-      <c r="E61" s="93"/>
+        <v>178.77845080469982</v>
+      </c>
+      <c r="E61" s="90"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
@@ -13964,7 +13964,7 @@
       </c>
       <c r="C64" s="46">
         <f ca="1">B58</f>
-        <v>171.55382851657305</v>
+        <v>179.17301722430173</v>
       </c>
       <c r="D64" s="43">
         <f>B64</f>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="E64" s="46">
         <f ca="1">D58</f>
-        <v>488.59554536347611</v>
+        <v>1494.0677166361331</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -21462,16 +21462,88 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="B45:C45"/>
@@ -21496,88 +21568,16 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21967,7 +21967,7 @@
       <c r="AC4" s="18"/>
       <c r="AD4" s="27">
         <f ca="1">MC_Baseline!H20</f>
-        <v>4.6400976545507593</v>
+        <v>4.6764139779933815</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22052,7 +22052,7 @@
       </c>
       <c r="O6" s="50">
         <f ca="1">Dairy_Income_Roadmap!C56</f>
-        <v>324.38565051534323</v>
+        <v>371.03369353741954</v>
       </c>
       <c r="P6" s="50">
         <f>(F6*(Dairy_Income_Roadmap!C23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -22072,7 +22072,7 @@
       </c>
       <c r="T6" s="5">
         <f ca="1">F6*O6*I6</f>
-        <v>414.37492730275062</v>
+        <v>473.96381295592215</v>
       </c>
       <c r="U6" s="47">
         <f>U3</f>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="O7" s="50">
         <f ca="1">Dairy_Income_Roadmap!E56</f>
-        <v>28.940565842065155</v>
+        <v>28.328280816691606</v>
       </c>
       <c r="P7" s="50">
         <f>(F7*(Dairy_Income_Roadmap!E23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -22177,7 +22177,7 @@
       </c>
       <c r="T7" s="5">
         <f ca="1">F7*O7*I7</f>
-        <v>173.08690549157924</v>
+        <v>169.4249687865719</v>
       </c>
       <c r="U7" s="47">
         <f t="shared" ref="U7:W8" si="1">U3</f>
@@ -22263,7 +22263,7 @@
       </c>
       <c r="O8" s="50">
         <f ca="1">Dairy_Income_Roadmap!G56</f>
-        <v>333.2591422727711</v>
+        <v>297.4963197909866</v>
       </c>
       <c r="P8" s="50">
         <f>(F8*(Dairy_Income_Roadmap!G23 + Dairy_Income_Baseline!D25)  -   F5*Dairy_Income_Baseline!D25)</f>
@@ -22283,7 +22283,7 @@
       </c>
       <c r="T8" s="5">
         <f ca="1">F8*O8*I8</f>
-        <v>490.08544165970494</v>
+        <v>437.49322008866898</v>
       </c>
       <c r="U8" s="47">
         <f t="shared" si="1"/>
@@ -22323,7 +22323,7 @@
       </c>
       <c r="AD8" s="27">
         <f ca="1">MC_High_ambition!I20</f>
-        <v>34.368622297381471</v>
+        <v>35.089772009835713</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22409,7 +22409,7 @@
       </c>
       <c r="O10" s="50">
         <f ca="1">Dairy_Income_Roadmap!C56</f>
-        <v>324.38565051534323</v>
+        <v>371.03369353741954</v>
       </c>
       <c r="P10" s="50">
         <f>(F10*(Dairy_Income_Roadmap!C23+Dairy_Income_Baseline!B25)-F3*Dairy_Income_Baseline!B25)</f>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="T10" s="5">
         <f ca="1">F10*O10*I10</f>
-        <v>412.38003040529117</v>
+        <v>471.68204135808844</v>
       </c>
       <c r="U10" s="47">
         <f t="shared" ref="U10:W12" si="2">U6</f>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="O11" s="50">
         <f ca="1">Dairy_Income_Roadmap!E56</f>
-        <v>28.940565842065155</v>
+        <v>28.328280816691606</v>
       </c>
       <c r="P11" s="50">
         <f>(F11*(Dairy_Income_Roadmap!E23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -22535,7 +22535,7 @@
       </c>
       <c r="T11" s="5">
         <f ca="1">F11*O11*I11</f>
-        <v>208.35380527608527</v>
+        <v>203.94573959947309</v>
       </c>
       <c r="U11" s="47">
         <f t="shared" si="2"/>
@@ -22622,7 +22622,7 @@
       </c>
       <c r="O12" s="50">
         <f ca="1">Dairy_Income_Roadmap!G56</f>
-        <v>333.2591422727711</v>
+        <v>297.4963197909866</v>
       </c>
       <c r="P12" s="50">
         <f>(F12*(Dairy_Income_Roadmap!G23 + Dairy_Income_Baseline!D25)  -   F4*Dairy_Income_Baseline!D25)</f>
@@ -22642,7 +22642,7 @@
       </c>
       <c r="T12" s="5">
         <f ca="1">F12*O12*I12</f>
-        <v>510.75756504450652</v>
+        <v>455.94696928607283</v>
       </c>
       <c r="U12" s="47">
         <f t="shared" si="2"/>
@@ -22682,7 +22682,7 @@
       </c>
       <c r="AD12" s="27">
         <f ca="1">MC_Middle_road!I20</f>
-        <v>31.264728098364806</v>
+        <v>32.721808578639994</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22771,7 +22771,7 @@
       </c>
       <c r="O14" s="50">
         <f ca="1">Dairy_Income_Roadmap!C56</f>
-        <v>324.38565051534323</v>
+        <v>371.03369353741954</v>
       </c>
       <c r="P14" s="50">
         <f>(F14*(Dairy_Income_Roadmap!C23+ Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="T14" s="5">
         <f ca="1">F14*O14*I14</f>
-        <v>410.34415534409669</v>
+        <v>469.35339876142723</v>
       </c>
       <c r="U14" s="47">
         <f t="shared" ref="U14:U16" si="6">U10</f>
@@ -22877,7 +22877,7 @@
       </c>
       <c r="O15" s="50">
         <f ca="1">Dairy_Income_Roadmap!E56</f>
-        <v>28.940565842065155</v>
+        <v>28.328280816691606</v>
       </c>
       <c r="P15" s="50">
         <f>(F15*(Dairy_Income_Roadmap!E23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="T15" s="5">
         <f ca="1">F15*O15*I15</f>
-        <v>152.16849394715092</v>
+        <v>148.94912046682794</v>
       </c>
       <c r="U15" s="47">
         <f t="shared" si="6"/>
@@ -22984,7 +22984,7 @@
       </c>
       <c r="O16" s="50">
         <f ca="1">Dairy_Income_Roadmap!G56</f>
-        <v>333.2591422727711</v>
+        <v>297.4963197909866</v>
       </c>
       <c r="P16" s="50">
         <f>(F16*(Dairy_Income_Roadmap!G23 + Dairy_Income_Baseline!D25)  -   F4*Dairy_Income_Baseline!D25)</f>
@@ -23004,7 +23004,7 @@
       </c>
       <c r="T16" s="5">
         <f ca="1">F16*O16*I16</f>
-        <v>531.15381506902656</v>
+        <v>474.15444974242308</v>
       </c>
       <c r="U16" s="47">
         <f t="shared" si="6"/>
@@ -23044,7 +23044,7 @@
       </c>
       <c r="AD16" s="27">
         <f ca="1">MC_Status_quo!I20</f>
-        <v>16.525120179603821</v>
+        <v>16.396109928597127</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -23133,7 +23133,7 @@
       </c>
       <c r="O18" s="50">
         <f ca="1">Dairy_Income_Roadmap!C56</f>
-        <v>324.38565051534323</v>
+        <v>371.03369353741954</v>
       </c>
       <c r="P18" s="50">
         <f>(F18*(Dairy_Income_Roadmap!C23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -23153,7 +23153,7 @@
       </c>
       <c r="T18" s="5">
         <f ca="1">F18*O18*I18</f>
-        <v>524.64452509142791</v>
+        <v>600.09065021712661</v>
       </c>
       <c r="U18" s="47">
         <f t="shared" ref="U18:U20" si="9">U14</f>
@@ -23239,7 +23239,7 @@
       </c>
       <c r="O19" s="50">
         <f ca="1">Dairy_Income_Roadmap!E56</f>
-        <v>28.940565842065155</v>
+        <v>28.328280816691606</v>
       </c>
       <c r="P19" s="50">
         <f>(F19*(Dairy_Income_Roadmap!E23 + Dairy_Income_Baseline!B25)  -   F3*Dairy_Income_Baseline!B25)</f>
@@ -23259,7 +23259,7 @@
       </c>
       <c r="T19" s="5">
         <f ca="1">F19*O19*I19</f>
-        <v>219.14718132747333</v>
+        <v>214.51076411946553</v>
       </c>
       <c r="U19" s="47">
         <f t="shared" si="9"/>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="O20" s="50">
         <f ca="1">Dairy_Income_Roadmap!G56</f>
-        <v>333.2591422727711</v>
+        <v>297.4963197909866</v>
       </c>
       <c r="P20" s="50">
         <f>(F20*(Dairy_Income_Roadmap!G23+ Dairy_Income_Baseline!D25)  -   F4*Dairy_Income_Baseline!D25)</f>
@@ -23366,7 +23366,7 @@
       </c>
       <c r="T20" s="5">
         <f ca="1">F20*O20*I20</f>
-        <v>620.50241665785222</v>
+        <v>553.91484272030107</v>
       </c>
       <c r="U20" s="47">
         <f t="shared" si="9"/>
@@ -23406,7 +23406,7 @@
       </c>
       <c r="AD20" s="27">
         <f ca="1">MC_High_ambition_plus!I20</f>
-        <v>15.525724301021652</v>
+        <v>15.543663199372899</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -23987,11 +23987,11 @@
       </c>
       <c r="B4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N3,Mappings!O3)</f>
-        <v>-31.375255564227388</v>
+        <v>125.11987959225283</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N4,Mappings!O4)</f>
-        <v>729.05953474477099</v>
+        <v>506.74171396680936</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -24065,11 +24065,11 @@
       </c>
       <c r="B10" s="27">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L37))</f>
-        <v>72.303828229800104</v>
+        <v>16.335183712763481</v>
       </c>
       <c r="C10" s="27">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L39),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L39))</f>
-        <v>41.588379669242073</v>
+        <v>5.6336219725927599</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -24108,11 +24108,11 @@
       </c>
       <c r="B14" s="27">
         <f ca="1">B4*B6</f>
-        <v>-112.25438935769276</v>
+        <v>447.65390520516223</v>
       </c>
       <c r="C14" s="27">
         <f ca="1">C4*C6</f>
-        <v>960.23215833177449</v>
+        <v>667.42106306782921</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -24121,11 +24121,11 @@
       </c>
       <c r="B15" s="27">
         <f ca="1">IF(B9&gt;0,B8-B10,    B8 +B10)</f>
-        <v>3123.7597911533421</v>
+        <v>3179.728435670379</v>
       </c>
       <c r="C15" s="27">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>9963.7916392803145</v>
+        <v>9999.7463969769633</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -24134,11 +24134,11 @@
       </c>
       <c r="B16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>27472.301479376802</v>
+        <v>28076.873789255995</v>
       </c>
       <c r="C16" s="27">
         <f t="shared" ref="C16" ca="1" si="0">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>42577.305507241748</v>
+        <v>45500.402647197086</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -24151,16 +24151,16 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">(B14+B15)*B16</f>
-        <v>82732984.304901853</v>
+        <v>101845556.17013854</v>
       </c>
       <c r="C18" s="37">
         <f ca="1">(C14+C15)*C16</f>
-        <v>465115498.59930915</v>
+        <v>485360414.53711671</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="33">
         <f ca="1">B18+C18</f>
-        <v>547848482.90421104</v>
+        <v>587205970.70725524</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -24179,7 +24179,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="33">
         <f ca="1">STDEVA(E22:E129)</f>
-        <v>26172496.964118592</v>
+        <v>26454564.199788745</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="100" t="s">
@@ -24199,13 +24199,13 @@
       <c r="D20" s="36"/>
       <c r="E20" s="33">
         <f ca="1">AVERAGE(E22:E129)</f>
-        <v>564050563.42833662</v>
+        <v>565701931.52874434</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="100"/>
       <c r="H20" s="4">
         <f ca="1">100*E19/E20</f>
-        <v>4.6400976545507593</v>
+        <v>4.6764139779933815</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -24217,7 +24217,7 @@
       </c>
       <c r="E22">
         <f ca="1">E18</f>
-        <v>547848482.90421104</v>
+        <v>587205970.70725524</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -24227,7 +24227,7 @@
       </c>
       <c r="E23">
         <f t="dataTable" ref="E23:E129" dt2D="0" dtr="0" r1="E21" ca="1"/>
-        <v>536491092.55341405</v>
+        <v>551738226.84377432</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -24236,7 +24236,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>551090144.09941781</v>
+        <v>530948754.44901288</v>
       </c>
       <c r="H24" s="4"/>
     </row>
@@ -24245,7 +24245,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>553332438.00500214</v>
+        <v>539145224.10482621</v>
       </c>
       <c r="H25" s="4"/>
     </row>
@@ -24254,7 +24254,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>510973795.43497312</v>
+        <v>564520663.49231315</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -24263,7 +24263,7 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>521437431.46219206</v>
+        <v>580515326.37207735</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -24272,7 +24272,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>539012747.56438947</v>
+        <v>551540811.16080213</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -24281,7 +24281,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>560338384.02290869</v>
+        <v>555132663.80332875</v>
       </c>
       <c r="H29" s="4"/>
     </row>
@@ -24290,7 +24290,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>583156447.42442393</v>
+        <v>527212834.60494828</v>
       </c>
       <c r="H30" s="4"/>
     </row>
@@ -24299,7 +24299,7 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>596823229.02898145</v>
+        <v>568923473.38909578</v>
       </c>
       <c r="H31" s="4"/>
     </row>
@@ -24308,7 +24308,7 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>573505973.08422935</v>
+        <v>588399836.22749865</v>
       </c>
       <c r="H32" s="4"/>
     </row>
@@ -24317,7 +24317,7 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <v>553345316.12704921</v>
+        <v>575529735.4799664</v>
       </c>
       <c r="H33" s="4"/>
     </row>
@@ -24326,7 +24326,7 @@
         <v>13</v>
       </c>
       <c r="E34">
-        <v>554010395.42294896</v>
+        <v>538249614.48239791</v>
       </c>
       <c r="H34" s="4"/>
     </row>
@@ -24335,7 +24335,7 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>572519298.91815996</v>
+        <v>536638017.25617063</v>
       </c>
       <c r="H35" s="4"/>
     </row>
@@ -24344,7 +24344,7 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>536951420.96897435</v>
+        <v>605462638.94067872</v>
       </c>
       <c r="H36" s="4"/>
     </row>
@@ -24353,7 +24353,7 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>577925723.08183563</v>
+        <v>570089911.17229855</v>
       </c>
       <c r="H37" s="4"/>
     </row>
@@ -24362,7 +24362,7 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>561063588.88563108</v>
+        <v>551059716.13796937</v>
       </c>
       <c r="H38" s="4"/>
     </row>
@@ -24371,7 +24371,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>546784076.77958965</v>
+        <v>594889858.17117178</v>
       </c>
       <c r="H39" s="4"/>
     </row>
@@ -24380,7 +24380,7 @@
         <v>19</v>
       </c>
       <c r="E40">
-        <v>541983653.45359445</v>
+        <v>577235034.35137546</v>
       </c>
       <c r="H40" s="4"/>
     </row>
@@ -24389,7 +24389,7 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>581882999.78210402</v>
+        <v>544666685.42237961</v>
       </c>
       <c r="H41" s="4"/>
     </row>
@@ -24398,7 +24398,7 @@
         <v>21</v>
       </c>
       <c r="E42">
-        <v>606143973.64191484</v>
+        <v>565915183.89307714</v>
       </c>
       <c r="H42" s="4"/>
     </row>
@@ -24407,7 +24407,7 @@
         <v>22</v>
       </c>
       <c r="E43">
-        <v>576023150.35573375</v>
+        <v>567187691.33242607</v>
       </c>
       <c r="H43" s="4"/>
     </row>
@@ -24416,7 +24416,7 @@
         <v>23</v>
       </c>
       <c r="E44">
-        <v>576669737.40783441</v>
+        <v>592044065.16755331</v>
       </c>
       <c r="H44" s="4"/>
     </row>
@@ -24425,7 +24425,7 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <v>558946210.45433271</v>
+        <v>594284946.47018492</v>
       </c>
       <c r="H45" s="4"/>
     </row>
@@ -24434,7 +24434,7 @@
         <v>25</v>
       </c>
       <c r="E46">
-        <v>553199922.25139773</v>
+        <v>542147428.03082669</v>
       </c>
       <c r="H46" s="4"/>
     </row>
@@ -24443,7 +24443,7 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <v>541398638.35623097</v>
+        <v>523922261.980497</v>
       </c>
       <c r="H47" s="4"/>
     </row>
@@ -24452,7 +24452,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>575211480.1484524</v>
+        <v>569830413.88140881</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -24461,7 +24461,7 @@
         <v>28</v>
       </c>
       <c r="E49">
-        <v>538274866.37302029</v>
+        <v>596797916.5401057</v>
       </c>
       <c r="H49" s="4"/>
     </row>
@@ -24470,7 +24470,7 @@
         <v>29</v>
       </c>
       <c r="E50">
-        <v>552701890.16644692</v>
+        <v>576797912.27320862</v>
       </c>
       <c r="H50" s="4"/>
     </row>
@@ -24479,7 +24479,7 @@
         <v>30</v>
       </c>
       <c r="E51">
-        <v>580334658.81005955</v>
+        <v>535356371.4952606</v>
       </c>
       <c r="H51" s="4"/>
     </row>
@@ -24488,7 +24488,7 @@
         <v>31</v>
       </c>
       <c r="E52">
-        <v>568628250.45406127</v>
+        <v>576994850.49626601</v>
       </c>
       <c r="H52" s="4"/>
     </row>
@@ -24497,7 +24497,7 @@
         <v>32</v>
       </c>
       <c r="E53">
-        <v>599755674.22258687</v>
+        <v>547584977.31478667</v>
       </c>
       <c r="H53" s="4"/>
     </row>
@@ -24506,7 +24506,7 @@
         <v>33</v>
       </c>
       <c r="E54">
-        <v>608880324.39821863</v>
+        <v>592025236.15726089</v>
       </c>
       <c r="H54" s="4"/>
     </row>
@@ -24515,7 +24515,7 @@
         <v>34</v>
       </c>
       <c r="E55">
-        <v>553712922.20243573</v>
+        <v>581153136.22979593</v>
       </c>
       <c r="H55" s="4"/>
     </row>
@@ -24524,7 +24524,7 @@
         <v>35</v>
       </c>
       <c r="E56">
-        <v>582357368.23281503</v>
+        <v>567301517.88241065</v>
       </c>
       <c r="H56" s="4"/>
     </row>
@@ -24533,7 +24533,7 @@
         <v>36</v>
       </c>
       <c r="E57">
-        <v>578879689.84561062</v>
+        <v>528339529.2859062</v>
       </c>
       <c r="H57" s="4"/>
     </row>
@@ -24542,7 +24542,7 @@
         <v>37</v>
       </c>
       <c r="E58">
-        <v>540009454.29393077</v>
+        <v>579273804.14351785</v>
       </c>
       <c r="H58" s="4"/>
     </row>
@@ -24551,7 +24551,7 @@
         <v>38</v>
       </c>
       <c r="E59">
-        <v>540841077.87100828</v>
+        <v>563456840.72446334</v>
       </c>
       <c r="H59" s="4"/>
     </row>
@@ -24560,7 +24560,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>594477686.78384066</v>
+        <v>586117256.47040248</v>
       </c>
       <c r="H60" s="4"/>
     </row>
@@ -24569,7 +24569,7 @@
         <v>40</v>
       </c>
       <c r="E61">
-        <v>537553263.84534192</v>
+        <v>584501952.63882124</v>
       </c>
       <c r="H61" s="4"/>
     </row>
@@ -24578,7 +24578,7 @@
         <v>41</v>
       </c>
       <c r="E62">
-        <v>583267701.05726242</v>
+        <v>611269828.10869431</v>
       </c>
       <c r="H62" s="4"/>
     </row>
@@ -24587,7 +24587,7 @@
         <v>42</v>
       </c>
       <c r="E63">
-        <v>601417477.3391763</v>
+        <v>558882139.39510822</v>
       </c>
       <c r="H63" s="4"/>
     </row>
@@ -24596,7 +24596,7 @@
         <v>43</v>
       </c>
       <c r="E64">
-        <v>550613678.4429853</v>
+        <v>523303576.74629921</v>
       </c>
       <c r="H64" s="4"/>
     </row>
@@ -24605,7 +24605,7 @@
         <v>44</v>
       </c>
       <c r="E65">
-        <v>563505941.83040535</v>
+        <v>593055091.2278347</v>
       </c>
       <c r="H65" s="4"/>
     </row>
@@ -24614,7 +24614,7 @@
         <v>45</v>
       </c>
       <c r="E66">
-        <v>581889263.77846241</v>
+        <v>573313107.51843143</v>
       </c>
       <c r="H66" s="4"/>
     </row>
@@ -24623,7 +24623,7 @@
         <v>46</v>
       </c>
       <c r="E67">
-        <v>554636101.62759125</v>
+        <v>591242044.56254482</v>
       </c>
       <c r="H67" s="4"/>
     </row>
@@ -24632,7 +24632,7 @@
         <v>47</v>
       </c>
       <c r="E68">
-        <v>549707355.13268912</v>
+        <v>539741507.30857086</v>
       </c>
       <c r="H68" s="4"/>
     </row>
@@ -24641,7 +24641,7 @@
         <v>48</v>
       </c>
       <c r="E69">
-        <v>601984783.75417542</v>
+        <v>653342915.51787734</v>
       </c>
       <c r="H69" s="4"/>
     </row>
@@ -24650,7 +24650,7 @@
         <v>49</v>
       </c>
       <c r="E70">
-        <v>597308994.80161798</v>
+        <v>565251995.39930248</v>
       </c>
       <c r="H70" s="4"/>
     </row>
@@ -24659,7 +24659,7 @@
         <v>50</v>
       </c>
       <c r="E71">
-        <v>559444861.23996508</v>
+        <v>554955455.20376456</v>
       </c>
       <c r="H71" s="4"/>
     </row>
@@ -24668,7 +24668,7 @@
         <v>51</v>
       </c>
       <c r="E72">
-        <v>569035192.70096636</v>
+        <v>572013660.95874715</v>
       </c>
       <c r="H72" s="4"/>
     </row>
@@ -24677,7 +24677,7 @@
         <v>52</v>
       </c>
       <c r="E73">
-        <v>541289021.19913864</v>
+        <v>548298299.45086622</v>
       </c>
       <c r="H73" s="4"/>
     </row>
@@ -24686,7 +24686,7 @@
         <v>53</v>
       </c>
       <c r="E74">
-        <v>589344601.56573868</v>
+        <v>557587175.88409281</v>
       </c>
       <c r="H74" s="4"/>
     </row>
@@ -24695,7 +24695,7 @@
         <v>54</v>
       </c>
       <c r="E75">
-        <v>559004299.50316238</v>
+        <v>541815338.07578278</v>
       </c>
       <c r="H75" s="4"/>
     </row>
@@ -24704,7 +24704,7 @@
         <v>55</v>
       </c>
       <c r="E76">
-        <v>566372003.08445263</v>
+        <v>564573071.07784522</v>
       </c>
       <c r="H76" s="4"/>
     </row>
@@ -24713,7 +24713,7 @@
         <v>56</v>
       </c>
       <c r="E77">
-        <v>560417613.25969338</v>
+        <v>539195873.25420034</v>
       </c>
       <c r="H77" s="4"/>
     </row>
@@ -24722,7 +24722,7 @@
         <v>57</v>
       </c>
       <c r="E78">
-        <v>544859709.32258272</v>
+        <v>582422726.51889729</v>
       </c>
       <c r="H78" s="4"/>
     </row>
@@ -24731,7 +24731,7 @@
         <v>58</v>
       </c>
       <c r="E79">
-        <v>590985790.99261165</v>
+        <v>543331863.34480011</v>
       </c>
       <c r="H79" s="4"/>
     </row>
@@ -24740,7 +24740,7 @@
         <v>59</v>
       </c>
       <c r="E80">
-        <v>555527916.98846066</v>
+        <v>618437026.0726788</v>
       </c>
       <c r="H80" s="4"/>
     </row>
@@ -24749,7 +24749,7 @@
         <v>60</v>
       </c>
       <c r="E81">
-        <v>538331567.8238821</v>
+        <v>631434566.10016191</v>
       </c>
       <c r="H81" s="4"/>
     </row>
@@ -24758,7 +24758,7 @@
         <v>61</v>
       </c>
       <c r="E82">
-        <v>585037259.49522078</v>
+        <v>558765573.12960041</v>
       </c>
       <c r="H82" s="4"/>
     </row>
@@ -24767,7 +24767,7 @@
         <v>62</v>
       </c>
       <c r="E83">
-        <v>554659508.17341566</v>
+        <v>601280669.35745811</v>
       </c>
       <c r="H83" s="4"/>
     </row>
@@ -24776,7 +24776,7 @@
         <v>63</v>
       </c>
       <c r="E84">
-        <v>580545943.57036293</v>
+        <v>607155574.0415194</v>
       </c>
       <c r="H84" s="4"/>
     </row>
@@ -24785,7 +24785,7 @@
         <v>64</v>
       </c>
       <c r="E85">
-        <v>618993129.77840948</v>
+        <v>617749399.10695386</v>
       </c>
       <c r="H85" s="4"/>
     </row>
@@ -24794,7 +24794,7 @@
         <v>65</v>
       </c>
       <c r="E86">
-        <v>556084977.85873091</v>
+        <v>556675366.29137897</v>
       </c>
       <c r="H86" s="4"/>
     </row>
@@ -24803,7 +24803,7 @@
         <v>66</v>
       </c>
       <c r="E87">
-        <v>556265713.71403456</v>
+        <v>571566661.71891451</v>
       </c>
       <c r="H87" s="4"/>
     </row>
@@ -24812,7 +24812,7 @@
         <v>67</v>
       </c>
       <c r="E88">
-        <v>614170391.81121242</v>
+        <v>608228533.03499496</v>
       </c>
       <c r="H88" s="4"/>
     </row>
@@ -24821,7 +24821,7 @@
         <v>68</v>
       </c>
       <c r="E89">
-        <v>611835089.63141477</v>
+        <v>558876272.37296903</v>
       </c>
       <c r="H89" s="4"/>
     </row>
@@ -24830,7 +24830,7 @@
         <v>69</v>
       </c>
       <c r="E90">
-        <v>540838568.43571174</v>
+        <v>600537953.01998711</v>
       </c>
       <c r="H90" s="4"/>
     </row>
@@ -24839,7 +24839,7 @@
         <v>70</v>
       </c>
       <c r="E91">
-        <v>571175051.11202633</v>
+        <v>592726212.18712068</v>
       </c>
       <c r="H91" s="4"/>
     </row>
@@ -24848,7 +24848,7 @@
         <v>71</v>
       </c>
       <c r="E92">
-        <v>580007300.37422669</v>
+        <v>573647141.70461965</v>
       </c>
       <c r="H92" s="4"/>
     </row>
@@ -24857,7 +24857,7 @@
         <v>72</v>
       </c>
       <c r="E93">
-        <v>562981522.94147563</v>
+        <v>529853157.55036223</v>
       </c>
       <c r="H93" s="4"/>
     </row>
@@ -24866,7 +24866,7 @@
         <v>73</v>
       </c>
       <c r="E94">
-        <v>552852320.91684294</v>
+        <v>572165557.040483</v>
       </c>
       <c r="H94" s="4"/>
     </row>
@@ -24875,7 +24875,7 @@
         <v>74</v>
       </c>
       <c r="E95">
-        <v>518794841.13568521</v>
+        <v>500383728.88827276</v>
       </c>
       <c r="H95" s="4"/>
     </row>
@@ -24884,7 +24884,7 @@
         <v>75</v>
       </c>
       <c r="E96">
-        <v>562006424.48705244</v>
+        <v>555195676.08987463</v>
       </c>
       <c r="H96" s="4"/>
     </row>
@@ -24893,7 +24893,7 @@
         <v>76</v>
       </c>
       <c r="E97">
-        <v>587784361.81819034</v>
+        <v>570879234.93145967</v>
       </c>
       <c r="H97" s="4"/>
     </row>
@@ -24902,7 +24902,7 @@
         <v>77</v>
       </c>
       <c r="E98">
-        <v>609520899.10015583</v>
+        <v>579725432.20424867</v>
       </c>
       <c r="H98" s="4"/>
     </row>
@@ -24911,7 +24911,7 @@
         <v>78</v>
       </c>
       <c r="E99">
-        <v>578514130.49143982</v>
+        <v>571928837.60303724</v>
       </c>
       <c r="H99" s="4"/>
     </row>
@@ -24920,7 +24920,7 @@
         <v>79</v>
       </c>
       <c r="E100">
-        <v>618711493.7475605</v>
+        <v>553994637.81005943</v>
       </c>
       <c r="H100" s="4"/>
     </row>
@@ -24929,7 +24929,7 @@
         <v>80</v>
       </c>
       <c r="E101">
-        <v>589887756.92448103</v>
+        <v>552051775.64051497</v>
       </c>
       <c r="H101" s="4"/>
     </row>
@@ -24938,7 +24938,7 @@
         <v>81</v>
       </c>
       <c r="E102">
-        <v>560966132.33568513</v>
+        <v>563697993.32142544</v>
       </c>
       <c r="H102" s="4"/>
     </row>
@@ -24947,7 +24947,7 @@
         <v>82</v>
       </c>
       <c r="E103">
-        <v>598899829.50270832</v>
+        <v>540542870.62738216</v>
       </c>
       <c r="H103" s="4"/>
     </row>
@@ -24956,7 +24956,7 @@
         <v>83</v>
       </c>
       <c r="E104">
-        <v>549567593.31389749</v>
+        <v>567828083.04651356</v>
       </c>
       <c r="H104" s="4"/>
     </row>
@@ -24965,7 +24965,7 @@
         <v>84</v>
       </c>
       <c r="E105">
-        <v>529690781.47942173</v>
+        <v>514504631.7016176</v>
       </c>
       <c r="H105" s="4"/>
     </row>
@@ -24974,7 +24974,7 @@
         <v>85</v>
       </c>
       <c r="E106">
-        <v>544905959.36505222</v>
+        <v>567998521.61362565</v>
       </c>
       <c r="H106" s="4"/>
     </row>
@@ -24983,7 +24983,7 @@
         <v>86</v>
       </c>
       <c r="E107">
-        <v>517352317.00798893</v>
+        <v>542536798.1623944</v>
       </c>
       <c r="H107" s="4"/>
     </row>
@@ -24992,7 +24992,7 @@
         <v>87</v>
       </c>
       <c r="E108">
-        <v>538587402.64506459</v>
+        <v>567267130.33674574</v>
       </c>
       <c r="H108" s="4"/>
     </row>
@@ -25001,7 +25001,7 @@
         <v>88</v>
       </c>
       <c r="E109">
-        <v>527648556.41069746</v>
+        <v>583862545.13128257</v>
       </c>
       <c r="H109" s="4"/>
     </row>
@@ -25010,7 +25010,7 @@
         <v>89</v>
       </c>
       <c r="E110">
-        <v>517190091.56463611</v>
+        <v>537303320.87642407</v>
       </c>
       <c r="H110" s="4"/>
     </row>
@@ -25019,7 +25019,7 @@
         <v>90</v>
       </c>
       <c r="E111">
-        <v>502520881.55725062</v>
+        <v>584479092.00290012</v>
       </c>
       <c r="H111" s="4"/>
     </row>
@@ -25028,7 +25028,7 @@
         <v>91</v>
       </c>
       <c r="E112">
-        <v>594108236.92478228</v>
+        <v>559014956.87850559</v>
       </c>
       <c r="H112" s="4"/>
     </row>
@@ -25037,7 +25037,7 @@
         <v>92</v>
       </c>
       <c r="E113">
-        <v>543509883.22708547</v>
+        <v>561794413.57880831</v>
       </c>
       <c r="H113" s="4"/>
     </row>
@@ -25046,7 +25046,7 @@
         <v>93</v>
       </c>
       <c r="E114">
-        <v>546420165.07062292</v>
+        <v>525083240.06838113</v>
       </c>
       <c r="H114" s="4"/>
     </row>
@@ -25055,7 +25055,7 @@
         <v>94</v>
       </c>
       <c r="E115">
-        <v>585530519.65017307</v>
+        <v>543956975.42519939</v>
       </c>
       <c r="H115" s="4"/>
     </row>
@@ -25064,7 +25064,7 @@
         <v>95</v>
       </c>
       <c r="E116">
-        <v>533719305.62319219</v>
+        <v>542955011.92626107</v>
       </c>
       <c r="H116" s="4"/>
     </row>
@@ -25073,7 +25073,7 @@
         <v>96</v>
       </c>
       <c r="E117">
-        <v>568443129.06708765</v>
+        <v>591893789.45863688</v>
       </c>
       <c r="H117" s="4"/>
     </row>
@@ -25082,7 +25082,7 @@
         <v>97</v>
       </c>
       <c r="E118">
-        <v>554788934.07350993</v>
+        <v>537656468.66447628</v>
       </c>
       <c r="H118" s="4"/>
     </row>
@@ -25091,7 +25091,7 @@
         <v>98</v>
       </c>
       <c r="E119">
-        <v>597928836.49293196</v>
+        <v>561180235.27909863</v>
       </c>
       <c r="H119" s="4"/>
     </row>
@@ -25100,7 +25100,7 @@
         <v>99</v>
       </c>
       <c r="E120">
-        <v>525452988.55034739</v>
+        <v>584702904.69427943</v>
       </c>
       <c r="H120" s="4"/>
     </row>
@@ -25109,7 +25109,7 @@
         <v>100</v>
       </c>
       <c r="E121">
-        <v>603066207.69115174</v>
+        <v>537688609.92997622</v>
       </c>
       <c r="H121" s="4"/>
     </row>
@@ -25118,7 +25118,7 @@
         <v>101</v>
       </c>
       <c r="E122">
-        <v>516203967.92818278</v>
+        <v>540258814.37844872</v>
       </c>
       <c r="H122" s="4"/>
     </row>
@@ -25127,7 +25127,7 @@
         <v>102</v>
       </c>
       <c r="E123">
-        <v>588281789.08633232</v>
+        <v>555885816.03966331</v>
       </c>
       <c r="H123" s="4"/>
     </row>
@@ -25136,7 +25136,7 @@
         <v>103</v>
       </c>
       <c r="E124">
-        <v>526272977.80816048</v>
+        <v>552887572.92665851</v>
       </c>
       <c r="H124" s="4"/>
     </row>
@@ -25145,7 +25145,7 @@
         <v>104</v>
       </c>
       <c r="E125">
-        <v>581869769.87051237</v>
+        <v>557331342.38243246</v>
       </c>
       <c r="H125" s="4"/>
     </row>
@@ -25154,7 +25154,7 @@
         <v>105</v>
       </c>
       <c r="E126">
-        <v>565603452.82263803</v>
+        <v>580352141.75537539</v>
       </c>
       <c r="H126" s="4"/>
     </row>
@@ -25163,7 +25163,7 @@
         <v>106</v>
       </c>
       <c r="E127">
-        <v>590884890.78330052</v>
+        <v>596426278.52899265</v>
       </c>
       <c r="H127" s="4"/>
     </row>
@@ -25172,7 +25172,7 @@
         <v>107</v>
       </c>
       <c r="E128">
-        <v>571358954.41309929</v>
+        <v>511801716.10039443</v>
       </c>
       <c r="H128" s="4"/>
     </row>
@@ -25181,7 +25181,7 @@
         <v>108</v>
       </c>
       <c r="E129">
-        <v>562599855.91282701</v>
+        <v>577924385.8406285</v>
       </c>
       <c r="H129" s="4"/>
     </row>
@@ -25259,15 +25259,15 @@
       </c>
       <c r="B4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N14,Mappings!O14)</f>
-        <v>1486.9006545105726</v>
+        <v>1281.451966752205</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N15,Mappings!O15)</f>
-        <v>250.46786230099852</v>
+        <v>260.29347480215216</v>
       </c>
       <c r="D4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N16,Mappings!O16)</f>
-        <v>2023.1343005482122</v>
+        <v>1944.721534295282</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -25379,15 +25379,15 @@
       </c>
       <c r="B10" s="27">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L37))</f>
-        <v>-139.43721281524159</v>
+        <v>338.39205597199202</v>
       </c>
       <c r="C10" s="27">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L37))</f>
-        <v>15.863292570935963</v>
+        <v>15.093917451072736</v>
       </c>
       <c r="D10" s="27">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L39),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L39))</f>
-        <v>479.06524994799736</v>
+        <v>420.00682524514411</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
@@ -25446,15 +25446,15 @@
       </c>
       <c r="B14" s="27">
         <f ca="1">B4*B6</f>
-        <v>1880.9124022175768</v>
+        <v>1621.0221508737588</v>
       </c>
       <c r="C14" s="27">
         <f ca="1">C4*C6</f>
-        <v>1316.9513545967909</v>
+        <v>1368.6140851932898</v>
       </c>
       <c r="D14" s="27">
         <f ca="1">D4*D6</f>
-        <v>3224.5041945575131</v>
+        <v>3099.528658518745</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -25466,15 +25466,15 @@
       </c>
       <c r="B15" s="27">
         <f ca="1">B8-IF(B9&gt;0,B8-B10,B8+B10)</f>
-        <v>-139.43721281524176</v>
+        <v>338.39205597199179</v>
       </c>
       <c r="C15" s="27">
         <f t="shared" ref="C15:D15" ca="1" si="0">C8-IF(C9&gt;0,C8-C10,C8+C10)</f>
-        <v>-15.863292570935755</v>
+        <v>-15.093917451072684</v>
       </c>
       <c r="D15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>479.06524994799656</v>
+        <v>420.00682524514377</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -25486,15 +25486,15 @@
       </c>
       <c r="B16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>804.84920904876208</v>
+        <v>806.36098645280822</v>
       </c>
       <c r="C16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>25827.194849816096</v>
+        <v>26768.483504892229</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" ref="D16" ca="1" si="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>45002.946156735707</v>
+        <v>42580.075694163905</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -25513,20 +25513,20 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">(B14+B15)*B16</f>
-        <v>1401624.9287685126</v>
+        <v>1579995.1727017863</v>
       </c>
       <c r="C18" s="37">
         <f ca="1">(C14+C15)*C16</f>
-        <v>33603454.894711375</v>
+        <v>36231682.283746503</v>
       </c>
       <c r="D18" s="37">
         <f ca="1">(D14+D15)*D16</f>
-        <v>166671536.29881302</v>
+        <v>149862087.30696216</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27">
         <f ca="1">B18+C18+D18</f>
-        <v>201676616.12229291</v>
+        <v>187673764.76341045</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -25546,7 +25546,7 @@
       <c r="E19" s="27"/>
       <c r="F19" s="27">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>26233978.615288999</v>
+        <v>26166011.274413954</v>
       </c>
       <c r="H19" s="100" t="s">
         <v>49</v>
@@ -25569,13 +25569,13 @@
       <c r="E20" s="27"/>
       <c r="F20" s="27">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>158752119.98559842</v>
+        <v>159586703.11655292</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="100"/>
       <c r="I20" s="4">
         <f ca="1">100*F19/F20</f>
-        <v>16.525120179603821</v>
+        <v>16.396109928597127</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -25596,7 +25596,7 @@
       </c>
       <c r="F22" s="27">
         <f ca="1">F18</f>
-        <v>201676616.12229291</v>
+        <v>187673764.76341045</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -25610,7 +25610,7 @@
       </c>
       <c r="F23" s="27">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>157415804.72789517</v>
+        <v>174490776.37833142</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -25623,7 +25623,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="27">
-        <v>163618204.97361892</v>
+        <v>125260926.73042202</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -25636,7 +25636,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="27">
-        <v>152376947.64382792</v>
+        <v>169561787.99987563</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -25649,7 +25649,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="27">
-        <v>155208429.19624433</v>
+        <v>192240615.87286884</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -25662,7 +25662,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="27">
-        <v>158376283.41582322</v>
+        <v>188463816.44682479</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -25675,7 +25675,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="27">
-        <v>166940659.44467905</v>
+        <v>153895333.97340143</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -25688,7 +25688,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="27">
-        <v>204524211.25999221</v>
+        <v>135539201.60289857</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -25701,7 +25701,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="27">
-        <v>128535106.47140872</v>
+        <v>150454176.08831954</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -25714,7 +25714,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="27">
-        <v>154238819.87843663</v>
+        <v>175679485.37368268</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -25727,7 +25727,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="27">
-        <v>155755083.33444053</v>
+        <v>198752162.35378629</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -25740,7 +25740,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="27">
-        <v>185064351.86047494</v>
+        <v>111184531.49851815</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -25753,7 +25753,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="27">
-        <v>163638045.3961091</v>
+        <v>130396771.67746484</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -25766,7 +25766,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="27">
-        <v>165616155.70755312</v>
+        <v>136350495.4188436</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -25779,7 +25779,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="27">
-        <v>127281927.67146361</v>
+        <v>149925221.29581958</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -25792,7 +25792,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="27">
-        <v>146404636.78880048</v>
+        <v>173512736.63723969</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -25805,7 +25805,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="27">
-        <v>160998848.87493825</v>
+        <v>180327581.11720651</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -25818,7 +25818,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="27">
-        <v>119685889.61777423</v>
+        <v>151656492.15518114</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -25831,7 +25831,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="27">
-        <v>197077431.07363376</v>
+        <v>169177560.75049305</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -25844,7 +25844,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="27">
-        <v>175019618.09824756</v>
+        <v>124479277.87766227</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -25857,7 +25857,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="27">
-        <v>158073922.36155108</v>
+        <v>158199093.7841942</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -25870,7 +25870,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="27">
-        <v>155274647.79267028</v>
+        <v>187018273.3306661</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -25883,7 +25883,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="27">
-        <v>188806586.13004583</v>
+        <v>152575018.13766035</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -25896,7 +25896,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="27">
-        <v>150117551.44692892</v>
+        <v>157515207.82452351</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -25909,7 +25909,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="27">
-        <v>135972962.51612571</v>
+        <v>149812462.85703957</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -25922,7 +25922,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="27">
-        <v>221125869.67800766</v>
+        <v>139640698.87693676</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -25935,7 +25935,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="27">
-        <v>202131133.91871268</v>
+        <v>130865156.07210267</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -25948,7 +25948,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="27">
-        <v>146483950.04549247</v>
+        <v>148784269.63714942</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -25961,7 +25961,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="27">
-        <v>215627297.36202735</v>
+        <v>179037468.25238794</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -25974,7 +25974,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="27">
-        <v>147865258.45646706</v>
+        <v>194335621.81117457</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -25987,7 +25987,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="27">
-        <v>157333359.3719815</v>
+        <v>138700143.42412007</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -26000,7 +26000,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="27">
-        <v>140517252.6905081</v>
+        <v>161028271.68798473</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -26013,7 +26013,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="27">
-        <v>159013464.87993908</v>
+        <v>96656752.125074729</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -26026,7 +26026,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="27">
-        <v>155675356.22815746</v>
+        <v>208371044.86361274</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -26039,7 +26039,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="27">
-        <v>181780696.91804057</v>
+        <v>176594202.89563224</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -26052,7 +26052,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="27">
-        <v>148310206.92512751</v>
+        <v>118238407.8146573</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -26065,7 +26065,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="27">
-        <v>171224310.10220978</v>
+        <v>152780817.50153837</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -26078,7 +26078,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="27">
-        <v>173358753.7293981</v>
+        <v>162204943.27760252</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -26091,7 +26091,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="27">
-        <v>141864153.16740727</v>
+        <v>154031583.08100358</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -26104,7 +26104,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="27">
-        <v>143592463.59328297</v>
+        <v>120321400.5792492</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -26117,7 +26117,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="27">
-        <v>131360340.05981714</v>
+        <v>161616053.64609727</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -26130,7 +26130,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="27">
-        <v>229675428.66960269</v>
+        <v>124518798.10596101</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -26143,7 +26143,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="27">
-        <v>120894552.48360734</v>
+        <v>199708317.60467011</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -26156,7 +26156,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="27">
-        <v>170281747.24361825</v>
+        <v>107890782.9413487</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -26169,7 +26169,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="27">
-        <v>190432150.97204643</v>
+        <v>212041600.94643024</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -26182,7 +26182,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="27">
-        <v>124278241.89784467</v>
+        <v>163925839.37405762</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -26195,7 +26195,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="27">
-        <v>177575661.89481026</v>
+        <v>111663759.88989143</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -26208,7 +26208,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="27">
-        <v>141126913.15314272</v>
+        <v>172853548.18606615</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -26221,7 +26221,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="27">
-        <v>149566338.15905207</v>
+        <v>188852502.83944482</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -26234,7 +26234,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="27">
-        <v>198196158.32521796</v>
+        <v>167061685.6742205</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -26247,7 +26247,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="27">
-        <v>161527297.29968297</v>
+        <v>137642661.2081039</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -26260,7 +26260,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="27">
-        <v>193045047.96802068</v>
+        <v>142660805.65222752</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -26273,7 +26273,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="27">
-        <v>168361340.36535856</v>
+        <v>158716190.0510748</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -26286,7 +26286,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="27">
-        <v>125550605.57654095</v>
+        <v>128719559.85338762</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -26299,7 +26299,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="27">
-        <v>156069869.45832968</v>
+        <v>161349143.35771757</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -26312,7 +26312,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="27">
-        <v>129269904.93614234</v>
+        <v>132716251.20893727</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -26325,7 +26325,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="27">
-        <v>151305976.64146334</v>
+        <v>162890009.65134281</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -26338,7 +26338,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="27">
-        <v>108377725.04064566</v>
+        <v>132968688.16181219</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -26351,7 +26351,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="27">
-        <v>140186495.4399932</v>
+        <v>184331557.69854751</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -26364,7 +26364,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="27">
-        <v>138215572.18707973</v>
+        <v>191644779.48397577</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -26377,7 +26377,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="27">
-        <v>155116013.48348004</v>
+        <v>131914546.15196174</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -26390,7 +26390,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="27">
-        <v>172446450.18577451</v>
+        <v>168173841.38439429</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -26403,7 +26403,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="27">
-        <v>171154757.44297776</v>
+        <v>141361126.15286443</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -26416,7 +26416,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="27">
-        <v>157590643.54108846</v>
+        <v>138971817.44397569</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -26429,7 +26429,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="27">
-        <v>151410031.41091335</v>
+        <v>189186249.17905033</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -26442,7 +26442,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="27">
-        <v>163893780.40482795</v>
+        <v>185443157.16434807</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -26455,7 +26455,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="27">
-        <v>179904517.74638158</v>
+        <v>127247649.4478548</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -26468,7 +26468,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="27">
-        <v>148080181.29243493</v>
+        <v>163590519.57777268</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -26481,7 +26481,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="27">
-        <v>167123336.23202547</v>
+        <v>180100339.26855537</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -26494,7 +26494,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="27">
-        <v>123106046.06172076</v>
+        <v>149628217.23119313</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -26507,7 +26507,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="27">
-        <v>161569910.81723344</v>
+        <v>129713552.83841364</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -26520,7 +26520,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="27">
-        <v>149659398.51956743</v>
+        <v>168216242.51328206</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -26533,7 +26533,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="27">
-        <v>130032292.31941663</v>
+        <v>108590024.87290803</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -26546,7 +26546,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="27">
-        <v>121426704.45993504</v>
+        <v>198843486.02576086</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -26559,7 +26559,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="27">
-        <v>143851898.29428959</v>
+        <v>177622993.06316942</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -26572,7 +26572,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="27">
-        <v>135269427.34165138</v>
+        <v>151727838.16458234</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -26585,7 +26585,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="27">
-        <v>146530439.44945335</v>
+        <v>166489300.57031167</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -26598,7 +26598,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="27">
-        <v>120424894.56058332</v>
+        <v>153523301.81676269</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -26611,7 +26611,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="27">
-        <v>180253063.30597907</v>
+        <v>151571424.00518486</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -26624,7 +26624,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="27">
-        <v>147335889.22052941</v>
+        <v>122559394.99651742</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -26637,7 +26637,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="27">
-        <v>154553144.54383162</v>
+        <v>208845330.13720143</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -26650,7 +26650,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="27">
-        <v>168917141.06315845</v>
+        <v>204072301.57542652</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -26663,7 +26663,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="27">
-        <v>169938396.49492127</v>
+        <v>191436511.85555002</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -26676,7 +26676,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="27">
-        <v>169648783.81159359</v>
+        <v>149957047.07447073</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -26689,7 +26689,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="27">
-        <v>154980162.36837095</v>
+        <v>154519697.74884731</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -26702,7 +26702,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="27">
-        <v>139572114.44477642</v>
+        <v>143264492.43913189</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -26715,7 +26715,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="27">
-        <v>174659781.33690494</v>
+        <v>201050181.94510639</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -26728,7 +26728,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="27">
-        <v>237610306.96115249</v>
+        <v>143817918.60922897</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -26741,7 +26741,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="27">
-        <v>173749099.20602044</v>
+        <v>175562254.83137614</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -26754,7 +26754,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="27">
-        <v>108043110.29423587</v>
+        <v>189829157.80809826</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -26767,7 +26767,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="27">
-        <v>122921778.39561264</v>
+        <v>173399201.9290354</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -26780,7 +26780,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="27">
-        <v>150276797.98416406</v>
+        <v>204297122.6942797</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -26793,7 +26793,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="27">
-        <v>115571611.90711908</v>
+        <v>152932950.80853295</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -26806,7 +26806,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="27">
-        <v>196246971.23669857</v>
+        <v>143550634.29961544</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -26819,7 +26819,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="27">
-        <v>139769069.03123289</v>
+        <v>132446076.17047089</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -26832,7 +26832,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="27">
-        <v>115416610.01198688</v>
+        <v>168478580.42664933</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -26845,7 +26845,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="27">
-        <v>173430830.34899846</v>
+        <v>167394747.25802144</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -26858,7 +26858,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="27">
-        <v>182594345.9121334</v>
+        <v>168380524.31359732</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -26871,7 +26871,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="27">
-        <v>135270792.60395491</v>
+        <v>168446917.06915024</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -26884,7 +26884,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="27">
-        <v>152908570.50819924</v>
+        <v>146477023.17885977</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -26897,7 +26897,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="27">
-        <v>152334286.25647801</v>
+        <v>166388073.00556156</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -26910,7 +26910,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="27">
-        <v>196337242.04306248</v>
+        <v>147474329.52587768</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -26923,7 +26923,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="27">
-        <v>157914561.60344476</v>
+        <v>182235815.01204827</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -26936,7 +26936,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="27">
-        <v>213169324.16553077</v>
+        <v>160591372.01829195</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -26949,7 +26949,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="27">
-        <v>169535111.10434717</v>
+        <v>221156385.813676</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -26962,7 +26962,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="27">
-        <v>148075574.54973656</v>
+        <v>177299758.16935551</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -26975,7 +26975,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="27">
-        <v>123789631.88488057</v>
+        <v>139858213.46344423</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -26988,7 +26988,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="27">
-        <v>182914495.63807037</v>
+        <v>138220206.15606859</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -27066,15 +27066,15 @@
       </c>
       <c r="B4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N10,Mappings!O10)</f>
-        <v>1069.0758065574194</v>
+        <v>1754.0237147533244</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N11,Mappings!O11)</f>
-        <v>246.17522878263085</v>
+        <v>226.62171713911525</v>
       </c>
       <c r="D4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N12,Mappings!O12)</f>
-        <v>1846.5828591811749</v>
+        <v>1676.2179543884142</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -27102,15 +27102,15 @@
       </c>
       <c r="B6" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.5078049998547771</v>
+        <v>0.83089125612261383</v>
       </c>
       <c r="C6" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>5.7394441797382418</v>
+        <v>7.3103003674001146</v>
       </c>
       <c r="D6" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>0.39854951136017247</v>
+        <v>2.0208044482150149</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -27174,15 +27174,15 @@
       </c>
       <c r="B10" s="27">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L37))</f>
-        <v>97.193579586420057</v>
+        <v>304.3353786100061</v>
       </c>
       <c r="C10" s="27">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L37))</f>
-        <v>10.895324644205516</v>
+        <v>21.539868045767193</v>
       </c>
       <c r="D10" s="27">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L39),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L39))</f>
-        <v>155.87615088527701</v>
+        <v>571.10948284258416</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -27233,15 +27233,15 @@
       </c>
       <c r="B14" s="27">
         <f ca="1">B4*B6</f>
-        <v>1611.9578463510554</v>
+        <v>1457.4029676202431</v>
       </c>
       <c r="C14" s="27">
         <f ca="1">C4*C6</f>
-        <v>1412.9089840322008</v>
+        <v>1656.6728220629191</v>
       </c>
       <c r="D14" s="27">
         <f ca="1">D4*D6</f>
-        <v>735.95469621272741</v>
+        <v>3387.3086984059805</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -27251,15 +27251,15 @@
       </c>
       <c r="B15" s="27">
         <f ca="1">B8-IF(B9&gt;0,B8-B10,B8+B10)</f>
-        <v>97.193579586420128</v>
+        <v>304.33537861000605</v>
       </c>
       <c r="C15" s="27">
         <f t="shared" ref="C15:D15" ca="1" si="0">C8-IF(C9&gt;0,C8-C10,C8+C10)</f>
-        <v>-10.89532464420563</v>
+        <v>-21.53986804576698</v>
       </c>
       <c r="D15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>155.87615088527673</v>
+        <v>571.10948284258484</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -27269,15 +27269,15 @@
       </c>
       <c r="B16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>3328.5299295541708</v>
+        <v>3198.0652129153464</v>
       </c>
       <c r="C16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>24282.19123651597</v>
+        <v>23525.046020409631</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" ref="D16" ca="1" si="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>43571.853013088774</v>
+        <v>42792.139867633341</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -27292,19 +27292,19 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">(B14+B15)*B16</f>
-        <v>5688961.6753730765</v>
+        <v>5634154.1193379723</v>
       </c>
       <c r="C18" s="37">
         <f ca="1">(C14+C15)*C16</f>
-        <v>34043963.793466859</v>
+        <v>38466577.992741846</v>
       </c>
       <c r="D18" s="37">
         <f ca="1">(D14+D15)*D16</f>
-        <v>38858722.582292683</v>
+        <v>169389184.46657139</v>
       </c>
       <c r="F18" s="27">
         <f ca="1">B18+C18+D18</f>
-        <v>78591648.051132619</v>
+        <v>213489916.57865119</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -27323,7 +27323,7 @@
       </c>
       <c r="F19" s="27">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>51444864.228667237</v>
+        <v>53476402.230108611</v>
       </c>
       <c r="H19" s="100" t="s">
         <v>49</v>
@@ -27346,13 +27346,13 @@
       <c r="E20" s="4"/>
       <c r="F20" s="27">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>164546015.1350489</v>
+        <v>163427403.78053772</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="100"/>
       <c r="I20" s="4">
         <f ca="1">100*F19/F20</f>
-        <v>31.264728098364806</v>
+        <v>32.721808578639994</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -27367,7 +27367,7 @@
       </c>
       <c r="F22" s="27">
         <f ca="1">F18</f>
-        <v>78591648.051132619</v>
+        <v>213489916.57865119</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -27378,7 +27378,7 @@
       </c>
       <c r="F23" s="27">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>229322027.42857909</v>
+        <v>200433936.47998026</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -27388,7 +27388,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="27">
-        <v>80970798.213595048</v>
+        <v>195650310.3850683</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -27398,7 +27398,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="27">
-        <v>148791176.67987609</v>
+        <v>207169223.67486662</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -27408,7 +27408,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="27">
-        <v>144750534.97585022</v>
+        <v>167387138.11369982</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -27418,7 +27418,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="27">
-        <v>198638006.06173903</v>
+        <v>181897209.92276496</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -27428,7 +27428,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="27">
-        <v>200381852.2910943</v>
+        <v>134190644.52880259</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -27438,7 +27438,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="27">
-        <v>137905820.452764</v>
+        <v>210668423.19734728</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -27448,7 +27448,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="27">
-        <v>216759777.53771555</v>
+        <v>48014477.134570368</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -27458,7 +27458,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="27">
-        <v>164802102.89927936</v>
+        <v>248024896.14101142</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -27468,7 +27468,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="27">
-        <v>106292490.92847404</v>
+        <v>110224287.52902552</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -27478,7 +27478,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="27">
-        <v>188317222.25903776</v>
+        <v>161827202.89380959</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -27488,7 +27488,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="27">
-        <v>152754640.40571088</v>
+        <v>202753060.73410332</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -27498,7 +27498,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="27">
-        <v>145390543.40754521</v>
+        <v>158435713.90391088</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -27508,7 +27508,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="27">
-        <v>205608463.11303753</v>
+        <v>124802252.86608535</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -27518,7 +27518,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="27">
-        <v>96695679.844903156</v>
+        <v>73004810.72388123</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -27528,7 +27528,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="27">
-        <v>277665551.870983</v>
+        <v>212859002.35781169</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -27538,7 +27538,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="27">
-        <v>158393364.18242329</v>
+        <v>116964676.55653274</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -27548,7 +27548,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="27">
-        <v>147589149.55244952</v>
+        <v>155429134.09587753</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -27558,7 +27558,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="27">
-        <v>135545996.05109355</v>
+        <v>169500996.89664698</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -27568,7 +27568,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="27">
-        <v>69898035.928422675</v>
+        <v>82260583.763956174</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -27578,7 +27578,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="27">
-        <v>244354097.73197159</v>
+        <v>106038456.65501437</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -27588,7 +27588,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="27">
-        <v>254323523.23649472</v>
+        <v>126367130.60869895</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -27598,7 +27598,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="27">
-        <v>141125270.03999102</v>
+        <v>129531857.04657872</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -27608,7 +27608,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="27">
-        <v>168452782.55097681</v>
+        <v>154973803.20835203</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -27618,7 +27618,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="27">
-        <v>242561735.3989895</v>
+        <v>108784513.38917482</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -27628,7 +27628,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="27">
-        <v>171056993.21567997</v>
+        <v>267365449.3868061</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -27638,7 +27638,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="27">
-        <v>89167096.373352528</v>
+        <v>256162779.6928387</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -27648,7 +27648,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="27">
-        <v>236600369.46691307</v>
+        <v>203656524.13546056</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -27658,7 +27658,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="27">
-        <v>162793589.35569912</v>
+        <v>94569274.416233808</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -27668,7 +27668,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="27">
-        <v>96941736.04285942</v>
+        <v>178521989.75853881</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -27678,7 +27678,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="27">
-        <v>90641930.640152395</v>
+        <v>153623872.91424641</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -27688,7 +27688,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="27">
-        <v>111716441.13525119</v>
+        <v>188413888.06682512</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -27698,7 +27698,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="27">
-        <v>209880989.59291723</v>
+        <v>131245430.84344836</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -27708,7 +27708,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="27">
-        <v>198522267.08793265</v>
+        <v>212203509.61394322</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -27718,7 +27718,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="27">
-        <v>165181007.71261066</v>
+        <v>219009584.00372821</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -27728,7 +27728,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="27">
-        <v>171292390.05694789</v>
+        <v>210032173.26003158</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -27738,7 +27738,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="27">
-        <v>87936610.400638506</v>
+        <v>152173009.30357623</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -27748,7 +27748,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="27">
-        <v>126216776.55164342</v>
+        <v>134985018.31585163</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -27758,7 +27758,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="27">
-        <v>138142043.24040347</v>
+        <v>110259179.01343003</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -27768,7 +27768,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="27">
-        <v>191193795.38802698</v>
+        <v>146174007.29766873</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -27778,7 +27778,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="27">
-        <v>152669989.44380242</v>
+        <v>119789673.00307098</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -27788,7 +27788,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="27">
-        <v>118525135.86850202</v>
+        <v>84211623.020638227</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -27798,7 +27798,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="27">
-        <v>242881659.07645947</v>
+        <v>166519967.74255177</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -27808,7 +27808,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="27">
-        <v>237672109.10954285</v>
+        <v>208529482.82675153</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -27818,7 +27818,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="27">
-        <v>143601111.28406668</v>
+        <v>212756223.21403551</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -27828,7 +27828,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="27">
-        <v>210789819.54270661</v>
+        <v>76876260.5155202</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -27838,7 +27838,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="27">
-        <v>202699047.98082939</v>
+        <v>132092188.55275577</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -27848,7 +27848,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="27">
-        <v>179879071.38700157</v>
+        <v>172116893.7495923</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -27858,7 +27858,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="27">
-        <v>247196855.66246435</v>
+        <v>164580267.9953995</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -27868,7 +27868,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="27">
-        <v>71082326.522254154</v>
+        <v>150213126.96077436</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -27878,7 +27878,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="27">
-        <v>160366547.56185663</v>
+        <v>90520141.358617932</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -27888,7 +27888,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="27">
-        <v>208379779.71499151</v>
+        <v>175675863.70096076</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -27898,7 +27898,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="27">
-        <v>207296075.3264991</v>
+        <v>224933365.48256457</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -27908,7 +27908,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="27">
-        <v>202735760.18155032</v>
+        <v>174448974.93323499</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -27918,7 +27918,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="27">
-        <v>215071706.61750802</v>
+        <v>204732433.16630447</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -27928,7 +27928,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="27">
-        <v>193996221.55512619</v>
+        <v>142797606.14737415</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -27938,7 +27938,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="27">
-        <v>155515957.94626287</v>
+        <v>199304014.7122283</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -27948,7 +27948,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="27">
-        <v>120588547.61673826</v>
+        <v>184465020.30771217</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -27958,7 +27958,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="27">
-        <v>148024243.23727381</v>
+        <v>278401854.60175955</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -27968,7 +27968,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="27">
-        <v>144142856.5664902</v>
+        <v>116330506.23571536</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -27978,7 +27978,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="27">
-        <v>160578104.4346965</v>
+        <v>181486293.8618539</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -27988,7 +27988,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="27">
-        <v>226190614.33074766</v>
+        <v>110261778.94885504</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -27998,7 +27998,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="27">
-        <v>159859151.59396666</v>
+        <v>210613752.33389732</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -28008,7 +28008,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="27">
-        <v>88055794.55619061</v>
+        <v>75264984.425656453</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -28018,7 +28018,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="27">
-        <v>221783964.61922589</v>
+        <v>108703236.54604405</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -28028,7 +28028,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="27">
-        <v>132934223.76965034</v>
+        <v>262412846.31959835</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -28038,7 +28038,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="27">
-        <v>140473087.64672706</v>
+        <v>28965388.058950417</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -28048,7 +28048,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="27">
-        <v>92753139.447687939</v>
+        <v>177639499.29662165</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -28058,7 +28058,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="27">
-        <v>119319490.19946931</v>
+        <v>177257856.48122859</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -28068,7 +28068,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="27">
-        <v>174148101.42686284</v>
+        <v>185600163.06953514</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -28078,7 +28078,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="27">
-        <v>248506589.96714976</v>
+        <v>222242408.03264925</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -28088,7 +28088,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="27">
-        <v>168975566.79402262</v>
+        <v>283530567.52147722</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -28098,7 +28098,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="27">
-        <v>196947576.02118358</v>
+        <v>169964253.83507952</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -28108,7 +28108,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="27">
-        <v>120276095.94002764</v>
+        <v>163853585.69070506</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -28118,7 +28118,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="27">
-        <v>136010053.77066225</v>
+        <v>150419443.09122184</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -28128,7 +28128,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="27">
-        <v>221190242.89824456</v>
+        <v>111710277.94291972</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -28138,7 +28138,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="27">
-        <v>153302760.00456217</v>
+        <v>152661188.2859261</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -28148,7 +28148,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="27">
-        <v>198574652.35010654</v>
+        <v>134306661.05574423</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -28158,7 +28158,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="27">
-        <v>158932773.57224074</v>
+        <v>119881352.59182598</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -28168,7 +28168,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="27">
-        <v>166856662.09691021</v>
+        <v>141708170.29473457</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -28178,7 +28178,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="27">
-        <v>193062851.99876896</v>
+        <v>172216424.50091785</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -28188,7 +28188,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="27">
-        <v>138846076.72798106</v>
+        <v>211047647.739133</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -28198,7 +28198,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="27">
-        <v>159661125.50056666</v>
+        <v>131314539.11892645</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -28208,7 +28208,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="27">
-        <v>239456529.80818322</v>
+        <v>209833866.42683965</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -28218,7 +28218,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="27">
-        <v>175067625.15857536</v>
+        <v>140923761.34332627</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -28228,7 +28228,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="27">
-        <v>124522793.7440958</v>
+        <v>123564928.97665489</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -28238,7 +28238,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="27">
-        <v>171348661.90543467</v>
+        <v>291604979.58665121</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -28248,7 +28248,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="27">
-        <v>152199751.42974496</v>
+        <v>199662218.27089384</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -28258,7 +28258,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="27">
-        <v>166691563.9217068</v>
+        <v>118980494.22345257</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -28268,7 +28268,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="27">
-        <v>219244700.79743376</v>
+        <v>228971364.12096903</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -28278,7 +28278,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="27">
-        <v>239421052.60408723</v>
+        <v>118727497.57729954</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -28288,7 +28288,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="27">
-        <v>101435771.27204353</v>
+        <v>206257130.06295079</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -28298,7 +28298,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="27">
-        <v>218920964.46704772</v>
+        <v>254590251.35069215</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -28308,7 +28308,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="27">
-        <v>162692440.53592601</v>
+        <v>121420632.73565349</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -28318,7 +28318,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="27">
-        <v>130543626.90961261</v>
+        <v>147512019.58600017</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -28328,7 +28328,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="27">
-        <v>127666570.07650614</v>
+        <v>145012241.02723998</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -28338,7 +28338,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="27">
-        <v>193241241.29089969</v>
+        <v>144847930.47353444</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -28348,7 +28348,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="27">
-        <v>104257183.87786366</v>
+        <v>145764311.08141223</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -28358,7 +28358,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="27">
-        <v>52728159.399944201</v>
+        <v>264946360.87041473</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -28368,7 +28368,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="27">
-        <v>166740413.64190257</v>
+        <v>168320583.13812876</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -28378,7 +28378,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="27">
-        <v>93676760.108388618</v>
+        <v>221917320.22996569</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -28388,7 +28388,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="27">
-        <v>265271213.52609858</v>
+        <v>142120061.33555421</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -28398,7 +28398,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="27">
-        <v>199001081.90618208</v>
+        <v>163574568.14749026</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -28408,7 +28408,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="27">
-        <v>125046152.47204316</v>
+        <v>163924539.81175187</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -28418,7 +28418,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="27">
-        <v>220066947.84667969</v>
+        <v>102140865.61467583</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -28428,7 +28428,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="27">
-        <v>22297786.359944679</v>
+        <v>30620393.406479783</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -28438,7 +28438,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="27">
-        <v>175910792.30020139</v>
+        <v>173484132.22012559</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -28515,15 +28515,15 @@
       </c>
       <c r="B4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N6,Mappings!O6)</f>
-        <v>1429.4519720967708</v>
+        <v>1523.0976728420617</v>
       </c>
       <c r="C4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N7,Mappings!O7)</f>
-        <v>248.26190594039267</v>
+        <v>288.67318219163013</v>
       </c>
       <c r="D4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N8,Mappings!O8)</f>
-        <v>2100.2491091868874</v>
+        <v>1618.9680632952584</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -28551,15 +28551,15 @@
       </c>
       <c r="B6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.558519192858117</v>
+        <v>1.7963134435644417</v>
       </c>
       <c r="C6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>8.4360128287088507</v>
+        <v>4.7866552351771112</v>
       </c>
       <c r="D6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.6421302591993183</v>
+        <v>1.6439256302089227</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -28623,15 +28623,15 @@
       </c>
       <c r="B10" s="17">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L37))</f>
-        <v>-36.007806965709591</v>
+        <v>43.772213123870699</v>
       </c>
       <c r="C10" s="17">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L37))</f>
-        <v>18.710646107449982</v>
+        <v>6.8707197193103582</v>
       </c>
       <c r="D10" s="17">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L39),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L39))</f>
-        <v>1271.8526582395598</v>
+        <v>433.99376411390512</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -28680,15 +28680,15 @@
       </c>
       <c r="B14" s="17">
         <f ca="1">B4*B6</f>
-        <v>2227.8283337817029</v>
+        <v>2735.9608255879111</v>
       </c>
       <c r="C14" s="17">
         <f ca="1">C4*C6</f>
-        <v>2094.3406233928627</v>
+        <v>1381.7789987928024</v>
       </c>
       <c r="D14" s="17">
         <f ca="1">D4*D6</f>
-        <v>3448.882614052201</v>
+        <v>2661.4630937407765</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -28698,15 +28698,15 @@
       </c>
       <c r="B15" s="17">
         <f ca="1">B8-IF(B9&gt;0,B8-B10,B8+B10)</f>
-        <v>-36.007806965709733</v>
+        <v>43.772213123870642</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" ref="C15:D15" ca="1" si="0">C8-IF(C9&gt;0,C8-C10,C8+C10)</f>
-        <v>-18.710646107449975</v>
+        <v>-6.8707197193102729</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>1271.8526582395589</v>
+        <v>433.99376411390585</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -28716,15 +28716,15 @@
       </c>
       <c r="B16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>5460.3938818982042</v>
+        <v>5297.6575289955417</v>
       </c>
       <c r="C16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>22048.758060842873</v>
+        <v>22048.778736981363</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" ref="D16" ca="1" si="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>42123.1196815281</v>
+        <v>42455.00422727986</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -28734,19 +28734,19 @@
       </c>
       <c r="B18" s="10">
         <f ca="1">(B14+B15)*B16</f>
-        <v>11968203.394844947</v>
+        <v>14726073.661129126</v>
       </c>
       <c r="C18" s="10">
         <f ca="1">(C14+C15)*C16</f>
-        <v>45765063.192998849</v>
+        <v>30315048.428935252</v>
       </c>
       <c r="D18" s="10">
         <f ca="1">(D14+D15)*D16</f>
-        <v>198852096.85955697</v>
+        <v>131417633.98558298</v>
       </c>
       <c r="F18" s="29">
         <f ca="1">B18+C18+D18</f>
-        <v>256585363.44740078</v>
+        <v>176458756.07564735</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -28765,7 +28765,7 @@
       </c>
       <c r="F19" s="29">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>59755917.903154962</v>
+        <v>58165823.670112781</v>
       </c>
       <c r="H19" s="100" t="s">
         <v>49</v>
@@ -28788,13 +28788,13 @@
       <c r="E20" s="4"/>
       <c r="F20" s="29">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>173867655.75327626</v>
+        <v>165762899.95218214</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="100"/>
       <c r="I20" s="4">
         <f ca="1">100*F19/F20</f>
-        <v>34.368622297381471</v>
+        <v>35.089772009835713</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -28809,7 +28809,7 @@
       </c>
       <c r="F22" s="29">
         <f ca="1">F18</f>
-        <v>256585363.44740078</v>
+        <v>176458756.07564735</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -28820,7 +28820,7 @@
       </c>
       <c r="F23" s="29">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>206958841.98813075</v>
+        <v>200356625.06009394</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -28830,7 +28830,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="29">
-        <v>110486976.05786681</v>
+        <v>149602091.51666448</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -28840,7 +28840,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="29">
-        <v>178321163.72876647</v>
+        <v>146919659.10657048</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -28850,7 +28850,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="29">
-        <v>187519292.93799555</v>
+        <v>152756883.57062882</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -28860,7 +28860,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="29">
-        <v>161597521.82799673</v>
+        <v>142335211.58515322</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -28870,7 +28870,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="29">
-        <v>154102423.57751328</v>
+        <v>214536758.75776151</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -28880,7 +28880,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="29">
-        <v>107012917.53334057</v>
+        <v>182377881.36019927</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -28890,7 +28890,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="29">
-        <v>194233484.93536052</v>
+        <v>116079929.96636994</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -28900,7 +28900,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="29">
-        <v>157534590.57660636</v>
+        <v>130073949.70863986</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -28910,7 +28910,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="29">
-        <v>168569484.22614333</v>
+        <v>274635682.64358991</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -28920,7 +28920,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="29">
-        <v>214474328.49582112</v>
+        <v>173728845.93548426</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -28930,7 +28930,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="29">
-        <v>141166199.04108846</v>
+        <v>185241652.12815005</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -28940,7 +28940,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="29">
-        <v>147538556.69937083</v>
+        <v>113798136.02056825</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -28950,7 +28950,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="29">
-        <v>94400433.15798308</v>
+        <v>245247991.51735705</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -28960,7 +28960,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="29">
-        <v>212915607.82214418</v>
+        <v>257179899.06450516</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -28970,7 +28970,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="29">
-        <v>320939118.34605217</v>
+        <v>187803217.47024432</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -28980,7 +28980,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="29">
-        <v>211451896.53311381</v>
+        <v>200275019.12935084</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -28990,7 +28990,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="29">
-        <v>166909585.89455825</v>
+        <v>229417865.51038048</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -29000,7 +29000,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="29">
-        <v>92090513.193596333</v>
+        <v>202440122.73456442</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -29010,7 +29010,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="29">
-        <v>178776487.13917172</v>
+        <v>161741633.66625029</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -29020,7 +29020,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="29">
-        <v>216540132.01873201</v>
+        <v>142526735.99302933</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -29030,7 +29030,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="29">
-        <v>219699795.40529346</v>
+        <v>114717465.70596404</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -29040,7 +29040,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="29">
-        <v>132540896.66096905</v>
+        <v>180545027.80814064</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -29050,7 +29050,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="29">
-        <v>159099394.07765323</v>
+        <v>97398800.645180225</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -29060,7 +29060,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="29">
-        <v>164308604.7637088</v>
+        <v>149663156.47918624</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -29070,7 +29070,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="29">
-        <v>177380801.22568804</v>
+        <v>177738941.16953006</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -29080,7 +29080,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="29">
-        <v>164226250.68712223</v>
+        <v>131502459.71753243</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -29090,7 +29090,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="29">
-        <v>239807902.19698241</v>
+        <v>171579505.25350738</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -29100,7 +29100,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="29">
-        <v>264467892.48425663</v>
+        <v>74342342.790982634</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -29110,7 +29110,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="29">
-        <v>343199415.56530082</v>
+        <v>236081084.91422203</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -29120,7 +29120,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="29">
-        <v>184141987.43846202</v>
+        <v>191501228.21503422</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -29130,7 +29130,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="29">
-        <v>137478416.59173629</v>
+        <v>86255350.140548095</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -29140,7 +29140,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="29">
-        <v>163498090.57827893</v>
+        <v>212547800.57616985</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -29150,7 +29150,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="29">
-        <v>104825155.12361643</v>
+        <v>92898046.41138494</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -29160,7 +29160,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="29">
-        <v>198310664.02299309</v>
+        <v>188251406.97969759</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -29170,7 +29170,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="29">
-        <v>200338910.27175236</v>
+        <v>160520038.87013838</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -29180,7 +29180,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="29">
-        <v>220342343.25797749</v>
+        <v>278580896.3349722</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -29190,7 +29190,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="29">
-        <v>114401824.10208437</v>
+        <v>155581884.2060402</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -29200,7 +29200,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="29">
-        <v>164685342.27951226</v>
+        <v>153102361.70381969</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -29210,7 +29210,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="29">
-        <v>120253288.03105795</v>
+        <v>219549237.41384494</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -29220,7 +29220,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="29">
-        <v>189876768.55649161</v>
+        <v>53666112.576306455</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -29230,7 +29230,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="29">
-        <v>177562175.1765694</v>
+        <v>139272786.17651054</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -29240,7 +29240,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="29">
-        <v>225913733.93716794</v>
+        <v>103776238.12789057</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -29250,7 +29250,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="29">
-        <v>59110461.192272469</v>
+        <v>319894489.43209565</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -29260,7 +29260,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="29">
-        <v>100709571.78324917</v>
+        <v>357142562.48484409</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -29270,7 +29270,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="29">
-        <v>260038010.68213826</v>
+        <v>219499562.05125302</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -29280,7 +29280,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="29">
-        <v>282914865.29272115</v>
+        <v>205440675.00289106</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -29290,7 +29290,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="29">
-        <v>249391330.81793708</v>
+        <v>187433098.57575426</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -29300,7 +29300,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="29">
-        <v>120784976.78153566</v>
+        <v>36937485.166595861</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -29310,7 +29310,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="29">
-        <v>156768520.46278167</v>
+        <v>158540963.74580216</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -29320,7 +29320,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="29">
-        <v>131197958.5631422</v>
+        <v>164192213.71618429</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -29330,7 +29330,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="29">
-        <v>212909554.36819029</v>
+        <v>108145369.73531252</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -29340,7 +29340,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="29">
-        <v>92884152.414754316</v>
+        <v>96985424.765277177</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -29350,7 +29350,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="29">
-        <v>125788961.0353874</v>
+        <v>117076389.17005031</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -29360,7 +29360,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="29">
-        <v>102049480.52139121</v>
+        <v>255002187.9584716</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -29370,7 +29370,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="29">
-        <v>138616575.17969799</v>
+        <v>220198426.34239879</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -29380,7 +29380,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="29">
-        <v>135114218.9594146</v>
+        <v>141785054.91855681</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -29390,7 +29390,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="29">
-        <v>193827349.69169632</v>
+        <v>122516516.43740332</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -29400,7 +29400,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="29">
-        <v>203289031.30217293</v>
+        <v>282016455.94067299</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -29410,7 +29410,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="29">
-        <v>221350144.59269178</v>
+        <v>146898680.05886036</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -29420,7 +29420,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="29">
-        <v>153713452.89867628</v>
+        <v>26300721.003163725</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -29430,7 +29430,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="29">
-        <v>140319699.64361537</v>
+        <v>144410810.69121802</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -29440,7 +29440,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="29">
-        <v>228040803.44599879</v>
+        <v>106092727.95097223</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -29450,7 +29450,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="29">
-        <v>205523111.48050839</v>
+        <v>235732814.90498003</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -29460,7 +29460,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="29">
-        <v>243326034.25340015</v>
+        <v>165480134.82142508</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -29470,7 +29470,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="29">
-        <v>122165758.64734168</v>
+        <v>218623250.55677623</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -29480,7 +29480,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="29">
-        <v>139117972.35761827</v>
+        <v>182364608.15589154</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -29490,7 +29490,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="29">
-        <v>61576469.405645818</v>
+        <v>240366051.16107163</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -29500,7 +29500,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="29">
-        <v>138880602.10049227</v>
+        <v>174704279.79603612</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -29510,7 +29510,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="29">
-        <v>259684592.40052712</v>
+        <v>128615108.93028215</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -29520,7 +29520,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="29">
-        <v>192334737.29568744</v>
+        <v>278927760.15240729</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -29530,7 +29530,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="29">
-        <v>87251183.011094451</v>
+        <v>145821165.04175976</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -29540,7 +29540,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="29">
-        <v>255034469.19353151</v>
+        <v>146267266.63491163</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -29550,7 +29550,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="29">
-        <v>298762716.05912071</v>
+        <v>222366647.69056904</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -29560,7 +29560,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="29">
-        <v>179838793.97565126</v>
+        <v>86336385.292370945</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -29570,7 +29570,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="29">
-        <v>202461045.68580741</v>
+        <v>69139241.872697279</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -29580,7 +29580,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="29">
-        <v>71048516.790527388</v>
+        <v>163909302.40739655</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -29590,7 +29590,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="29">
-        <v>179715147.02316338</v>
+        <v>119027299.17533006</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -29600,7 +29600,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="29">
-        <v>172598889.42612258</v>
+        <v>246031021.05129665</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -29610,7 +29610,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="29">
-        <v>218470662.64613637</v>
+        <v>134142170.14487582</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -29620,7 +29620,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="29">
-        <v>155799279.59300667</v>
+        <v>153768754.55839184</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -29630,7 +29630,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="29">
-        <v>161710791.58847526</v>
+        <v>134540800.08813107</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -29640,7 +29640,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="29">
-        <v>345304168.87087983</v>
+        <v>126821669.31647477</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -29650,7 +29650,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="29">
-        <v>295132615.66812885</v>
+        <v>144575010.15885356</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -29660,7 +29660,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="29">
-        <v>115274513.5916959</v>
+        <v>203942865.38852537</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -29670,7 +29670,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="29">
-        <v>149733521.73234558</v>
+        <v>114594887.99058944</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -29680,7 +29680,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="29">
-        <v>272288446.86452508</v>
+        <v>88662593.986694098</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -29690,7 +29690,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="29">
-        <v>177974742.90704757</v>
+        <v>160723887.38499302</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -29700,7 +29700,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="29">
-        <v>90198256.989342928</v>
+        <v>161018730.99523973</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -29710,7 +29710,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="29">
-        <v>101397243.31500602</v>
+        <v>217425889.86638251</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -29720,7 +29720,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="29">
-        <v>182038710.90004581</v>
+        <v>179821044.15789342</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -29730,7 +29730,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="29">
-        <v>156041858.85440344</v>
+        <v>179469743.56969875</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -29740,7 +29740,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="29">
-        <v>151990735.93352282</v>
+        <v>182998927.18203673</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -29750,7 +29750,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="29">
-        <v>158783183.31893146</v>
+        <v>180516547.03001767</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -29760,7 +29760,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="29">
-        <v>144035413.78353649</v>
+        <v>161424632.03065231</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -29770,7 +29770,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="29">
-        <v>90036442.958910853</v>
+        <v>235220600.78774562</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -29780,7 +29780,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="29">
-        <v>125391095.92096534</v>
+        <v>94554839.35978958</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -29790,7 +29790,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="29">
-        <v>227810122.13346219</v>
+        <v>196714302.5477092</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -29800,7 +29800,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="29">
-        <v>165083293.20428675</v>
+        <v>142041882.36999893</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -29810,7 +29810,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="29">
-        <v>140959932.94160953</v>
+        <v>164408386.82651639</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -29820,7 +29820,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="29">
-        <v>53013725.751105294</v>
+        <v>164148960.43694806</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -29830,7 +29830,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="29">
-        <v>224403984.64430752</v>
+        <v>115721358.06029853</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -29840,7 +29840,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="29">
-        <v>205055592.54279578</v>
+        <v>197204312.00270683</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -29850,7 +29850,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="29">
-        <v>180901920.08999076</v>
+        <v>174615134.36794114</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -29860,7 +29860,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="29">
-        <v>146895117.16953838</v>
+        <v>90903004.804897338</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -29870,7 +29870,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="29">
-        <v>146814559.85035545</v>
+        <v>110104891.18957897</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -29880,7 +29880,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="29">
-        <v>130543157.24033907</v>
+        <v>97478494.701299727</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -29959,15 +29959,15 @@
       </c>
       <c r="B4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N18,Mappings!O18)</f>
-        <v>1052.6656275469284</v>
+        <v>1704.0845008664378</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N19,Mappings!O19)</f>
-        <v>250.5833909055828</v>
+        <v>259.91289650774422</v>
       </c>
       <c r="D4" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N20,Mappings!O20)</f>
-        <v>1957.8374503861896</v>
+        <v>1921.7968577757631</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -30079,15 +30079,15 @@
       </c>
       <c r="B10" s="27">
         <f ca="1">IF(B9&gt;=0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L37))</f>
-        <v>396.68972161611919</v>
+        <v>923.7825177250113</v>
       </c>
       <c r="C10" s="27">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L37),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L37))</f>
-        <v>8.0403441291156277</v>
+        <v>11.518182134465469</v>
       </c>
       <c r="D10" s="27">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L39),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L39))</f>
-        <v>-363.45475667045582</v>
+        <v>313.09372007071937</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
@@ -30146,15 +30146,15 @@
       </c>
       <c r="B14" s="27">
         <f ca="1">B4*B6</f>
-        <v>1702.5267836818384</v>
+        <v>2756.0978799536879</v>
       </c>
       <c r="C14" s="27">
         <f ca="1">C4*C6</f>
-        <v>1897.4972398300647</v>
+        <v>1968.143227439637</v>
       </c>
       <c r="D14" s="27">
         <f ca="1">D4*D6</f>
-        <v>3645.339963077548</v>
+        <v>3578.235202919921</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -30166,15 +30166,15 @@
       </c>
       <c r="B15" s="27">
         <f ca="1">B8-IF(B9&gt;0,B8-B10,B8+B10)</f>
-        <v>396.68972161611919</v>
+        <v>923.7825177250113</v>
       </c>
       <c r="C15" s="27">
         <f t="shared" ref="C15:D15" ca="1" si="0">C8-IF(C9&gt;0,C8-C10,C8+C10)</f>
-        <v>8.0403441291155104</v>
+        <v>11.518182134465405</v>
       </c>
       <c r="D15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>-363.45475667045503</v>
+        <v>313.09372007071943</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -30186,15 +30186,15 @@
       </c>
       <c r="B16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>5772.6522012939868</v>
+        <v>5600.2706290748147</v>
       </c>
       <c r="C16" s="27">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>22726.885534604902</v>
+        <v>22664.775922794128</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" ref="D16" ca="1" si="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>43553.509108831182</v>
+        <v>42225.941150076113</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -30213,20 +30213,20 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">(B14+B15)*B16</f>
-        <v>12118046.780300925</v>
+        <v>20608326.109628171</v>
       </c>
       <c r="C18" s="37">
         <f ca="1">(C14+C15)*C16</f>
-        <v>43306934.552527867</v>
+        <v>44868582.250999801</v>
       </c>
       <c r="D18" s="37">
         <f ca="1">(D14+D15)*D16</f>
-        <v>142937617.23138961</v>
+        <v>164315026.09779185</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27">
         <f ca="1">B18+C18+D18</f>
-        <v>198362598.5642184</v>
+        <v>229791934.45841983</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -30246,7 +30246,7 @@
       <c r="E19" s="27"/>
       <c r="F19" s="27">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>31900402.56512272</v>
+        <v>32008316.584041908</v>
       </c>
       <c r="H19" s="100" t="s">
         <v>49</v>
@@ -30269,13 +30269,13 @@
       <c r="E20" s="27"/>
       <c r="F20" s="27">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>205468047.3942433</v>
+        <v>205925181.04312289</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="100"/>
       <c r="I20" s="4">
         <f ca="1">100*F19/F20</f>
-        <v>15.525724301021652</v>
+        <v>15.543663199372899</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -30290,7 +30290,7 @@
       </c>
       <c r="F22" s="29">
         <f ca="1">F18</f>
-        <v>198362598.5642184</v>
+        <v>229791934.45841983</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -30301,7 +30301,7 @@
       </c>
       <c r="F23" s="29">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>216632744.27885497</v>
+        <v>237986273.44293317</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -30311,7 +30311,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="29">
-        <v>157469135.36561918</v>
+        <v>288419562.56044948</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -30321,7 +30321,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="29">
-        <v>247446436.47767514</v>
+        <v>186802229.75444067</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -30331,7 +30331,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="29">
-        <v>163448245.58817598</v>
+        <v>236669014.35122186</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -30341,7 +30341,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="29">
-        <v>218149960.54461333</v>
+        <v>227063730.90359539</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -30351,7 +30351,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="29">
-        <v>183309400.71809518</v>
+        <v>229411216.57933652</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -30361,7 +30361,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="29">
-        <v>240325303.98741353</v>
+        <v>224889597.27882221</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -30371,7 +30371,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="29">
-        <v>172704694.62670612</v>
+        <v>144526034.12942171</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -30381,7 +30381,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="29">
-        <v>220935838.17921457</v>
+        <v>149260151.41396707</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -30391,7 +30391,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="29">
-        <v>277317158.94785762</v>
+        <v>210245096.5185985</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -30401,7 +30401,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="29">
-        <v>238522348.18934631</v>
+        <v>174777850.39830357</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -30411,7 +30411,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="29">
-        <v>201484099.38597733</v>
+        <v>208739853.44668889</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -30421,7 +30421,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="29">
-        <v>183511385.62228543</v>
+        <v>202285327.51791424</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -30431,7 +30431,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="29">
-        <v>175788926.12013924</v>
+        <v>206086596.09278905</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -30441,7 +30441,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="29">
-        <v>214433578.31764299</v>
+        <v>165301458.31337973</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -30451,7 +30451,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="29">
-        <v>245689602.40800312</v>
+        <v>231428397.98180979</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -30461,7 +30461,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="29">
-        <v>188104738.62762162</v>
+        <v>201128697.5121609</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -30471,7 +30471,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="29">
-        <v>229277113.99553645</v>
+        <v>134777378.52927959</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -30481,7 +30481,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="29">
-        <v>165899002.8985512</v>
+        <v>208333439.58141357</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -30491,7 +30491,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="29">
-        <v>220923896.61215556</v>
+        <v>221438013.1914511</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -30501,7 +30501,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="29">
-        <v>232589764.71936405</v>
+        <v>178608569.09364319</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -30511,7 +30511,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="29">
-        <v>216568459.70946139</v>
+        <v>161934198.56771013</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -30521,7 +30521,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="29">
-        <v>201027529.475299</v>
+        <v>191482957.20067871</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -30531,7 +30531,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="29">
-        <v>250945022.88470721</v>
+        <v>235684173.07383144</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -30541,7 +30541,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="29">
-        <v>234171828.27436325</v>
+        <v>236624854.32062137</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -30551,7 +30551,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="29">
-        <v>224271289.52382505</v>
+        <v>168391835.97056359</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -30561,7 +30561,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="29">
-        <v>208301546.38506573</v>
+        <v>226688837.38567042</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -30571,7 +30571,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="29">
-        <v>204197554.47211418</v>
+        <v>209530497.51502758</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -30581,7 +30581,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="29">
-        <v>215862618.85987478</v>
+        <v>218994146.25765717</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -30591,7 +30591,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="29">
-        <v>180416172.76562777</v>
+        <v>185710502.08706257</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -30601,7 +30601,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="29">
-        <v>202019517.36153316</v>
+        <v>195017784.32053161</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -30611,7 +30611,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="29">
-        <v>213115781.13874835</v>
+        <v>228933146.15685725</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -30621,7 +30621,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="29">
-        <v>191355731.83365154</v>
+        <v>209923124.13735646</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -30631,7 +30631,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="29">
-        <v>242995898.92191488</v>
+        <v>217120516.93815452</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -30641,7 +30641,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="29">
-        <v>201996592.6638312</v>
+        <v>198998466.04131863</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -30651,7 +30651,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="29">
-        <v>205192397.54257309</v>
+        <v>198172009.24585658</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -30661,7 +30661,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="29">
-        <v>220317543.61461806</v>
+        <v>212997152.463164</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -30671,7 +30671,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="29">
-        <v>194902269.94985816</v>
+        <v>214961393.5139505</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -30681,7 +30681,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="29">
-        <v>244245451.15565392</v>
+        <v>275027133.95218068</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -30691,7 +30691,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="29">
-        <v>173582627.05568764</v>
+        <v>179279594.51143312</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -30701,7 +30701,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="29">
-        <v>218316362.11592823</v>
+        <v>211659838.09445968</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -30711,7 +30711,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="29">
-        <v>207897923.65996918</v>
+        <v>151512124.36261317</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -30721,7 +30721,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="29">
-        <v>222197027.03174192</v>
+        <v>207931240.00590262</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -30731,7 +30731,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="29">
-        <v>189699624.92983407</v>
+        <v>208070183.05478162</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -30741,7 +30741,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="29">
-        <v>195262249.48825076</v>
+        <v>233014361.97973272</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -30751,7 +30751,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="29">
-        <v>133787395.5904047</v>
+        <v>173866552.43258682</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -30761,7 +30761,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="29">
-        <v>249221664.93395293</v>
+        <v>159008751.24320829</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -30771,7 +30771,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="29">
-        <v>210401944.48411676</v>
+        <v>254319373.85402918</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -30781,7 +30781,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="29">
-        <v>163327604.30364561</v>
+        <v>218797978.60046399</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -30791,7 +30791,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="29">
-        <v>223000865.07626158</v>
+        <v>192882470.23454863</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -30801,7 +30801,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="29">
-        <v>187358707.09277189</v>
+        <v>234634006.75639325</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -30811,7 +30811,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="29">
-        <v>239162427.21596128</v>
+        <v>183283617.19952282</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -30821,7 +30821,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="29">
-        <v>216725392.35659543</v>
+        <v>238607808.94913</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -30831,7 +30831,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="29">
-        <v>231703196.2816143</v>
+        <v>197553557.13727203</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -30841,7 +30841,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="29">
-        <v>208848168.14939544</v>
+        <v>162872136.23558277</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -30851,7 +30851,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="29">
-        <v>193433515.78329158</v>
+        <v>254149385.95828849</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -30861,7 +30861,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="29">
-        <v>177103913.36216152</v>
+        <v>234327064.22931284</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -30871,7 +30871,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="29">
-        <v>198857494.1025908</v>
+        <v>221316050.40227979</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -30881,7 +30881,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="29">
-        <v>188966303.31444091</v>
+        <v>219722078.73568928</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -30891,7 +30891,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="29">
-        <v>209288297.1080814</v>
+        <v>196011156.93382588</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -30901,7 +30901,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="29">
-        <v>114992488.3389681</v>
+        <v>229104331.71965706</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -30911,7 +30911,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="29">
-        <v>175606196.99568838</v>
+        <v>218275765.36259842</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -30921,7 +30921,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="29">
-        <v>236846801.92303455</v>
+        <v>268200731.33583719</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -30931,7 +30931,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="29">
-        <v>240307274.47101504</v>
+        <v>234362992.4694024</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -30941,7 +30941,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="29">
-        <v>194067002.42235541</v>
+        <v>168601034.2900694</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -30951,7 +30951,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="29">
-        <v>180070231.52602986</v>
+        <v>207169602.18039334</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -30961,7 +30961,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="29">
-        <v>183317379.20644736</v>
+        <v>217863759.59825063</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -30971,7 +30971,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="29">
-        <v>178486374.51772249</v>
+        <v>197025548.12361541</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -30981,7 +30981,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="29">
-        <v>215283556.20559093</v>
+        <v>175528043.00607035</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -30991,7 +30991,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="29">
-        <v>213436151.06979811</v>
+        <v>246316080.32914382</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -31001,7 +31001,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="29">
-        <v>146894447.02225205</v>
+        <v>176086830.3455469</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -31011,7 +31011,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="29">
-        <v>203953072.30790371</v>
+        <v>158513046.34268785</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -31021,7 +31021,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="29">
-        <v>241287263.79697147</v>
+        <v>235474768.07198298</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -31031,7 +31031,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="29">
-        <v>239746559.47886086</v>
+        <v>195247405.87368181</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -31041,7 +31041,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="29">
-        <v>235360712.20351461</v>
+        <v>214177628.34169006</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -31051,7 +31051,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="29">
-        <v>246434100.40691909</v>
+        <v>178836571.61539701</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -31061,7 +31061,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="29">
-        <v>209867146.97250301</v>
+        <v>216186212.89618677</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -31071,7 +31071,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="29">
-        <v>180231705.2215755</v>
+        <v>211346006.64581478</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -31081,7 +31081,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="29">
-        <v>283293160.9378497</v>
+        <v>215847515.92032152</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -31091,7 +31091,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="29">
-        <v>241740758.27589387</v>
+        <v>232537046.44898778</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -31101,7 +31101,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="29">
-        <v>211868523.26972032</v>
+        <v>240241842.6988</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -31111,7 +31111,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="29">
-        <v>226076763.48248336</v>
+        <v>219127572.26457447</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -31121,7 +31121,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="29">
-        <v>221634599.81846526</v>
+        <v>203589308.3940084</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -31131,7 +31131,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="29">
-        <v>251087003.0275166</v>
+        <v>204022027.73259661</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -31141,7 +31141,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="29">
-        <v>160328567.11588466</v>
+        <v>256487828.32454839</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -31151,7 +31151,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="29">
-        <v>167938304.61423576</v>
+        <v>215616877.48751658</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -31161,7 +31161,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="29">
-        <v>217261774.50675544</v>
+        <v>215381191.81811014</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -31171,7 +31171,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="29">
-        <v>179512820.8741703</v>
+        <v>190897542.55003008</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -31181,7 +31181,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="29">
-        <v>167436707.9186174</v>
+        <v>206256168.54992944</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -31191,7 +31191,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="29">
-        <v>191693533.38017118</v>
+        <v>208821644.30587319</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -31201,7 +31201,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="29">
-        <v>191304336.11210713</v>
+        <v>144008706.45288208</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -31211,7 +31211,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="29">
-        <v>151318218.11561856</v>
+        <v>222324232.36823881</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -31221,7 +31221,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="29">
-        <v>177565600.66719404</v>
+        <v>194860275.68712443</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -31231,7 +31231,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="29">
-        <v>197186455.9486303</v>
+        <v>251202582.06254071</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -31241,7 +31241,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="29">
-        <v>191011428.93676245</v>
+        <v>227068663.24449119</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -31251,7 +31251,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="29">
-        <v>203721974.79808223</v>
+        <v>209925109.61981496</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -31261,7 +31261,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="29">
-        <v>249222420.58215481</v>
+        <v>155270574.17353451</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -31271,7 +31271,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="29">
-        <v>197021936.38990587</v>
+        <v>178740953.5133965</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -31281,7 +31281,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="29">
-        <v>197845549.27863666</v>
+        <v>159191353.48524946</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -31291,7 +31291,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="29">
-        <v>239269748.12087566</v>
+        <v>225194874.55907714</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -31301,7 +31301,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="29">
-        <v>199803060.29237196</v>
+        <v>246863501.01435015</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -31311,7 +31311,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="29">
-        <v>181649018.96955341</v>
+        <v>177998924.88468087</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -31321,7 +31321,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="29">
-        <v>135641697.88480121</v>
+        <v>189745841.59219229</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -31331,7 +31331,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="29">
-        <v>143263929.22247228</v>
+        <v>218237584.81716064</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -31341,7 +31341,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="29">
-        <v>291257033.95547688</v>
+        <v>99559418.305947602</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -31351,7 +31351,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="29">
-        <v>234345763.57652259</v>
+        <v>227705996.02859724</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -31361,7 +31361,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="29">
-        <v>170688080.2737098</v>
+        <v>137895552.69536549</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
